--- a/Project Management/02.設計書/プロジェクト管理(2).xlsx
+++ b/Project Management/02.設計書/プロジェクト管理(2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Phpchg\Project Management\02.設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F73D8B1-AE02-4D9C-8506-3A7AD10CA076}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDF3D08-A54D-4A52-A028-DD46FB2410B4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="599" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
   </bookViews>
@@ -432,7 +432,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="160">
   <si>
     <t>No</t>
   </si>
@@ -993,6 +993,9 @@
   </si>
   <si>
     <t>この町にある病院の場所をしらべられます。病院の情報もみられます</t>
+  </si>
+  <si>
+    <t>Min Htaw Lon</t>
   </si>
 </sst>
 </file>
@@ -2636,6 +2639,51 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2654,49 +2702,67 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="33" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="33" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="33" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="33" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2708,12 +2774,6 @@
     <xf numFmtId="0" fontId="15" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2726,76 +2786,22 @@
     <xf numFmtId="0" fontId="44" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="33" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="33" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="33" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="33" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2804,16 +2810,28 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2822,19 +2840,46 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2843,51 +2888,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2895,10 +2898,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2969,23 +2972,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3577,7 +3580,7 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="C16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3798,7 +3801,7 @@
         <v>42</v>
       </c>
       <c r="F25" s="135" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="G25" s="148" t="s">
         <v>56</v>
@@ -3809,7 +3812,7 @@
       <c r="I25" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="J25" s="141" t="s">
+      <c r="J25" s="108" t="s">
         <v>61</v>
       </c>
       <c r="N25" s="9"/>
@@ -3984,10 +3987,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="34.049999999999997" customHeight="1">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="215"/>
+      <c r="B1" s="209"/>
       <c r="C1" s="307" t="str">
         <f>表紙!C7</f>
         <v>プロジェクト名</v>
@@ -4006,12 +4009,12 @@
       <c r="O1" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="256"/>
-      <c r="Q1" s="257"/>
+      <c r="P1" s="229"/>
+      <c r="Q1" s="230"/>
     </row>
     <row r="2" spans="1:17" ht="34.049999999999997" customHeight="1" thickBot="1">
-      <c r="A2" s="216"/>
-      <c r="B2" s="217"/>
+      <c r="A2" s="210"/>
+      <c r="B2" s="211"/>
       <c r="C2" s="309"/>
       <c r="D2" s="310"/>
       <c r="E2" s="310"/>
@@ -4027,10 +4030,10 @@
       <c r="O2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="258">
+      <c r="P2" s="231">
         <v>44826</v>
       </c>
-      <c r="Q2" s="259"/>
+      <c r="Q2" s="232"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="8"/>
@@ -4296,10 +4299,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="34.049999999999997" customHeight="1">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="208" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="215"/>
+      <c r="B1" s="209"/>
       <c r="C1" s="307" t="str">
         <f>表紙!C7</f>
         <v>プロジェクト名</v>
@@ -4317,12 +4320,12 @@
       <c r="N1" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="256"/>
-      <c r="P1" s="257"/>
+      <c r="O1" s="229"/>
+      <c r="P1" s="230"/>
     </row>
     <row r="2" spans="1:16" ht="34.049999999999997" customHeight="1" thickBot="1">
-      <c r="A2" s="216"/>
-      <c r="B2" s="217"/>
+      <c r="A2" s="210"/>
+      <c r="B2" s="211"/>
       <c r="C2" s="309"/>
       <c r="D2" s="310"/>
       <c r="E2" s="310"/>
@@ -4337,10 +4340,10 @@
       <c r="N2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="258">
+      <c r="O2" s="231">
         <v>44826</v>
       </c>
-      <c r="P2" s="259"/>
+      <c r="P2" s="232"/>
     </row>
     <row r="3" spans="1:16" ht="16.2" thickBot="1">
       <c r="A3" s="5"/>
@@ -4404,10 +4407,10 @@
       <c r="I8" s="76"/>
       <c r="J8" s="76"/>
       <c r="K8" s="76"/>
-      <c r="L8" s="321"/>
-      <c r="M8" s="321"/>
-      <c r="N8" s="321"/>
-      <c r="O8" s="321"/>
+      <c r="L8" s="322"/>
+      <c r="M8" s="322"/>
+      <c r="N8" s="322"/>
+      <c r="O8" s="322"/>
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" ht="23.4">
@@ -4422,10 +4425,10 @@
       <c r="I9" s="79"/>
       <c r="J9" s="78"/>
       <c r="K9" s="78"/>
-      <c r="L9" s="320"/>
-      <c r="M9" s="320"/>
-      <c r="N9" s="320"/>
-      <c r="O9" s="320"/>
+      <c r="L9" s="319"/>
+      <c r="M9" s="319"/>
+      <c r="N9" s="319"/>
+      <c r="O9" s="319"/>
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" ht="23.4">
@@ -4440,10 +4443,10 @@
       <c r="I10" s="79"/>
       <c r="J10" s="78"/>
       <c r="K10" s="78"/>
-      <c r="L10" s="320"/>
-      <c r="M10" s="320"/>
-      <c r="N10" s="320"/>
-      <c r="O10" s="320"/>
+      <c r="L10" s="319"/>
+      <c r="M10" s="319"/>
+      <c r="N10" s="319"/>
+      <c r="O10" s="319"/>
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16" ht="23.4">
@@ -4458,10 +4461,10 @@
       <c r="I11" s="79"/>
       <c r="J11" s="78"/>
       <c r="K11" s="78"/>
-      <c r="L11" s="320"/>
-      <c r="M11" s="320"/>
-      <c r="N11" s="320"/>
-      <c r="O11" s="320"/>
+      <c r="L11" s="319"/>
+      <c r="M11" s="319"/>
+      <c r="N11" s="319"/>
+      <c r="O11" s="319"/>
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" ht="23.4">
@@ -4476,10 +4479,10 @@
       <c r="I12" s="79"/>
       <c r="J12" s="78"/>
       <c r="K12" s="78"/>
-      <c r="L12" s="320"/>
-      <c r="M12" s="320"/>
-      <c r="N12" s="320"/>
-      <c r="O12" s="320"/>
+      <c r="L12" s="319"/>
+      <c r="M12" s="319"/>
+      <c r="N12" s="319"/>
+      <c r="O12" s="319"/>
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16" ht="23.4">
@@ -4521,100 +4524,100 @@
       <c r="I17" s="76"/>
       <c r="J17" s="76"/>
       <c r="K17" s="76"/>
-      <c r="L17" s="321"/>
-      <c r="M17" s="321"/>
-      <c r="N17" s="321"/>
-      <c r="O17" s="321"/>
+      <c r="L17" s="322"/>
+      <c r="M17" s="322"/>
+      <c r="N17" s="322"/>
+      <c r="O17" s="322"/>
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" ht="23.4">
       <c r="A18" s="8"/>
       <c r="B18" s="76"/>
       <c r="C18" s="76"/>
-      <c r="D18" s="319"/>
-      <c r="E18" s="319"/>
+      <c r="D18" s="320"/>
+      <c r="E18" s="320"/>
       <c r="F18" s="78"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
       <c r="I18" s="79"/>
       <c r="J18" s="78"/>
       <c r="K18" s="78"/>
-      <c r="L18" s="320"/>
-      <c r="M18" s="320"/>
-      <c r="N18" s="320"/>
-      <c r="O18" s="320"/>
+      <c r="L18" s="319"/>
+      <c r="M18" s="319"/>
+      <c r="N18" s="319"/>
+      <c r="O18" s="319"/>
       <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16" ht="23.4">
       <c r="A19" s="8"/>
       <c r="B19" s="76"/>
       <c r="C19" s="76"/>
-      <c r="D19" s="319"/>
-      <c r="E19" s="319"/>
+      <c r="D19" s="320"/>
+      <c r="E19" s="320"/>
       <c r="F19" s="78"/>
       <c r="G19" s="78"/>
       <c r="H19" s="78"/>
       <c r="I19" s="79"/>
       <c r="J19" s="78"/>
       <c r="K19" s="78"/>
-      <c r="L19" s="320"/>
-      <c r="M19" s="320"/>
-      <c r="N19" s="320"/>
-      <c r="O19" s="320"/>
+      <c r="L19" s="319"/>
+      <c r="M19" s="319"/>
+      <c r="N19" s="319"/>
+      <c r="O19" s="319"/>
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" ht="58.95" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="80"/>
       <c r="C20" s="79"/>
-      <c r="D20" s="322"/>
-      <c r="E20" s="322"/>
+      <c r="D20" s="324"/>
+      <c r="E20" s="324"/>
       <c r="F20" s="78"/>
       <c r="G20" s="78"/>
       <c r="H20" s="78"/>
       <c r="I20" s="79"/>
       <c r="J20" s="78"/>
       <c r="K20" s="78"/>
-      <c r="L20" s="323"/>
-      <c r="M20" s="320"/>
-      <c r="N20" s="320"/>
-      <c r="O20" s="320"/>
+      <c r="L20" s="321"/>
+      <c r="M20" s="319"/>
+      <c r="N20" s="319"/>
+      <c r="O20" s="319"/>
       <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" ht="23.4">
       <c r="A21" s="8"/>
       <c r="B21" s="76"/>
       <c r="C21" s="76"/>
-      <c r="D21" s="319"/>
-      <c r="E21" s="319"/>
+      <c r="D21" s="320"/>
+      <c r="E21" s="320"/>
       <c r="F21" s="78"/>
       <c r="G21" s="78"/>
       <c r="H21" s="78"/>
       <c r="I21" s="79"/>
       <c r="J21" s="78"/>
       <c r="K21" s="78"/>
-      <c r="L21" s="320"/>
-      <c r="M21" s="320"/>
-      <c r="N21" s="320"/>
-      <c r="O21" s="320"/>
+      <c r="L21" s="319"/>
+      <c r="M21" s="319"/>
+      <c r="N21" s="319"/>
+      <c r="O21" s="319"/>
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" ht="23.4">
       <c r="A22" s="8"/>
       <c r="B22" s="76"/>
       <c r="C22" s="76"/>
-      <c r="D22" s="319"/>
-      <c r="E22" s="319"/>
+      <c r="D22" s="320"/>
+      <c r="E22" s="320"/>
       <c r="F22" s="78"/>
       <c r="G22" s="78"/>
       <c r="H22" s="78"/>
       <c r="I22" s="79"/>
       <c r="J22" s="78"/>
       <c r="K22" s="78"/>
-      <c r="L22" s="320"/>
-      <c r="M22" s="320"/>
-      <c r="N22" s="320"/>
-      <c r="O22" s="320"/>
+      <c r="L22" s="319"/>
+      <c r="M22" s="319"/>
+      <c r="N22" s="319"/>
+      <c r="O22" s="319"/>
       <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:16" ht="23.4">
@@ -4629,10 +4632,10 @@
       <c r="I23" s="79"/>
       <c r="J23" s="78"/>
       <c r="K23" s="78"/>
-      <c r="L23" s="320"/>
-      <c r="M23" s="320"/>
-      <c r="N23" s="320"/>
-      <c r="O23" s="320"/>
+      <c r="L23" s="319"/>
+      <c r="M23" s="319"/>
+      <c r="N23" s="319"/>
+      <c r="O23" s="319"/>
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16">
@@ -4670,46 +4673,46 @@
       <c r="I29" s="76"/>
       <c r="J29" s="76"/>
       <c r="K29" s="76"/>
-      <c r="L29" s="321"/>
-      <c r="M29" s="321"/>
-      <c r="N29" s="321"/>
-      <c r="O29" s="321"/>
+      <c r="L29" s="322"/>
+      <c r="M29" s="322"/>
+      <c r="N29" s="322"/>
+      <c r="O29" s="322"/>
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" ht="23.4">
       <c r="A30" s="8"/>
       <c r="B30" s="76"/>
       <c r="C30" s="76"/>
-      <c r="D30" s="319"/>
-      <c r="E30" s="319"/>
+      <c r="D30" s="320"/>
+      <c r="E30" s="320"/>
       <c r="F30" s="78"/>
       <c r="G30" s="78"/>
       <c r="H30" s="78"/>
       <c r="I30" s="79"/>
       <c r="J30" s="78"/>
       <c r="K30" s="78"/>
-      <c r="L30" s="320"/>
-      <c r="M30" s="320"/>
-      <c r="N30" s="320"/>
-      <c r="O30" s="320"/>
+      <c r="L30" s="319"/>
+      <c r="M30" s="319"/>
+      <c r="N30" s="319"/>
+      <c r="O30" s="319"/>
       <c r="P30" s="9"/>
     </row>
     <row r="31" spans="1:16" ht="23.4">
       <c r="A31" s="8"/>
       <c r="B31" s="76"/>
       <c r="C31" s="76"/>
-      <c r="D31" s="319"/>
-      <c r="E31" s="319"/>
+      <c r="D31" s="320"/>
+      <c r="E31" s="320"/>
       <c r="F31" s="78"/>
       <c r="G31" s="78"/>
       <c r="H31" s="78"/>
       <c r="I31" s="79"/>
       <c r="J31" s="78"/>
       <c r="K31" s="78"/>
-      <c r="L31" s="320"/>
-      <c r="M31" s="320"/>
-      <c r="N31" s="320"/>
-      <c r="O31" s="320"/>
+      <c r="L31" s="319"/>
+      <c r="M31" s="319"/>
+      <c r="N31" s="319"/>
+      <c r="O31" s="319"/>
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" ht="23.4">
@@ -4724,10 +4727,10 @@
       <c r="I32" s="79"/>
       <c r="J32" s="78"/>
       <c r="K32" s="78"/>
-      <c r="L32" s="320"/>
-      <c r="M32" s="320"/>
-      <c r="N32" s="320"/>
-      <c r="O32" s="320"/>
+      <c r="L32" s="319"/>
+      <c r="M32" s="319"/>
+      <c r="N32" s="319"/>
+      <c r="O32" s="319"/>
       <c r="P32" s="9"/>
     </row>
     <row r="33" spans="1:16" ht="23.4">
@@ -4742,10 +4745,10 @@
       <c r="I33" s="79"/>
       <c r="J33" s="78"/>
       <c r="K33" s="78"/>
-      <c r="L33" s="320"/>
-      <c r="M33" s="320"/>
-      <c r="N33" s="320"/>
-      <c r="O33" s="320"/>
+      <c r="L33" s="319"/>
+      <c r="M33" s="319"/>
+      <c r="N33" s="319"/>
+      <c r="O33" s="319"/>
       <c r="P33" s="9"/>
     </row>
     <row r="34" spans="1:16" ht="23.4">
@@ -4760,10 +4763,10 @@
       <c r="I34" s="79"/>
       <c r="J34" s="78"/>
       <c r="K34" s="78"/>
-      <c r="L34" s="320"/>
-      <c r="M34" s="320"/>
-      <c r="N34" s="320"/>
-      <c r="O34" s="320"/>
+      <c r="L34" s="319"/>
+      <c r="M34" s="319"/>
+      <c r="N34" s="319"/>
+      <c r="O34" s="319"/>
       <c r="P34" s="9"/>
     </row>
     <row r="35" spans="1:16" ht="23.4">
@@ -4778,10 +4781,10 @@
       <c r="I35" s="79"/>
       <c r="J35" s="78"/>
       <c r="K35" s="78"/>
-      <c r="L35" s="320"/>
-      <c r="M35" s="320"/>
-      <c r="N35" s="320"/>
-      <c r="O35" s="320"/>
+      <c r="L35" s="319"/>
+      <c r="M35" s="319"/>
+      <c r="N35" s="319"/>
+      <c r="O35" s="319"/>
       <c r="P35" s="9"/>
     </row>
     <row r="36" spans="1:16">
@@ -4815,100 +4818,100 @@
       <c r="I40" s="76"/>
       <c r="J40" s="76"/>
       <c r="K40" s="76"/>
-      <c r="L40" s="321"/>
-      <c r="M40" s="321"/>
-      <c r="N40" s="321"/>
-      <c r="O40" s="321"/>
+      <c r="L40" s="322"/>
+      <c r="M40" s="322"/>
+      <c r="N40" s="322"/>
+      <c r="O40" s="322"/>
       <c r="P40" s="9"/>
     </row>
     <row r="41" spans="1:16" ht="23.4">
       <c r="A41" s="8"/>
       <c r="B41" s="76"/>
       <c r="C41" s="76"/>
-      <c r="D41" s="319"/>
-      <c r="E41" s="319"/>
+      <c r="D41" s="320"/>
+      <c r="E41" s="320"/>
       <c r="F41" s="78"/>
       <c r="G41" s="78"/>
       <c r="H41" s="78"/>
       <c r="I41" s="79"/>
       <c r="J41" s="78"/>
       <c r="K41" s="78"/>
-      <c r="L41" s="320"/>
-      <c r="M41" s="320"/>
-      <c r="N41" s="320"/>
-      <c r="O41" s="320"/>
+      <c r="L41" s="319"/>
+      <c r="M41" s="319"/>
+      <c r="N41" s="319"/>
+      <c r="O41" s="319"/>
       <c r="P41" s="9"/>
     </row>
     <row r="42" spans="1:16" ht="23.4">
       <c r="A42" s="8"/>
       <c r="B42" s="76"/>
       <c r="C42" s="76"/>
-      <c r="D42" s="319"/>
-      <c r="E42" s="319"/>
+      <c r="D42" s="320"/>
+      <c r="E42" s="320"/>
       <c r="F42" s="78"/>
       <c r="G42" s="78"/>
       <c r="H42" s="78"/>
       <c r="I42" s="79"/>
       <c r="J42" s="78"/>
       <c r="K42" s="78"/>
-      <c r="L42" s="320"/>
-      <c r="M42" s="320"/>
-      <c r="N42" s="320"/>
-      <c r="O42" s="320"/>
+      <c r="L42" s="319"/>
+      <c r="M42" s="319"/>
+      <c r="N42" s="319"/>
+      <c r="O42" s="319"/>
       <c r="P42" s="9"/>
     </row>
     <row r="43" spans="1:16" ht="23.4">
       <c r="A43" s="8"/>
       <c r="B43" s="76"/>
       <c r="C43" s="76"/>
-      <c r="D43" s="319"/>
-      <c r="E43" s="319"/>
+      <c r="D43" s="320"/>
+      <c r="E43" s="320"/>
       <c r="F43" s="78"/>
       <c r="G43" s="78"/>
       <c r="H43" s="78"/>
       <c r="I43" s="79"/>
       <c r="J43" s="78"/>
       <c r="K43" s="78"/>
-      <c r="L43" s="320"/>
-      <c r="M43" s="320"/>
-      <c r="N43" s="320"/>
-      <c r="O43" s="320"/>
+      <c r="L43" s="319"/>
+      <c r="M43" s="319"/>
+      <c r="N43" s="319"/>
+      <c r="O43" s="319"/>
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" ht="23.4">
       <c r="A44" s="8"/>
       <c r="B44" s="76"/>
       <c r="C44" s="76"/>
-      <c r="D44" s="319"/>
-      <c r="E44" s="319"/>
+      <c r="D44" s="320"/>
+      <c r="E44" s="320"/>
       <c r="F44" s="78"/>
       <c r="G44" s="78"/>
       <c r="H44" s="78"/>
       <c r="I44" s="79"/>
       <c r="J44" s="78"/>
       <c r="K44" s="78"/>
-      <c r="L44" s="320"/>
-      <c r="M44" s="320"/>
-      <c r="N44" s="320"/>
-      <c r="O44" s="320"/>
+      <c r="L44" s="319"/>
+      <c r="M44" s="319"/>
+      <c r="N44" s="319"/>
+      <c r="O44" s="319"/>
       <c r="P44" s="9"/>
     </row>
     <row r="45" spans="1:16" ht="23.4">
       <c r="A45" s="8"/>
       <c r="B45" s="76"/>
       <c r="C45" s="76"/>
-      <c r="D45" s="319"/>
-      <c r="E45" s="319"/>
+      <c r="D45" s="320"/>
+      <c r="E45" s="320"/>
       <c r="F45" s="78"/>
       <c r="G45" s="78"/>
       <c r="H45" s="78"/>
       <c r="I45" s="79"/>
       <c r="J45" s="78"/>
       <c r="K45" s="81"/>
-      <c r="L45" s="320"/>
-      <c r="M45" s="320"/>
-      <c r="N45" s="320"/>
-      <c r="O45" s="320"/>
+      <c r="L45" s="319"/>
+      <c r="M45" s="319"/>
+      <c r="N45" s="319"/>
+      <c r="O45" s="319"/>
       <c r="P45" s="9"/>
     </row>
     <row r="46" spans="1:16" ht="23.4">
@@ -4923,10 +4926,10 @@
       <c r="I46" s="79"/>
       <c r="J46" s="78"/>
       <c r="K46" s="78"/>
-      <c r="L46" s="320"/>
-      <c r="M46" s="320"/>
-      <c r="N46" s="320"/>
-      <c r="O46" s="320"/>
+      <c r="L46" s="319"/>
+      <c r="M46" s="319"/>
+      <c r="N46" s="319"/>
+      <c r="O46" s="319"/>
       <c r="P46" s="9"/>
     </row>
     <row r="47" spans="1:16" ht="23.4">
@@ -4941,10 +4944,10 @@
       <c r="I47" s="79"/>
       <c r="J47" s="78"/>
       <c r="K47" s="78"/>
-      <c r="L47" s="320"/>
-      <c r="M47" s="320"/>
-      <c r="N47" s="320"/>
-      <c r="O47" s="320"/>
+      <c r="L47" s="319"/>
+      <c r="M47" s="319"/>
+      <c r="N47" s="319"/>
+      <c r="O47" s="319"/>
       <c r="P47" s="9"/>
     </row>
     <row r="48" spans="1:16">
@@ -4978,28 +4981,28 @@
       <c r="I52" s="76"/>
       <c r="J52" s="76"/>
       <c r="K52" s="76"/>
-      <c r="L52" s="321"/>
-      <c r="M52" s="321"/>
-      <c r="N52" s="321"/>
-      <c r="O52" s="321"/>
+      <c r="L52" s="322"/>
+      <c r="M52" s="322"/>
+      <c r="N52" s="322"/>
+      <c r="O52" s="322"/>
       <c r="P52" s="9"/>
     </row>
     <row r="53" spans="1:16" ht="23.4">
       <c r="A53" s="8"/>
       <c r="B53" s="76"/>
       <c r="C53" s="76"/>
-      <c r="D53" s="319"/>
-      <c r="E53" s="319"/>
+      <c r="D53" s="320"/>
+      <c r="E53" s="320"/>
       <c r="F53" s="78"/>
       <c r="G53" s="78"/>
       <c r="H53" s="78"/>
       <c r="I53" s="79"/>
       <c r="J53" s="78"/>
       <c r="K53" s="81"/>
-      <c r="L53" s="320"/>
-      <c r="M53" s="320"/>
-      <c r="N53" s="320"/>
-      <c r="O53" s="320"/>
+      <c r="L53" s="319"/>
+      <c r="M53" s="319"/>
+      <c r="N53" s="319"/>
+      <c r="O53" s="319"/>
       <c r="P53" s="9"/>
     </row>
     <row r="54" spans="1:16" ht="23.4">
@@ -5014,10 +5017,10 @@
       <c r="I54" s="79"/>
       <c r="J54" s="78"/>
       <c r="K54" s="78"/>
-      <c r="L54" s="320"/>
-      <c r="M54" s="320"/>
-      <c r="N54" s="320"/>
-      <c r="O54" s="320"/>
+      <c r="L54" s="319"/>
+      <c r="M54" s="319"/>
+      <c r="N54" s="319"/>
+      <c r="O54" s="319"/>
       <c r="P54" s="9"/>
     </row>
     <row r="55" spans="1:16" ht="23.4">
@@ -5032,10 +5035,10 @@
       <c r="I55" s="79"/>
       <c r="J55" s="78"/>
       <c r="K55" s="78"/>
-      <c r="L55" s="324"/>
-      <c r="M55" s="324"/>
-      <c r="N55" s="324"/>
-      <c r="O55" s="324"/>
+      <c r="L55" s="323"/>
+      <c r="M55" s="323"/>
+      <c r="N55" s="323"/>
+      <c r="O55" s="323"/>
       <c r="P55" s="9"/>
     </row>
     <row r="56" spans="1:16" ht="23.4">
@@ -5050,10 +5053,10 @@
       <c r="I56" s="79"/>
       <c r="J56" s="78"/>
       <c r="K56" s="78"/>
-      <c r="L56" s="320"/>
-      <c r="M56" s="320"/>
-      <c r="N56" s="320"/>
-      <c r="O56" s="320"/>
+      <c r="L56" s="319"/>
+      <c r="M56" s="319"/>
+      <c r="N56" s="319"/>
+      <c r="O56" s="319"/>
       <c r="P56" s="9"/>
     </row>
     <row r="57" spans="1:16" ht="23.4">
@@ -5068,82 +5071,82 @@
       <c r="I57" s="79"/>
       <c r="J57" s="78"/>
       <c r="K57" s="78"/>
-      <c r="L57" s="320"/>
-      <c r="M57" s="320"/>
-      <c r="N57" s="320"/>
-      <c r="O57" s="320"/>
+      <c r="L57" s="319"/>
+      <c r="M57" s="319"/>
+      <c r="N57" s="319"/>
+      <c r="O57" s="319"/>
       <c r="P57" s="9"/>
     </row>
     <row r="58" spans="1:16" ht="64.95" customHeight="1">
       <c r="A58" s="8"/>
       <c r="B58" s="82"/>
       <c r="C58" s="79"/>
-      <c r="D58" s="322"/>
-      <c r="E58" s="322"/>
+      <c r="D58" s="324"/>
+      <c r="E58" s="324"/>
       <c r="F58" s="78"/>
       <c r="G58" s="78"/>
       <c r="H58" s="78"/>
       <c r="I58" s="79"/>
       <c r="J58" s="78"/>
       <c r="K58" s="78"/>
-      <c r="L58" s="323"/>
-      <c r="M58" s="320"/>
-      <c r="N58" s="320"/>
-      <c r="O58" s="320"/>
+      <c r="L58" s="321"/>
+      <c r="M58" s="319"/>
+      <c r="N58" s="319"/>
+      <c r="O58" s="319"/>
       <c r="P58" s="9"/>
     </row>
     <row r="59" spans="1:16" s="49" customFormat="1" ht="23.4">
       <c r="A59" s="8"/>
       <c r="B59" s="76"/>
       <c r="C59" s="76"/>
-      <c r="D59" s="319"/>
-      <c r="E59" s="319"/>
+      <c r="D59" s="320"/>
+      <c r="E59" s="320"/>
       <c r="F59" s="78"/>
       <c r="G59" s="78"/>
       <c r="H59" s="78"/>
       <c r="I59" s="79"/>
       <c r="J59" s="78"/>
       <c r="K59" s="78"/>
-      <c r="L59" s="320"/>
-      <c r="M59" s="320"/>
-      <c r="N59" s="320"/>
-      <c r="O59" s="320"/>
+      <c r="L59" s="319"/>
+      <c r="M59" s="319"/>
+      <c r="N59" s="319"/>
+      <c r="O59" s="319"/>
       <c r="P59" s="9"/>
     </row>
     <row r="60" spans="1:16" s="49" customFormat="1" ht="23.4">
       <c r="A60" s="8"/>
       <c r="B60" s="76"/>
       <c r="C60" s="76"/>
-      <c r="D60" s="319"/>
-      <c r="E60" s="319"/>
+      <c r="D60" s="320"/>
+      <c r="E60" s="320"/>
       <c r="F60" s="78"/>
       <c r="G60" s="78"/>
       <c r="H60" s="78"/>
       <c r="I60" s="79"/>
       <c r="J60" s="78"/>
       <c r="K60" s="78"/>
-      <c r="L60" s="320"/>
-      <c r="M60" s="320"/>
-      <c r="N60" s="320"/>
-      <c r="O60" s="320"/>
+      <c r="L60" s="319"/>
+      <c r="M60" s="319"/>
+      <c r="N60" s="319"/>
+      <c r="O60" s="319"/>
       <c r="P60" s="9"/>
     </row>
     <row r="61" spans="1:16" ht="23.4">
       <c r="A61" s="8"/>
       <c r="B61" s="76"/>
       <c r="C61" s="76"/>
-      <c r="D61" s="319"/>
-      <c r="E61" s="319"/>
+      <c r="D61" s="320"/>
+      <c r="E61" s="320"/>
       <c r="F61" s="78"/>
       <c r="G61" s="78"/>
       <c r="H61" s="78"/>
       <c r="I61" s="79"/>
       <c r="J61" s="78"/>
       <c r="K61" s="81"/>
-      <c r="L61" s="320"/>
-      <c r="M61" s="320"/>
-      <c r="N61" s="320"/>
-      <c r="O61" s="320"/>
+      <c r="L61" s="319"/>
+      <c r="M61" s="319"/>
+      <c r="N61" s="319"/>
+      <c r="O61" s="319"/>
       <c r="P61" s="9"/>
     </row>
     <row r="62" spans="1:16" ht="23.4">
@@ -5158,10 +5161,10 @@
       <c r="I62" s="79"/>
       <c r="J62" s="78"/>
       <c r="K62" s="78"/>
-      <c r="L62" s="320"/>
-      <c r="M62" s="320"/>
-      <c r="N62" s="320"/>
-      <c r="O62" s="320"/>
+      <c r="L62" s="319"/>
+      <c r="M62" s="319"/>
+      <c r="N62" s="319"/>
+      <c r="O62" s="319"/>
       <c r="P62" s="9"/>
     </row>
     <row r="63" spans="1:16">
@@ -5195,64 +5198,64 @@
       <c r="I67" s="76"/>
       <c r="J67" s="76"/>
       <c r="K67" s="76"/>
-      <c r="L67" s="321"/>
-      <c r="M67" s="321"/>
-      <c r="N67" s="321"/>
-      <c r="O67" s="321"/>
+      <c r="L67" s="322"/>
+      <c r="M67" s="322"/>
+      <c r="N67" s="322"/>
+      <c r="O67" s="322"/>
       <c r="P67" s="9"/>
     </row>
     <row r="68" spans="1:16" ht="23.4">
       <c r="A68" s="8"/>
       <c r="B68" s="76"/>
       <c r="C68" s="76"/>
-      <c r="D68" s="319"/>
-      <c r="E68" s="319"/>
+      <c r="D68" s="320"/>
+      <c r="E68" s="320"/>
       <c r="F68" s="78"/>
       <c r="G68" s="78"/>
       <c r="H68" s="78"/>
       <c r="I68" s="79"/>
       <c r="J68" s="78"/>
       <c r="K68" s="81"/>
-      <c r="L68" s="320"/>
-      <c r="M68" s="320"/>
-      <c r="N68" s="320"/>
-      <c r="O68" s="320"/>
+      <c r="L68" s="319"/>
+      <c r="M68" s="319"/>
+      <c r="N68" s="319"/>
+      <c r="O68" s="319"/>
       <c r="P68" s="9"/>
     </row>
     <row r="69" spans="1:16" ht="23.4">
       <c r="A69" s="8"/>
       <c r="B69" s="76"/>
       <c r="C69" s="76"/>
-      <c r="D69" s="319"/>
-      <c r="E69" s="319"/>
+      <c r="D69" s="320"/>
+      <c r="E69" s="320"/>
       <c r="F69" s="78"/>
       <c r="G69" s="78"/>
       <c r="H69" s="78"/>
       <c r="I69" s="79"/>
       <c r="J69" s="78"/>
       <c r="K69" s="78"/>
-      <c r="L69" s="320"/>
-      <c r="M69" s="320"/>
-      <c r="N69" s="320"/>
-      <c r="O69" s="320"/>
+      <c r="L69" s="319"/>
+      <c r="M69" s="319"/>
+      <c r="N69" s="319"/>
+      <c r="O69" s="319"/>
       <c r="P69" s="9"/>
     </row>
     <row r="70" spans="1:16" ht="23.4">
       <c r="A70" s="8"/>
       <c r="B70" s="76"/>
       <c r="C70" s="76"/>
-      <c r="D70" s="319"/>
-      <c r="E70" s="319"/>
+      <c r="D70" s="320"/>
+      <c r="E70" s="320"/>
       <c r="F70" s="78"/>
       <c r="G70" s="78"/>
       <c r="H70" s="78"/>
       <c r="I70" s="79"/>
       <c r="J70" s="78"/>
       <c r="K70" s="78"/>
-      <c r="L70" s="320"/>
-      <c r="M70" s="320"/>
-      <c r="N70" s="320"/>
-      <c r="O70" s="320"/>
+      <c r="L70" s="319"/>
+      <c r="M70" s="319"/>
+      <c r="N70" s="319"/>
+      <c r="O70" s="319"/>
       <c r="P70" s="9"/>
     </row>
     <row r="71" spans="1:16" ht="23.4">
@@ -5267,10 +5270,10 @@
       <c r="I71" s="79"/>
       <c r="J71" s="78"/>
       <c r="K71" s="78"/>
-      <c r="L71" s="320"/>
-      <c r="M71" s="320"/>
-      <c r="N71" s="320"/>
-      <c r="O71" s="320"/>
+      <c r="L71" s="319"/>
+      <c r="M71" s="319"/>
+      <c r="N71" s="319"/>
+      <c r="O71" s="319"/>
       <c r="P71" s="9"/>
     </row>
     <row r="72" spans="1:16" ht="23.4">
@@ -5285,28 +5288,28 @@
       <c r="I72" s="79"/>
       <c r="J72" s="78"/>
       <c r="K72" s="78"/>
-      <c r="L72" s="320"/>
-      <c r="M72" s="320"/>
-      <c r="N72" s="320"/>
-      <c r="O72" s="320"/>
+      <c r="L72" s="319"/>
+      <c r="M72" s="319"/>
+      <c r="N72" s="319"/>
+      <c r="O72" s="319"/>
       <c r="P72" s="9"/>
     </row>
     <row r="73" spans="1:16" ht="23.4">
       <c r="A73" s="8"/>
       <c r="B73" s="82"/>
       <c r="C73" s="79"/>
-      <c r="D73" s="319"/>
-      <c r="E73" s="319"/>
+      <c r="D73" s="320"/>
+      <c r="E73" s="320"/>
       <c r="F73" s="78"/>
       <c r="G73" s="78"/>
       <c r="H73" s="78"/>
       <c r="I73" s="79"/>
       <c r="J73" s="78"/>
       <c r="K73" s="78"/>
-      <c r="L73" s="323"/>
-      <c r="M73" s="320"/>
-      <c r="N73" s="320"/>
-      <c r="O73" s="320"/>
+      <c r="L73" s="321"/>
+      <c r="M73" s="319"/>
+      <c r="N73" s="319"/>
+      <c r="O73" s="319"/>
       <c r="P73" s="9"/>
     </row>
     <row r="74" spans="1:16" ht="23.4">
@@ -5321,10 +5324,10 @@
       <c r="I74" s="79"/>
       <c r="J74" s="78"/>
       <c r="K74" s="78"/>
-      <c r="L74" s="320"/>
-      <c r="M74" s="320"/>
-      <c r="N74" s="320"/>
-      <c r="O74" s="320"/>
+      <c r="L74" s="319"/>
+      <c r="M74" s="319"/>
+      <c r="N74" s="319"/>
+      <c r="O74" s="319"/>
       <c r="P74" s="9"/>
     </row>
     <row r="75" spans="1:16">
@@ -5358,154 +5361,154 @@
       <c r="I79" s="76"/>
       <c r="J79" s="76"/>
       <c r="K79" s="76"/>
-      <c r="L79" s="321"/>
-      <c r="M79" s="321"/>
-      <c r="N79" s="321"/>
-      <c r="O79" s="321"/>
+      <c r="L79" s="322"/>
+      <c r="M79" s="322"/>
+      <c r="N79" s="322"/>
+      <c r="O79" s="322"/>
       <c r="P79" s="9"/>
     </row>
     <row r="80" spans="1:16" ht="23.4">
       <c r="A80" s="8"/>
       <c r="B80" s="76"/>
       <c r="C80" s="76"/>
-      <c r="D80" s="319"/>
-      <c r="E80" s="319"/>
+      <c r="D80" s="320"/>
+      <c r="E80" s="320"/>
       <c r="F80" s="78"/>
       <c r="G80" s="78"/>
       <c r="H80" s="78"/>
       <c r="I80" s="79"/>
       <c r="J80" s="78"/>
       <c r="K80" s="81"/>
-      <c r="L80" s="320"/>
-      <c r="M80" s="320"/>
-      <c r="N80" s="320"/>
-      <c r="O80" s="320"/>
+      <c r="L80" s="319"/>
+      <c r="M80" s="319"/>
+      <c r="N80" s="319"/>
+      <c r="O80" s="319"/>
       <c r="P80" s="9"/>
     </row>
     <row r="81" spans="1:16" ht="23.4">
       <c r="A81" s="8"/>
       <c r="B81" s="76"/>
       <c r="C81" s="76"/>
-      <c r="D81" s="319"/>
-      <c r="E81" s="319"/>
+      <c r="D81" s="320"/>
+      <c r="E81" s="320"/>
       <c r="F81" s="78"/>
       <c r="G81" s="78"/>
       <c r="H81" s="78"/>
       <c r="I81" s="79"/>
       <c r="J81" s="78"/>
       <c r="K81" s="78"/>
-      <c r="L81" s="320"/>
-      <c r="M81" s="320"/>
-      <c r="N81" s="320"/>
-      <c r="O81" s="320"/>
+      <c r="L81" s="319"/>
+      <c r="M81" s="319"/>
+      <c r="N81" s="319"/>
+      <c r="O81" s="319"/>
       <c r="P81" s="9"/>
     </row>
     <row r="82" spans="1:16" ht="23.4">
       <c r="A82" s="8"/>
       <c r="B82" s="76"/>
       <c r="C82" s="76"/>
-      <c r="D82" s="319"/>
-      <c r="E82" s="319"/>
+      <c r="D82" s="320"/>
+      <c r="E82" s="320"/>
       <c r="F82" s="78"/>
       <c r="G82" s="78"/>
       <c r="H82" s="78"/>
       <c r="I82" s="79"/>
       <c r="J82" s="78"/>
       <c r="K82" s="81"/>
-      <c r="L82" s="320"/>
-      <c r="M82" s="320"/>
-      <c r="N82" s="320"/>
-      <c r="O82" s="320"/>
+      <c r="L82" s="319"/>
+      <c r="M82" s="319"/>
+      <c r="N82" s="319"/>
+      <c r="O82" s="319"/>
       <c r="P82" s="9"/>
     </row>
     <row r="83" spans="1:16" ht="23.4">
       <c r="A83" s="8"/>
       <c r="B83" s="76"/>
       <c r="C83" s="76"/>
-      <c r="D83" s="319"/>
-      <c r="E83" s="319"/>
+      <c r="D83" s="320"/>
+      <c r="E83" s="320"/>
       <c r="F83" s="78"/>
       <c r="G83" s="78"/>
       <c r="H83" s="78"/>
       <c r="I83" s="79"/>
       <c r="J83" s="78"/>
       <c r="K83" s="78"/>
-      <c r="L83" s="320"/>
-      <c r="M83" s="320"/>
-      <c r="N83" s="320"/>
-      <c r="O83" s="320"/>
+      <c r="L83" s="319"/>
+      <c r="M83" s="319"/>
+      <c r="N83" s="319"/>
+      <c r="O83" s="319"/>
       <c r="P83" s="9"/>
     </row>
     <row r="84" spans="1:16" ht="23.4">
       <c r="A84" s="8"/>
       <c r="B84" s="76"/>
       <c r="C84" s="76"/>
-      <c r="D84" s="319"/>
-      <c r="E84" s="319"/>
+      <c r="D84" s="320"/>
+      <c r="E84" s="320"/>
       <c r="F84" s="78"/>
       <c r="G84" s="78"/>
       <c r="H84" s="78"/>
       <c r="I84" s="79"/>
       <c r="J84" s="78"/>
       <c r="K84" s="78"/>
-      <c r="L84" s="320"/>
-      <c r="M84" s="320"/>
-      <c r="N84" s="320"/>
-      <c r="O84" s="320"/>
+      <c r="L84" s="319"/>
+      <c r="M84" s="319"/>
+      <c r="N84" s="319"/>
+      <c r="O84" s="319"/>
       <c r="P84" s="9"/>
     </row>
     <row r="85" spans="1:16" ht="23.4">
       <c r="A85" s="8"/>
       <c r="B85" s="76"/>
       <c r="C85" s="76"/>
-      <c r="D85" s="319"/>
-      <c r="E85" s="319"/>
+      <c r="D85" s="320"/>
+      <c r="E85" s="320"/>
       <c r="F85" s="78"/>
       <c r="G85" s="78"/>
       <c r="H85" s="78"/>
       <c r="I85" s="79"/>
       <c r="J85" s="78"/>
       <c r="K85" s="78"/>
-      <c r="L85" s="320"/>
-      <c r="M85" s="320"/>
-      <c r="N85" s="320"/>
-      <c r="O85" s="320"/>
+      <c r="L85" s="319"/>
+      <c r="M85" s="319"/>
+      <c r="N85" s="319"/>
+      <c r="O85" s="319"/>
       <c r="P85" s="9"/>
     </row>
     <row r="86" spans="1:16" ht="23.4">
       <c r="A86" s="8"/>
       <c r="B86" s="82"/>
       <c r="C86" s="79"/>
-      <c r="D86" s="319"/>
-      <c r="E86" s="319"/>
+      <c r="D86" s="320"/>
+      <c r="E86" s="320"/>
       <c r="F86" s="78"/>
       <c r="G86" s="78"/>
       <c r="H86" s="78"/>
       <c r="I86" s="79"/>
       <c r="J86" s="78"/>
       <c r="K86" s="81"/>
-      <c r="L86" s="323"/>
-      <c r="M86" s="320"/>
-      <c r="N86" s="320"/>
-      <c r="O86" s="320"/>
+      <c r="L86" s="321"/>
+      <c r="M86" s="319"/>
+      <c r="N86" s="319"/>
+      <c r="O86" s="319"/>
       <c r="P86" s="9"/>
     </row>
     <row r="87" spans="1:16" ht="23.4">
       <c r="A87" s="8"/>
       <c r="B87" s="76"/>
       <c r="C87" s="76"/>
-      <c r="D87" s="319"/>
-      <c r="E87" s="319"/>
+      <c r="D87" s="320"/>
+      <c r="E87" s="320"/>
       <c r="F87" s="78"/>
       <c r="G87" s="78"/>
       <c r="H87" s="78"/>
       <c r="I87" s="79"/>
       <c r="J87" s="78"/>
       <c r="K87" s="78"/>
-      <c r="L87" s="320"/>
-      <c r="M87" s="320"/>
-      <c r="N87" s="320"/>
-      <c r="O87" s="320"/>
+      <c r="L87" s="319"/>
+      <c r="M87" s="319"/>
+      <c r="N87" s="319"/>
+      <c r="O87" s="319"/>
       <c r="P87" s="9"/>
     </row>
     <row r="88" spans="1:16" ht="23.4">
@@ -5519,10 +5522,10 @@
       <c r="I88" s="79"/>
       <c r="J88" s="78"/>
       <c r="K88" s="78"/>
-      <c r="L88" s="320"/>
-      <c r="M88" s="320"/>
-      <c r="N88" s="320"/>
-      <c r="O88" s="320"/>
+      <c r="L88" s="319"/>
+      <c r="M88" s="319"/>
+      <c r="N88" s="319"/>
+      <c r="O88" s="319"/>
       <c r="P88" s="9"/>
     </row>
     <row r="89" spans="1:16" ht="16.2" thickBot="1">
@@ -5546,16 +5549,79 @@
     <row r="90" spans="1:16" ht="16.2" thickTop="1"/>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="L84:O84"/>
-    <mergeCell ref="L85:O85"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="L86:O86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:M2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="L60:O60"/>
     <mergeCell ref="D81:E81"/>
     <mergeCell ref="L81:O81"/>
     <mergeCell ref="L82:O82"/>
@@ -5580,79 +5646,16 @@
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="L70:O70"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:M2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="L84:O84"/>
+    <mergeCell ref="L85:O85"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="L86:O86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="L87:O87"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5683,10 +5686,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="34.049999999999997" customHeight="1">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="215"/>
+      <c r="B1" s="209"/>
       <c r="C1" s="307" t="str">
         <f>表紙!C7</f>
         <v>プロジェクト名</v>
@@ -5704,12 +5707,12 @@
       <c r="N1" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="256"/>
-      <c r="P1" s="257"/>
+      <c r="O1" s="229"/>
+      <c r="P1" s="230"/>
     </row>
     <row r="2" spans="1:16" ht="34.049999999999997" customHeight="1" thickBot="1">
-      <c r="A2" s="216"/>
-      <c r="B2" s="217"/>
+      <c r="A2" s="210"/>
+      <c r="B2" s="211"/>
       <c r="C2" s="309"/>
       <c r="D2" s="310"/>
       <c r="E2" s="310"/>
@@ -5724,10 +5727,10 @@
       <c r="N2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="258">
+      <c r="O2" s="231">
         <v>44826</v>
       </c>
-      <c r="P2" s="259"/>
+      <c r="P2" s="232"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="5"/>
@@ -5786,10 +5789,10 @@
       <c r="I8" s="76"/>
       <c r="J8" s="76"/>
       <c r="K8" s="76"/>
-      <c r="L8" s="321"/>
-      <c r="M8" s="321"/>
-      <c r="N8" s="321"/>
-      <c r="O8" s="321"/>
+      <c r="L8" s="322"/>
+      <c r="M8" s="322"/>
+      <c r="N8" s="322"/>
+      <c r="O8" s="322"/>
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" ht="23.4">
@@ -5804,10 +5807,10 @@
       <c r="I9" s="79"/>
       <c r="J9" s="78"/>
       <c r="K9" s="78"/>
-      <c r="L9" s="320"/>
-      <c r="M9" s="320"/>
-      <c r="N9" s="320"/>
-      <c r="O9" s="320"/>
+      <c r="L9" s="319"/>
+      <c r="M9" s="319"/>
+      <c r="N9" s="319"/>
+      <c r="O9" s="319"/>
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" ht="23.4">
@@ -5822,10 +5825,10 @@
       <c r="I10" s="79"/>
       <c r="J10" s="78"/>
       <c r="K10" s="78"/>
-      <c r="L10" s="320"/>
-      <c r="M10" s="320"/>
-      <c r="N10" s="320"/>
-      <c r="O10" s="320"/>
+      <c r="L10" s="319"/>
+      <c r="M10" s="319"/>
+      <c r="N10" s="319"/>
+      <c r="O10" s="319"/>
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16" ht="23.4">
@@ -5840,10 +5843,10 @@
       <c r="I11" s="79"/>
       <c r="J11" s="78"/>
       <c r="K11" s="78"/>
-      <c r="L11" s="320"/>
-      <c r="M11" s="320"/>
-      <c r="N11" s="320"/>
-      <c r="O11" s="320"/>
+      <c r="L11" s="319"/>
+      <c r="M11" s="319"/>
+      <c r="N11" s="319"/>
+      <c r="O11" s="319"/>
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" ht="23.4">
@@ -5858,10 +5861,10 @@
       <c r="I12" s="79"/>
       <c r="J12" s="78"/>
       <c r="K12" s="78"/>
-      <c r="L12" s="320"/>
-      <c r="M12" s="320"/>
-      <c r="N12" s="320"/>
-      <c r="O12" s="320"/>
+      <c r="L12" s="319"/>
+      <c r="M12" s="319"/>
+      <c r="N12" s="319"/>
+      <c r="O12" s="319"/>
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16" ht="23.4">
@@ -5903,100 +5906,100 @@
       <c r="I17" s="76"/>
       <c r="J17" s="76"/>
       <c r="K17" s="76"/>
-      <c r="L17" s="321"/>
-      <c r="M17" s="321"/>
-      <c r="N17" s="321"/>
-      <c r="O17" s="321"/>
+      <c r="L17" s="322"/>
+      <c r="M17" s="322"/>
+      <c r="N17" s="322"/>
+      <c r="O17" s="322"/>
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" ht="23.4">
       <c r="A18" s="8"/>
       <c r="B18" s="76"/>
       <c r="C18" s="76"/>
-      <c r="D18" s="319"/>
-      <c r="E18" s="319"/>
+      <c r="D18" s="320"/>
+      <c r="E18" s="320"/>
       <c r="F18" s="78"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
       <c r="I18" s="79"/>
       <c r="J18" s="78"/>
       <c r="K18" s="78"/>
-      <c r="L18" s="320"/>
-      <c r="M18" s="320"/>
-      <c r="N18" s="320"/>
-      <c r="O18" s="320"/>
+      <c r="L18" s="319"/>
+      <c r="M18" s="319"/>
+      <c r="N18" s="319"/>
+      <c r="O18" s="319"/>
       <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16" ht="23.4">
       <c r="A19" s="8"/>
       <c r="B19" s="76"/>
       <c r="C19" s="76"/>
-      <c r="D19" s="319"/>
-      <c r="E19" s="319"/>
+      <c r="D19" s="320"/>
+      <c r="E19" s="320"/>
       <c r="F19" s="78"/>
       <c r="G19" s="78"/>
       <c r="H19" s="78"/>
       <c r="I19" s="79"/>
       <c r="J19" s="78"/>
       <c r="K19" s="78"/>
-      <c r="L19" s="320"/>
-      <c r="M19" s="320"/>
-      <c r="N19" s="320"/>
-      <c r="O19" s="320"/>
+      <c r="L19" s="319"/>
+      <c r="M19" s="319"/>
+      <c r="N19" s="319"/>
+      <c r="O19" s="319"/>
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" ht="58.95" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="80"/>
       <c r="C20" s="79"/>
-      <c r="D20" s="322"/>
-      <c r="E20" s="322"/>
+      <c r="D20" s="324"/>
+      <c r="E20" s="324"/>
       <c r="F20" s="78"/>
       <c r="G20" s="78"/>
       <c r="H20" s="78"/>
       <c r="I20" s="79"/>
       <c r="J20" s="78"/>
       <c r="K20" s="78"/>
-      <c r="L20" s="323"/>
-      <c r="M20" s="320"/>
-      <c r="N20" s="320"/>
-      <c r="O20" s="320"/>
+      <c r="L20" s="321"/>
+      <c r="M20" s="319"/>
+      <c r="N20" s="319"/>
+      <c r="O20" s="319"/>
       <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" ht="23.4">
       <c r="A21" s="8"/>
       <c r="B21" s="76"/>
       <c r="C21" s="76"/>
-      <c r="D21" s="319"/>
-      <c r="E21" s="319"/>
+      <c r="D21" s="320"/>
+      <c r="E21" s="320"/>
       <c r="F21" s="78"/>
       <c r="G21" s="78"/>
       <c r="H21" s="78"/>
       <c r="I21" s="79"/>
       <c r="J21" s="78"/>
       <c r="K21" s="78"/>
-      <c r="L21" s="320"/>
-      <c r="M21" s="320"/>
-      <c r="N21" s="320"/>
-      <c r="O21" s="320"/>
+      <c r="L21" s="319"/>
+      <c r="M21" s="319"/>
+      <c r="N21" s="319"/>
+      <c r="O21" s="319"/>
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" ht="23.4">
       <c r="A22" s="8"/>
       <c r="B22" s="76"/>
       <c r="C22" s="76"/>
-      <c r="D22" s="319"/>
-      <c r="E22" s="319"/>
+      <c r="D22" s="320"/>
+      <c r="E22" s="320"/>
       <c r="F22" s="78"/>
       <c r="G22" s="78"/>
       <c r="H22" s="78"/>
       <c r="I22" s="79"/>
       <c r="J22" s="78"/>
       <c r="K22" s="78"/>
-      <c r="L22" s="320"/>
-      <c r="M22" s="320"/>
-      <c r="N22" s="320"/>
-      <c r="O22" s="320"/>
+      <c r="L22" s="319"/>
+      <c r="M22" s="319"/>
+      <c r="N22" s="319"/>
+      <c r="O22" s="319"/>
       <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:16" ht="23.4">
@@ -6011,10 +6014,10 @@
       <c r="I23" s="79"/>
       <c r="J23" s="78"/>
       <c r="K23" s="78"/>
-      <c r="L23" s="320"/>
-      <c r="M23" s="320"/>
-      <c r="N23" s="320"/>
-      <c r="O23" s="320"/>
+      <c r="L23" s="319"/>
+      <c r="M23" s="319"/>
+      <c r="N23" s="319"/>
+      <c r="O23" s="319"/>
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16">
@@ -6052,46 +6055,46 @@
       <c r="I29" s="76"/>
       <c r="J29" s="76"/>
       <c r="K29" s="76"/>
-      <c r="L29" s="321"/>
-      <c r="M29" s="321"/>
-      <c r="N29" s="321"/>
-      <c r="O29" s="321"/>
+      <c r="L29" s="322"/>
+      <c r="M29" s="322"/>
+      <c r="N29" s="322"/>
+      <c r="O29" s="322"/>
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" ht="23.4">
       <c r="A30" s="8"/>
       <c r="B30" s="76"/>
       <c r="C30" s="76"/>
-      <c r="D30" s="319"/>
-      <c r="E30" s="319"/>
+      <c r="D30" s="320"/>
+      <c r="E30" s="320"/>
       <c r="F30" s="78"/>
       <c r="G30" s="78"/>
       <c r="H30" s="78"/>
       <c r="I30" s="79"/>
       <c r="J30" s="78"/>
       <c r="K30" s="78"/>
-      <c r="L30" s="320"/>
-      <c r="M30" s="320"/>
-      <c r="N30" s="320"/>
-      <c r="O30" s="320"/>
+      <c r="L30" s="319"/>
+      <c r="M30" s="319"/>
+      <c r="N30" s="319"/>
+      <c r="O30" s="319"/>
       <c r="P30" s="9"/>
     </row>
     <row r="31" spans="1:16" ht="23.4">
       <c r="A31" s="8"/>
       <c r="B31" s="76"/>
       <c r="C31" s="76"/>
-      <c r="D31" s="319"/>
-      <c r="E31" s="319"/>
+      <c r="D31" s="320"/>
+      <c r="E31" s="320"/>
       <c r="F31" s="78"/>
       <c r="G31" s="78"/>
       <c r="H31" s="78"/>
       <c r="I31" s="79"/>
       <c r="J31" s="78"/>
       <c r="K31" s="78"/>
-      <c r="L31" s="320"/>
-      <c r="M31" s="320"/>
-      <c r="N31" s="320"/>
-      <c r="O31" s="320"/>
+      <c r="L31" s="319"/>
+      <c r="M31" s="319"/>
+      <c r="N31" s="319"/>
+      <c r="O31" s="319"/>
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" ht="23.4">
@@ -6106,10 +6109,10 @@
       <c r="I32" s="79"/>
       <c r="J32" s="78"/>
       <c r="K32" s="78"/>
-      <c r="L32" s="320"/>
-      <c r="M32" s="320"/>
-      <c r="N32" s="320"/>
-      <c r="O32" s="320"/>
+      <c r="L32" s="319"/>
+      <c r="M32" s="319"/>
+      <c r="N32" s="319"/>
+      <c r="O32" s="319"/>
       <c r="P32" s="9"/>
     </row>
     <row r="33" spans="1:16" ht="23.4">
@@ -6124,10 +6127,10 @@
       <c r="I33" s="79"/>
       <c r="J33" s="78"/>
       <c r="K33" s="78"/>
-      <c r="L33" s="320"/>
-      <c r="M33" s="320"/>
-      <c r="N33" s="320"/>
-      <c r="O33" s="320"/>
+      <c r="L33" s="319"/>
+      <c r="M33" s="319"/>
+      <c r="N33" s="319"/>
+      <c r="O33" s="319"/>
       <c r="P33" s="9"/>
     </row>
     <row r="34" spans="1:16" ht="23.4">
@@ -6142,10 +6145,10 @@
       <c r="I34" s="79"/>
       <c r="J34" s="78"/>
       <c r="K34" s="78"/>
-      <c r="L34" s="320"/>
-      <c r="M34" s="320"/>
-      <c r="N34" s="320"/>
-      <c r="O34" s="320"/>
+      <c r="L34" s="319"/>
+      <c r="M34" s="319"/>
+      <c r="N34" s="319"/>
+      <c r="O34" s="319"/>
       <c r="P34" s="9"/>
     </row>
     <row r="35" spans="1:16" ht="23.4">
@@ -6160,10 +6163,10 @@
       <c r="I35" s="79"/>
       <c r="J35" s="78"/>
       <c r="K35" s="78"/>
-      <c r="L35" s="320"/>
-      <c r="M35" s="320"/>
-      <c r="N35" s="320"/>
-      <c r="O35" s="320"/>
+      <c r="L35" s="319"/>
+      <c r="M35" s="319"/>
+      <c r="N35" s="319"/>
+      <c r="O35" s="319"/>
       <c r="P35" s="9"/>
     </row>
     <row r="36" spans="1:16">
@@ -6197,100 +6200,100 @@
       <c r="I40" s="76"/>
       <c r="J40" s="76"/>
       <c r="K40" s="76"/>
-      <c r="L40" s="321"/>
-      <c r="M40" s="321"/>
-      <c r="N40" s="321"/>
-      <c r="O40" s="321"/>
+      <c r="L40" s="322"/>
+      <c r="M40" s="322"/>
+      <c r="N40" s="322"/>
+      <c r="O40" s="322"/>
       <c r="P40" s="9"/>
     </row>
     <row r="41" spans="1:16" ht="23.4">
       <c r="A41" s="8"/>
       <c r="B41" s="76"/>
       <c r="C41" s="76"/>
-      <c r="D41" s="319"/>
-      <c r="E41" s="319"/>
+      <c r="D41" s="320"/>
+      <c r="E41" s="320"/>
       <c r="F41" s="78"/>
       <c r="G41" s="78"/>
       <c r="H41" s="78"/>
       <c r="I41" s="79"/>
       <c r="J41" s="78"/>
       <c r="K41" s="78"/>
-      <c r="L41" s="320"/>
-      <c r="M41" s="320"/>
-      <c r="N41" s="320"/>
-      <c r="O41" s="320"/>
+      <c r="L41" s="319"/>
+      <c r="M41" s="319"/>
+      <c r="N41" s="319"/>
+      <c r="O41" s="319"/>
       <c r="P41" s="9"/>
     </row>
     <row r="42" spans="1:16" ht="23.4">
       <c r="A42" s="8"/>
       <c r="B42" s="76"/>
       <c r="C42" s="76"/>
-      <c r="D42" s="319"/>
-      <c r="E42" s="319"/>
+      <c r="D42" s="320"/>
+      <c r="E42" s="320"/>
       <c r="F42" s="78"/>
       <c r="G42" s="78"/>
       <c r="H42" s="78"/>
       <c r="I42" s="79"/>
       <c r="J42" s="78"/>
       <c r="K42" s="78"/>
-      <c r="L42" s="320"/>
-      <c r="M42" s="320"/>
-      <c r="N42" s="320"/>
-      <c r="O42" s="320"/>
+      <c r="L42" s="319"/>
+      <c r="M42" s="319"/>
+      <c r="N42" s="319"/>
+      <c r="O42" s="319"/>
       <c r="P42" s="9"/>
     </row>
     <row r="43" spans="1:16" ht="23.4">
       <c r="A43" s="8"/>
       <c r="B43" s="76"/>
       <c r="C43" s="76"/>
-      <c r="D43" s="319"/>
-      <c r="E43" s="319"/>
+      <c r="D43" s="320"/>
+      <c r="E43" s="320"/>
       <c r="F43" s="78"/>
       <c r="G43" s="78"/>
       <c r="H43" s="78"/>
       <c r="I43" s="79"/>
       <c r="J43" s="78"/>
       <c r="K43" s="78"/>
-      <c r="L43" s="320"/>
-      <c r="M43" s="320"/>
-      <c r="N43" s="320"/>
-      <c r="O43" s="320"/>
+      <c r="L43" s="319"/>
+      <c r="M43" s="319"/>
+      <c r="N43" s="319"/>
+      <c r="O43" s="319"/>
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" ht="23.4">
       <c r="A44" s="8"/>
       <c r="B44" s="76"/>
       <c r="C44" s="76"/>
-      <c r="D44" s="319"/>
-      <c r="E44" s="319"/>
+      <c r="D44" s="320"/>
+      <c r="E44" s="320"/>
       <c r="F44" s="78"/>
       <c r="G44" s="78"/>
       <c r="H44" s="78"/>
       <c r="I44" s="79"/>
       <c r="J44" s="78"/>
       <c r="K44" s="78"/>
-      <c r="L44" s="320"/>
-      <c r="M44" s="320"/>
-      <c r="N44" s="320"/>
-      <c r="O44" s="320"/>
+      <c r="L44" s="319"/>
+      <c r="M44" s="319"/>
+      <c r="N44" s="319"/>
+      <c r="O44" s="319"/>
       <c r="P44" s="9"/>
     </row>
     <row r="45" spans="1:16" ht="23.4">
       <c r="A45" s="8"/>
       <c r="B45" s="76"/>
       <c r="C45" s="76"/>
-      <c r="D45" s="319"/>
-      <c r="E45" s="319"/>
+      <c r="D45" s="320"/>
+      <c r="E45" s="320"/>
       <c r="F45" s="78"/>
       <c r="G45" s="78"/>
       <c r="H45" s="78"/>
       <c r="I45" s="79"/>
       <c r="J45" s="78"/>
       <c r="K45" s="81"/>
-      <c r="L45" s="320"/>
-      <c r="M45" s="320"/>
-      <c r="N45" s="320"/>
-      <c r="O45" s="320"/>
+      <c r="L45" s="319"/>
+      <c r="M45" s="319"/>
+      <c r="N45" s="319"/>
+      <c r="O45" s="319"/>
       <c r="P45" s="9"/>
     </row>
     <row r="46" spans="1:16" ht="23.4">
@@ -6305,10 +6308,10 @@
       <c r="I46" s="79"/>
       <c r="J46" s="78"/>
       <c r="K46" s="78"/>
-      <c r="L46" s="320"/>
-      <c r="M46" s="320"/>
-      <c r="N46" s="320"/>
-      <c r="O46" s="320"/>
+      <c r="L46" s="319"/>
+      <c r="M46" s="319"/>
+      <c r="N46" s="319"/>
+      <c r="O46" s="319"/>
       <c r="P46" s="9"/>
     </row>
     <row r="47" spans="1:16" ht="23.4">
@@ -6323,10 +6326,10 @@
       <c r="I47" s="79"/>
       <c r="J47" s="78"/>
       <c r="K47" s="78"/>
-      <c r="L47" s="320"/>
-      <c r="M47" s="320"/>
-      <c r="N47" s="320"/>
-      <c r="O47" s="320"/>
+      <c r="L47" s="319"/>
+      <c r="M47" s="319"/>
+      <c r="N47" s="319"/>
+      <c r="O47" s="319"/>
       <c r="P47" s="9"/>
     </row>
     <row r="48" spans="1:16">
@@ -6360,28 +6363,28 @@
       <c r="I52" s="76"/>
       <c r="J52" s="76"/>
       <c r="K52" s="76"/>
-      <c r="L52" s="321"/>
-      <c r="M52" s="321"/>
-      <c r="N52" s="321"/>
-      <c r="O52" s="321"/>
+      <c r="L52" s="322"/>
+      <c r="M52" s="322"/>
+      <c r="N52" s="322"/>
+      <c r="O52" s="322"/>
       <c r="P52" s="9"/>
     </row>
     <row r="53" spans="1:16" ht="23.4">
       <c r="A53" s="8"/>
       <c r="B53" s="76"/>
       <c r="C53" s="76"/>
-      <c r="D53" s="319"/>
-      <c r="E53" s="319"/>
+      <c r="D53" s="320"/>
+      <c r="E53" s="320"/>
       <c r="F53" s="78"/>
       <c r="G53" s="78"/>
       <c r="H53" s="78"/>
       <c r="I53" s="79"/>
       <c r="J53" s="78"/>
       <c r="K53" s="81"/>
-      <c r="L53" s="320"/>
-      <c r="M53" s="320"/>
-      <c r="N53" s="320"/>
-      <c r="O53" s="320"/>
+      <c r="L53" s="319"/>
+      <c r="M53" s="319"/>
+      <c r="N53" s="319"/>
+      <c r="O53" s="319"/>
       <c r="P53" s="9"/>
     </row>
     <row r="54" spans="1:16" ht="23.4">
@@ -6396,10 +6399,10 @@
       <c r="I54" s="79"/>
       <c r="J54" s="78"/>
       <c r="K54" s="78"/>
-      <c r="L54" s="320"/>
-      <c r="M54" s="320"/>
-      <c r="N54" s="320"/>
-      <c r="O54" s="320"/>
+      <c r="L54" s="319"/>
+      <c r="M54" s="319"/>
+      <c r="N54" s="319"/>
+      <c r="O54" s="319"/>
       <c r="P54" s="9"/>
     </row>
     <row r="55" spans="1:16" ht="23.4">
@@ -6414,10 +6417,10 @@
       <c r="I55" s="79"/>
       <c r="J55" s="78"/>
       <c r="K55" s="78"/>
-      <c r="L55" s="324"/>
-      <c r="M55" s="324"/>
-      <c r="N55" s="324"/>
-      <c r="O55" s="324"/>
+      <c r="L55" s="323"/>
+      <c r="M55" s="323"/>
+      <c r="N55" s="323"/>
+      <c r="O55" s="323"/>
       <c r="P55" s="9"/>
     </row>
     <row r="56" spans="1:16" ht="23.4">
@@ -6432,10 +6435,10 @@
       <c r="I56" s="79"/>
       <c r="J56" s="78"/>
       <c r="K56" s="78"/>
-      <c r="L56" s="320"/>
-      <c r="M56" s="320"/>
-      <c r="N56" s="320"/>
-      <c r="O56" s="320"/>
+      <c r="L56" s="319"/>
+      <c r="M56" s="319"/>
+      <c r="N56" s="319"/>
+      <c r="O56" s="319"/>
       <c r="P56" s="9"/>
     </row>
     <row r="57" spans="1:16" ht="23.4">
@@ -6450,82 +6453,82 @@
       <c r="I57" s="79"/>
       <c r="J57" s="78"/>
       <c r="K57" s="78"/>
-      <c r="L57" s="320"/>
-      <c r="M57" s="320"/>
-      <c r="N57" s="320"/>
-      <c r="O57" s="320"/>
+      <c r="L57" s="319"/>
+      <c r="M57" s="319"/>
+      <c r="N57" s="319"/>
+      <c r="O57" s="319"/>
       <c r="P57" s="9"/>
     </row>
     <row r="58" spans="1:16" ht="64.95" customHeight="1">
       <c r="A58" s="8"/>
       <c r="B58" s="82"/>
       <c r="C58" s="79"/>
-      <c r="D58" s="322"/>
-      <c r="E58" s="322"/>
+      <c r="D58" s="324"/>
+      <c r="E58" s="324"/>
       <c r="F58" s="78"/>
       <c r="G58" s="78"/>
       <c r="H58" s="78"/>
       <c r="I58" s="79"/>
       <c r="J58" s="78"/>
       <c r="K58" s="78"/>
-      <c r="L58" s="323"/>
-      <c r="M58" s="320"/>
-      <c r="N58" s="320"/>
-      <c r="O58" s="320"/>
+      <c r="L58" s="321"/>
+      <c r="M58" s="319"/>
+      <c r="N58" s="319"/>
+      <c r="O58" s="319"/>
       <c r="P58" s="9"/>
     </row>
     <row r="59" spans="1:16" s="49" customFormat="1" ht="23.4">
       <c r="A59" s="8"/>
       <c r="B59" s="76"/>
       <c r="C59" s="76"/>
-      <c r="D59" s="319"/>
-      <c r="E59" s="319"/>
+      <c r="D59" s="320"/>
+      <c r="E59" s="320"/>
       <c r="F59" s="78"/>
       <c r="G59" s="78"/>
       <c r="H59" s="78"/>
       <c r="I59" s="79"/>
       <c r="J59" s="78"/>
       <c r="K59" s="78"/>
-      <c r="L59" s="320"/>
-      <c r="M59" s="320"/>
-      <c r="N59" s="320"/>
-      <c r="O59" s="320"/>
+      <c r="L59" s="319"/>
+      <c r="M59" s="319"/>
+      <c r="N59" s="319"/>
+      <c r="O59" s="319"/>
       <c r="P59" s="9"/>
     </row>
     <row r="60" spans="1:16" s="49" customFormat="1" ht="23.4">
       <c r="A60" s="8"/>
       <c r="B60" s="76"/>
       <c r="C60" s="76"/>
-      <c r="D60" s="319"/>
-      <c r="E60" s="319"/>
+      <c r="D60" s="320"/>
+      <c r="E60" s="320"/>
       <c r="F60" s="78"/>
       <c r="G60" s="78"/>
       <c r="H60" s="78"/>
       <c r="I60" s="79"/>
       <c r="J60" s="78"/>
       <c r="K60" s="78"/>
-      <c r="L60" s="320"/>
-      <c r="M60" s="320"/>
-      <c r="N60" s="320"/>
-      <c r="O60" s="320"/>
+      <c r="L60" s="319"/>
+      <c r="M60" s="319"/>
+      <c r="N60" s="319"/>
+      <c r="O60" s="319"/>
       <c r="P60" s="9"/>
     </row>
     <row r="61" spans="1:16" ht="23.4">
       <c r="A61" s="8"/>
       <c r="B61" s="76"/>
       <c r="C61" s="76"/>
-      <c r="D61" s="319"/>
-      <c r="E61" s="319"/>
+      <c r="D61" s="320"/>
+      <c r="E61" s="320"/>
       <c r="F61" s="78"/>
       <c r="G61" s="78"/>
       <c r="H61" s="78"/>
       <c r="I61" s="79"/>
       <c r="J61" s="78"/>
       <c r="K61" s="81"/>
-      <c r="L61" s="320"/>
-      <c r="M61" s="320"/>
-      <c r="N61" s="320"/>
-      <c r="O61" s="320"/>
+      <c r="L61" s="319"/>
+      <c r="M61" s="319"/>
+      <c r="N61" s="319"/>
+      <c r="O61" s="319"/>
       <c r="P61" s="9"/>
     </row>
     <row r="62" spans="1:16" ht="23.4">
@@ -6540,10 +6543,10 @@
       <c r="I62" s="79"/>
       <c r="J62" s="78"/>
       <c r="K62" s="78"/>
-      <c r="L62" s="320"/>
-      <c r="M62" s="320"/>
-      <c r="N62" s="320"/>
-      <c r="O62" s="320"/>
+      <c r="L62" s="319"/>
+      <c r="M62" s="319"/>
+      <c r="N62" s="319"/>
+      <c r="O62" s="319"/>
       <c r="P62" s="9"/>
     </row>
     <row r="63" spans="1:16">
@@ -6577,64 +6580,64 @@
       <c r="I67" s="76"/>
       <c r="J67" s="76"/>
       <c r="K67" s="76"/>
-      <c r="L67" s="321"/>
-      <c r="M67" s="321"/>
-      <c r="N67" s="321"/>
-      <c r="O67" s="321"/>
+      <c r="L67" s="322"/>
+      <c r="M67" s="322"/>
+      <c r="N67" s="322"/>
+      <c r="O67" s="322"/>
       <c r="P67" s="9"/>
     </row>
     <row r="68" spans="1:16" ht="23.4">
       <c r="A68" s="8"/>
       <c r="B68" s="76"/>
       <c r="C68" s="76"/>
-      <c r="D68" s="319"/>
-      <c r="E68" s="319"/>
+      <c r="D68" s="320"/>
+      <c r="E68" s="320"/>
       <c r="F68" s="78"/>
       <c r="G68" s="78"/>
       <c r="H68" s="78"/>
       <c r="I68" s="79"/>
       <c r="J68" s="78"/>
       <c r="K68" s="81"/>
-      <c r="L68" s="320"/>
-      <c r="M68" s="320"/>
-      <c r="N68" s="320"/>
-      <c r="O68" s="320"/>
+      <c r="L68" s="319"/>
+      <c r="M68" s="319"/>
+      <c r="N68" s="319"/>
+      <c r="O68" s="319"/>
       <c r="P68" s="9"/>
     </row>
     <row r="69" spans="1:16" ht="23.4">
       <c r="A69" s="8"/>
       <c r="B69" s="76"/>
       <c r="C69" s="76"/>
-      <c r="D69" s="319"/>
-      <c r="E69" s="319"/>
+      <c r="D69" s="320"/>
+      <c r="E69" s="320"/>
       <c r="F69" s="78"/>
       <c r="G69" s="78"/>
       <c r="H69" s="78"/>
       <c r="I69" s="79"/>
       <c r="J69" s="78"/>
       <c r="K69" s="78"/>
-      <c r="L69" s="320"/>
-      <c r="M69" s="320"/>
-      <c r="N69" s="320"/>
-      <c r="O69" s="320"/>
+      <c r="L69" s="319"/>
+      <c r="M69" s="319"/>
+      <c r="N69" s="319"/>
+      <c r="O69" s="319"/>
       <c r="P69" s="9"/>
     </row>
     <row r="70" spans="1:16" ht="23.4">
       <c r="A70" s="8"/>
       <c r="B70" s="76"/>
       <c r="C70" s="76"/>
-      <c r="D70" s="319"/>
-      <c r="E70" s="319"/>
+      <c r="D70" s="320"/>
+      <c r="E70" s="320"/>
       <c r="F70" s="78"/>
       <c r="G70" s="78"/>
       <c r="H70" s="78"/>
       <c r="I70" s="79"/>
       <c r="J70" s="78"/>
       <c r="K70" s="78"/>
-      <c r="L70" s="320"/>
-      <c r="M70" s="320"/>
-      <c r="N70" s="320"/>
-      <c r="O70" s="320"/>
+      <c r="L70" s="319"/>
+      <c r="M70" s="319"/>
+      <c r="N70" s="319"/>
+      <c r="O70" s="319"/>
       <c r="P70" s="9"/>
     </row>
     <row r="71" spans="1:16" ht="23.4">
@@ -6649,10 +6652,10 @@
       <c r="I71" s="79"/>
       <c r="J71" s="78"/>
       <c r="K71" s="78"/>
-      <c r="L71" s="320"/>
-      <c r="M71" s="320"/>
-      <c r="N71" s="320"/>
-      <c r="O71" s="320"/>
+      <c r="L71" s="319"/>
+      <c r="M71" s="319"/>
+      <c r="N71" s="319"/>
+      <c r="O71" s="319"/>
       <c r="P71" s="9"/>
     </row>
     <row r="72" spans="1:16" ht="23.4">
@@ -6667,28 +6670,28 @@
       <c r="I72" s="79"/>
       <c r="J72" s="78"/>
       <c r="K72" s="78"/>
-      <c r="L72" s="320"/>
-      <c r="M72" s="320"/>
-      <c r="N72" s="320"/>
-      <c r="O72" s="320"/>
+      <c r="L72" s="319"/>
+      <c r="M72" s="319"/>
+      <c r="N72" s="319"/>
+      <c r="O72" s="319"/>
       <c r="P72" s="9"/>
     </row>
     <row r="73" spans="1:16" ht="23.4">
       <c r="A73" s="8"/>
       <c r="B73" s="82"/>
       <c r="C73" s="79"/>
-      <c r="D73" s="319"/>
-      <c r="E73" s="319"/>
+      <c r="D73" s="320"/>
+      <c r="E73" s="320"/>
       <c r="F73" s="78"/>
       <c r="G73" s="78"/>
       <c r="H73" s="78"/>
       <c r="I73" s="79"/>
       <c r="J73" s="78"/>
       <c r="K73" s="78"/>
-      <c r="L73" s="323"/>
-      <c r="M73" s="320"/>
-      <c r="N73" s="320"/>
-      <c r="O73" s="320"/>
+      <c r="L73" s="321"/>
+      <c r="M73" s="319"/>
+      <c r="N73" s="319"/>
+      <c r="O73" s="319"/>
       <c r="P73" s="9"/>
     </row>
     <row r="74" spans="1:16" ht="23.4">
@@ -6703,10 +6706,10 @@
       <c r="I74" s="79"/>
       <c r="J74" s="78"/>
       <c r="K74" s="78"/>
-      <c r="L74" s="320"/>
-      <c r="M74" s="320"/>
-      <c r="N74" s="320"/>
-      <c r="O74" s="320"/>
+      <c r="L74" s="319"/>
+      <c r="M74" s="319"/>
+      <c r="N74" s="319"/>
+      <c r="O74" s="319"/>
       <c r="P74" s="9"/>
     </row>
     <row r="75" spans="1:16">
@@ -6740,154 +6743,154 @@
       <c r="I79" s="76"/>
       <c r="J79" s="76"/>
       <c r="K79" s="76"/>
-      <c r="L79" s="321"/>
-      <c r="M79" s="321"/>
-      <c r="N79" s="321"/>
-      <c r="O79" s="321"/>
+      <c r="L79" s="322"/>
+      <c r="M79" s="322"/>
+      <c r="N79" s="322"/>
+      <c r="O79" s="322"/>
       <c r="P79" s="9"/>
     </row>
     <row r="80" spans="1:16" ht="23.4">
       <c r="A80" s="8"/>
       <c r="B80" s="76"/>
       <c r="C80" s="76"/>
-      <c r="D80" s="319"/>
-      <c r="E80" s="319"/>
+      <c r="D80" s="320"/>
+      <c r="E80" s="320"/>
       <c r="F80" s="78"/>
       <c r="G80" s="78"/>
       <c r="H80" s="78"/>
       <c r="I80" s="79"/>
       <c r="J80" s="78"/>
       <c r="K80" s="81"/>
-      <c r="L80" s="320"/>
-      <c r="M80" s="320"/>
-      <c r="N80" s="320"/>
-      <c r="O80" s="320"/>
+      <c r="L80" s="319"/>
+      <c r="M80" s="319"/>
+      <c r="N80" s="319"/>
+      <c r="O80" s="319"/>
       <c r="P80" s="9"/>
     </row>
     <row r="81" spans="1:16" ht="23.4">
       <c r="A81" s="8"/>
       <c r="B81" s="76"/>
       <c r="C81" s="76"/>
-      <c r="D81" s="319"/>
-      <c r="E81" s="319"/>
+      <c r="D81" s="320"/>
+      <c r="E81" s="320"/>
       <c r="F81" s="78"/>
       <c r="G81" s="78"/>
       <c r="H81" s="78"/>
       <c r="I81" s="79"/>
       <c r="J81" s="78"/>
       <c r="K81" s="78"/>
-      <c r="L81" s="320"/>
-      <c r="M81" s="320"/>
-      <c r="N81" s="320"/>
-      <c r="O81" s="320"/>
+      <c r="L81" s="319"/>
+      <c r="M81" s="319"/>
+      <c r="N81" s="319"/>
+      <c r="O81" s="319"/>
       <c r="P81" s="9"/>
     </row>
     <row r="82" spans="1:16" ht="23.4">
       <c r="A82" s="8"/>
       <c r="B82" s="76"/>
       <c r="C82" s="76"/>
-      <c r="D82" s="319"/>
-      <c r="E82" s="319"/>
+      <c r="D82" s="320"/>
+      <c r="E82" s="320"/>
       <c r="F82" s="78"/>
       <c r="G82" s="78"/>
       <c r="H82" s="78"/>
       <c r="I82" s="79"/>
       <c r="J82" s="78"/>
       <c r="K82" s="81"/>
-      <c r="L82" s="320"/>
-      <c r="M82" s="320"/>
-      <c r="N82" s="320"/>
-      <c r="O82" s="320"/>
+      <c r="L82" s="319"/>
+      <c r="M82" s="319"/>
+      <c r="N82" s="319"/>
+      <c r="O82" s="319"/>
       <c r="P82" s="9"/>
     </row>
     <row r="83" spans="1:16" ht="23.4">
       <c r="A83" s="8"/>
       <c r="B83" s="76"/>
       <c r="C83" s="76"/>
-      <c r="D83" s="319"/>
-      <c r="E83" s="319"/>
+      <c r="D83" s="320"/>
+      <c r="E83" s="320"/>
       <c r="F83" s="78"/>
       <c r="G83" s="78"/>
       <c r="H83" s="78"/>
       <c r="I83" s="79"/>
       <c r="J83" s="78"/>
       <c r="K83" s="78"/>
-      <c r="L83" s="320"/>
-      <c r="M83" s="320"/>
-      <c r="N83" s="320"/>
-      <c r="O83" s="320"/>
+      <c r="L83" s="319"/>
+      <c r="M83" s="319"/>
+      <c r="N83" s="319"/>
+      <c r="O83" s="319"/>
       <c r="P83" s="9"/>
     </row>
     <row r="84" spans="1:16" ht="23.4">
       <c r="A84" s="8"/>
       <c r="B84" s="76"/>
       <c r="C84" s="76"/>
-      <c r="D84" s="319"/>
-      <c r="E84" s="319"/>
+      <c r="D84" s="320"/>
+      <c r="E84" s="320"/>
       <c r="F84" s="78"/>
       <c r="G84" s="78"/>
       <c r="H84" s="78"/>
       <c r="I84" s="79"/>
       <c r="J84" s="78"/>
       <c r="K84" s="78"/>
-      <c r="L84" s="320"/>
-      <c r="M84" s="320"/>
-      <c r="N84" s="320"/>
-      <c r="O84" s="320"/>
+      <c r="L84" s="319"/>
+      <c r="M84" s="319"/>
+      <c r="N84" s="319"/>
+      <c r="O84" s="319"/>
       <c r="P84" s="9"/>
     </row>
     <row r="85" spans="1:16" ht="23.4">
       <c r="A85" s="8"/>
       <c r="B85" s="76"/>
       <c r="C85" s="76"/>
-      <c r="D85" s="319"/>
-      <c r="E85" s="319"/>
+      <c r="D85" s="320"/>
+      <c r="E85" s="320"/>
       <c r="F85" s="78"/>
       <c r="G85" s="78"/>
       <c r="H85" s="78"/>
       <c r="I85" s="79"/>
       <c r="J85" s="78"/>
       <c r="K85" s="78"/>
-      <c r="L85" s="320"/>
-      <c r="M85" s="320"/>
-      <c r="N85" s="320"/>
-      <c r="O85" s="320"/>
+      <c r="L85" s="319"/>
+      <c r="M85" s="319"/>
+      <c r="N85" s="319"/>
+      <c r="O85" s="319"/>
       <c r="P85" s="9"/>
     </row>
     <row r="86" spans="1:16" ht="23.4">
       <c r="A86" s="8"/>
       <c r="B86" s="82"/>
       <c r="C86" s="79"/>
-      <c r="D86" s="319"/>
-      <c r="E86" s="319"/>
+      <c r="D86" s="320"/>
+      <c r="E86" s="320"/>
       <c r="F86" s="78"/>
       <c r="G86" s="78"/>
       <c r="H86" s="78"/>
       <c r="I86" s="79"/>
       <c r="J86" s="78"/>
       <c r="K86" s="81"/>
-      <c r="L86" s="323"/>
-      <c r="M86" s="320"/>
-      <c r="N86" s="320"/>
-      <c r="O86" s="320"/>
+      <c r="L86" s="321"/>
+      <c r="M86" s="319"/>
+      <c r="N86" s="319"/>
+      <c r="O86" s="319"/>
       <c r="P86" s="9"/>
     </row>
     <row r="87" spans="1:16" ht="23.4">
       <c r="A87" s="8"/>
       <c r="B87" s="76"/>
       <c r="C87" s="76"/>
-      <c r="D87" s="319"/>
-      <c r="E87" s="319"/>
+      <c r="D87" s="320"/>
+      <c r="E87" s="320"/>
       <c r="F87" s="78"/>
       <c r="G87" s="78"/>
       <c r="H87" s="78"/>
       <c r="I87" s="79"/>
       <c r="J87" s="78"/>
       <c r="K87" s="78"/>
-      <c r="L87" s="320"/>
-      <c r="M87" s="320"/>
-      <c r="N87" s="320"/>
-      <c r="O87" s="320"/>
+      <c r="L87" s="319"/>
+      <c r="M87" s="319"/>
+      <c r="N87" s="319"/>
+      <c r="O87" s="319"/>
       <c r="P87" s="9"/>
     </row>
     <row r="88" spans="1:16" ht="23.4">
@@ -6901,10 +6904,10 @@
       <c r="I88" s="79"/>
       <c r="J88" s="78"/>
       <c r="K88" s="78"/>
-      <c r="L88" s="320"/>
-      <c r="M88" s="320"/>
-      <c r="N88" s="320"/>
-      <c r="O88" s="320"/>
+      <c r="L88" s="319"/>
+      <c r="M88" s="319"/>
+      <c r="N88" s="319"/>
+      <c r="O88" s="319"/>
       <c r="P88" s="9"/>
     </row>
     <row r="89" spans="1:16" ht="16.2" thickBot="1">
@@ -6928,60 +6931,45 @@
     <row r="90" spans="1:16" ht="16.2" thickTop="1"/>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:M2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="L85:O85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="L86:O86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="L82:O82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="L83:O83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="L84:O84"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="L81:O81"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="L71:O72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="L74:O74"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="L62:O62"/>
     <mergeCell ref="L54:O54"/>
     <mergeCell ref="L55:O55"/>
     <mergeCell ref="L56:O57"/>
@@ -6996,45 +6984,60 @@
     <mergeCell ref="L52:O52"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="L53:O53"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="L79:O79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="L80:O80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="L81:O81"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="L70:O70"/>
-    <mergeCell ref="L71:O72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="L74:O74"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="L85:O85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="L86:O86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="L82:O82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="L83:O83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="L84:O84"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:M2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="L17:O17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7091,54 +7094,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="43.05" customHeight="1">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="208" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="218" t="str">
+      <c r="B1" s="209"/>
+      <c r="C1" s="212" t="str">
         <f>表紙!C7</f>
         <v>プロジェクト名</v>
       </c>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
-      <c r="L1" s="219"/>
-      <c r="M1" s="220"/>
-      <c r="N1" s="220"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
       <c r="O1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="225"/>
+      <c r="P1" s="218"/>
+      <c r="Q1" s="219"/>
     </row>
     <row r="2" spans="1:17" ht="43.05" customHeight="1" thickBot="1">
-      <c r="A2" s="216"/>
-      <c r="B2" s="217"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="222"/>
-      <c r="M2" s="223"/>
-      <c r="N2" s="223"/>
+      <c r="A2" s="210"/>
+      <c r="B2" s="211"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="217"/>
       <c r="O2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="226">
+      <c r="P2" s="220">
         <f ca="1">NOW()</f>
-        <v>44836.832805208331</v>
-      </c>
-      <c r="Q2" s="227"/>
+        <v>44836.836932523147</v>
+      </c>
+      <c r="Q2" s="221"/>
     </row>
     <row r="3" spans="1:17" ht="16.2" thickBot="1">
       <c r="A3" s="8"/>
@@ -7149,20 +7152,20 @@
       <c r="B4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="228" t="s">
+      <c r="C4" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="228"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="228"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="228"/>
-      <c r="I4" s="228"/>
-      <c r="J4" s="228"/>
-      <c r="K4" s="228"/>
-      <c r="L4" s="228"/>
-      <c r="M4" s="228"/>
-      <c r="N4" s="228"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="222"/>
+      <c r="M4" s="222"/>
+      <c r="N4" s="222"/>
       <c r="O4" s="62" t="s">
         <v>23</v>
       </c>
@@ -7176,18 +7179,18 @@
       <c r="B5" s="64">
         <v>1</v>
       </c>
-      <c r="C5" s="208"/>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209"/>
-      <c r="G5" s="209"/>
-      <c r="H5" s="209"/>
-      <c r="I5" s="209"/>
-      <c r="J5" s="209"/>
-      <c r="K5" s="209"/>
-      <c r="L5" s="209"/>
-      <c r="M5" s="209"/>
-      <c r="N5" s="210"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
+      <c r="I5" s="224"/>
+      <c r="J5" s="224"/>
+      <c r="K5" s="224"/>
+      <c r="L5" s="224"/>
+      <c r="M5" s="224"/>
+      <c r="N5" s="225"/>
       <c r="O5" s="58"/>
       <c r="P5" s="65"/>
       <c r="Q5" s="43"/>
@@ -7197,18 +7200,18 @@
       <c r="B6" s="64">
         <v>2</v>
       </c>
-      <c r="C6" s="208"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="209"/>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="209"/>
-      <c r="J6" s="209"/>
-      <c r="K6" s="209"/>
-      <c r="L6" s="209"/>
-      <c r="M6" s="209"/>
-      <c r="N6" s="210"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="224"/>
+      <c r="E6" s="224"/>
+      <c r="F6" s="224"/>
+      <c r="G6" s="224"/>
+      <c r="H6" s="224"/>
+      <c r="I6" s="224"/>
+      <c r="J6" s="224"/>
+      <c r="K6" s="224"/>
+      <c r="L6" s="224"/>
+      <c r="M6" s="224"/>
+      <c r="N6" s="225"/>
       <c r="O6" s="58"/>
       <c r="P6" s="65"/>
       <c r="Q6" s="43"/>
@@ -7218,18 +7221,18 @@
       <c r="B7" s="64">
         <v>3</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
-      <c r="H7" s="209"/>
-      <c r="I7" s="209"/>
-      <c r="J7" s="209"/>
-      <c r="K7" s="209"/>
-      <c r="L7" s="209"/>
-      <c r="M7" s="209"/>
-      <c r="N7" s="210"/>
+      <c r="C7" s="223"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="224"/>
+      <c r="I7" s="224"/>
+      <c r="J7" s="224"/>
+      <c r="K7" s="224"/>
+      <c r="L7" s="224"/>
+      <c r="M7" s="224"/>
+      <c r="N7" s="225"/>
       <c r="O7" s="58"/>
       <c r="P7" s="65"/>
       <c r="Q7" s="43"/>
@@ -7239,18 +7242,18 @@
       <c r="B8" s="64">
         <v>4</v>
       </c>
-      <c r="C8" s="208"/>
-      <c r="D8" s="209"/>
-      <c r="E8" s="209"/>
-      <c r="F8" s="209"/>
-      <c r="G8" s="209"/>
-      <c r="H8" s="209"/>
-      <c r="I8" s="209"/>
-      <c r="J8" s="209"/>
-      <c r="K8" s="209"/>
-      <c r="L8" s="209"/>
-      <c r="M8" s="209"/>
-      <c r="N8" s="210"/>
+      <c r="C8" s="223"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="224"/>
+      <c r="I8" s="224"/>
+      <c r="J8" s="224"/>
+      <c r="K8" s="224"/>
+      <c r="L8" s="224"/>
+      <c r="M8" s="224"/>
+      <c r="N8" s="225"/>
       <c r="O8" s="58"/>
       <c r="P8" s="65"/>
       <c r="Q8" s="43"/>
@@ -7260,18 +7263,18 @@
       <c r="B9" s="64">
         <v>5</v>
       </c>
-      <c r="C9" s="208"/>
-      <c r="D9" s="209"/>
-      <c r="E9" s="209"/>
-      <c r="F9" s="209"/>
-      <c r="G9" s="209"/>
-      <c r="H9" s="209"/>
-      <c r="I9" s="209"/>
-      <c r="J9" s="209"/>
-      <c r="K9" s="209"/>
-      <c r="L9" s="209"/>
-      <c r="M9" s="209"/>
-      <c r="N9" s="210"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="224"/>
+      <c r="I9" s="224"/>
+      <c r="J9" s="224"/>
+      <c r="K9" s="224"/>
+      <c r="L9" s="224"/>
+      <c r="M9" s="224"/>
+      <c r="N9" s="225"/>
       <c r="O9" s="58"/>
       <c r="P9" s="65"/>
       <c r="Q9" s="43"/>
@@ -7281,18 +7284,18 @@
       <c r="B10" s="64">
         <v>6</v>
       </c>
-      <c r="C10" s="208"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="209"/>
-      <c r="F10" s="209"/>
-      <c r="G10" s="209"/>
-      <c r="H10" s="209"/>
-      <c r="I10" s="209"/>
-      <c r="J10" s="209"/>
-      <c r="K10" s="209"/>
-      <c r="L10" s="209"/>
-      <c r="M10" s="209"/>
-      <c r="N10" s="210"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="224"/>
+      <c r="I10" s="224"/>
+      <c r="J10" s="224"/>
+      <c r="K10" s="224"/>
+      <c r="L10" s="224"/>
+      <c r="M10" s="224"/>
+      <c r="N10" s="225"/>
       <c r="O10" s="58"/>
       <c r="P10" s="65"/>
       <c r="Q10" s="43"/>
@@ -7302,18 +7305,18 @@
       <c r="B11" s="64">
         <v>7</v>
       </c>
-      <c r="C11" s="208"/>
-      <c r="D11" s="209"/>
-      <c r="E11" s="209"/>
-      <c r="F11" s="209"/>
-      <c r="G11" s="209"/>
-      <c r="H11" s="209"/>
-      <c r="I11" s="209"/>
-      <c r="J11" s="209"/>
-      <c r="K11" s="209"/>
-      <c r="L11" s="209"/>
-      <c r="M11" s="209"/>
-      <c r="N11" s="210"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="224"/>
+      <c r="E11" s="224"/>
+      <c r="F11" s="224"/>
+      <c r="G11" s="224"/>
+      <c r="H11" s="224"/>
+      <c r="I11" s="224"/>
+      <c r="J11" s="224"/>
+      <c r="K11" s="224"/>
+      <c r="L11" s="224"/>
+      <c r="M11" s="224"/>
+      <c r="N11" s="225"/>
       <c r="O11" s="58"/>
       <c r="P11" s="65"/>
       <c r="Q11" s="43"/>
@@ -7323,18 +7326,18 @@
       <c r="B12" s="64">
         <v>8</v>
       </c>
-      <c r="C12" s="208"/>
-      <c r="D12" s="209"/>
-      <c r="E12" s="209"/>
-      <c r="F12" s="209"/>
-      <c r="G12" s="209"/>
-      <c r="H12" s="209"/>
-      <c r="I12" s="209"/>
-      <c r="J12" s="209"/>
-      <c r="K12" s="209"/>
-      <c r="L12" s="209"/>
-      <c r="M12" s="209"/>
-      <c r="N12" s="210"/>
+      <c r="C12" s="223"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="224"/>
+      <c r="G12" s="224"/>
+      <c r="H12" s="224"/>
+      <c r="I12" s="224"/>
+      <c r="J12" s="224"/>
+      <c r="K12" s="224"/>
+      <c r="L12" s="224"/>
+      <c r="M12" s="224"/>
+      <c r="N12" s="225"/>
       <c r="O12" s="58"/>
       <c r="P12" s="65"/>
       <c r="Q12" s="43"/>
@@ -7344,18 +7347,18 @@
       <c r="B13" s="64">
         <v>9</v>
       </c>
-      <c r="C13" s="208"/>
-      <c r="D13" s="209"/>
-      <c r="E13" s="209"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="209"/>
-      <c r="H13" s="209"/>
-      <c r="I13" s="209"/>
-      <c r="J13" s="209"/>
-      <c r="K13" s="209"/>
-      <c r="L13" s="209"/>
-      <c r="M13" s="209"/>
-      <c r="N13" s="210"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="224"/>
+      <c r="E13" s="224"/>
+      <c r="F13" s="224"/>
+      <c r="G13" s="224"/>
+      <c r="H13" s="224"/>
+      <c r="I13" s="224"/>
+      <c r="J13" s="224"/>
+      <c r="K13" s="224"/>
+      <c r="L13" s="224"/>
+      <c r="M13" s="224"/>
+      <c r="N13" s="225"/>
       <c r="O13" s="58"/>
       <c r="P13" s="65"/>
       <c r="Q13" s="43"/>
@@ -7365,18 +7368,18 @@
       <c r="B14" s="64">
         <v>10</v>
       </c>
-      <c r="C14" s="208"/>
-      <c r="D14" s="209"/>
-      <c r="E14" s="209"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="209"/>
-      <c r="H14" s="209"/>
-      <c r="I14" s="209"/>
-      <c r="J14" s="209"/>
-      <c r="K14" s="209"/>
-      <c r="L14" s="209"/>
-      <c r="M14" s="209"/>
-      <c r="N14" s="210"/>
+      <c r="C14" s="223"/>
+      <c r="D14" s="224"/>
+      <c r="E14" s="224"/>
+      <c r="F14" s="224"/>
+      <c r="G14" s="224"/>
+      <c r="H14" s="224"/>
+      <c r="I14" s="224"/>
+      <c r="J14" s="224"/>
+      <c r="K14" s="224"/>
+      <c r="L14" s="224"/>
+      <c r="M14" s="224"/>
+      <c r="N14" s="225"/>
       <c r="O14" s="58"/>
       <c r="P14" s="65"/>
       <c r="Q14" s="43"/>
@@ -7386,18 +7389,18 @@
       <c r="B15" s="64">
         <v>11</v>
       </c>
-      <c r="C15" s="208"/>
-      <c r="D15" s="209"/>
-      <c r="E15" s="209"/>
-      <c r="F15" s="209"/>
-      <c r="G15" s="209"/>
-      <c r="H15" s="209"/>
-      <c r="I15" s="209"/>
-      <c r="J15" s="209"/>
-      <c r="K15" s="209"/>
-      <c r="L15" s="209"/>
-      <c r="M15" s="209"/>
-      <c r="N15" s="210"/>
+      <c r="C15" s="223"/>
+      <c r="D15" s="224"/>
+      <c r="E15" s="224"/>
+      <c r="F15" s="224"/>
+      <c r="G15" s="224"/>
+      <c r="H15" s="224"/>
+      <c r="I15" s="224"/>
+      <c r="J15" s="224"/>
+      <c r="K15" s="224"/>
+      <c r="L15" s="224"/>
+      <c r="M15" s="224"/>
+      <c r="N15" s="225"/>
       <c r="O15" s="58"/>
       <c r="P15" s="65"/>
       <c r="Q15" s="43"/>
@@ -7407,18 +7410,18 @@
       <c r="B16" s="64">
         <v>12</v>
       </c>
-      <c r="C16" s="208"/>
-      <c r="D16" s="209"/>
-      <c r="E16" s="209"/>
-      <c r="F16" s="209"/>
-      <c r="G16" s="209"/>
-      <c r="H16" s="209"/>
-      <c r="I16" s="209"/>
-      <c r="J16" s="209"/>
-      <c r="K16" s="209"/>
-      <c r="L16" s="209"/>
-      <c r="M16" s="209"/>
-      <c r="N16" s="210"/>
+      <c r="C16" s="223"/>
+      <c r="D16" s="224"/>
+      <c r="E16" s="224"/>
+      <c r="F16" s="224"/>
+      <c r="G16" s="224"/>
+      <c r="H16" s="224"/>
+      <c r="I16" s="224"/>
+      <c r="J16" s="224"/>
+      <c r="K16" s="224"/>
+      <c r="L16" s="224"/>
+      <c r="M16" s="224"/>
+      <c r="N16" s="225"/>
       <c r="O16" s="58"/>
       <c r="P16" s="65"/>
       <c r="Q16" s="43"/>
@@ -7428,18 +7431,18 @@
       <c r="B17" s="64">
         <v>13</v>
       </c>
-      <c r="C17" s="208"/>
-      <c r="D17" s="209"/>
-      <c r="E17" s="209"/>
-      <c r="F17" s="209"/>
-      <c r="G17" s="209"/>
-      <c r="H17" s="209"/>
-      <c r="I17" s="209"/>
-      <c r="J17" s="209"/>
-      <c r="K17" s="209"/>
-      <c r="L17" s="209"/>
-      <c r="M17" s="209"/>
-      <c r="N17" s="210"/>
+      <c r="C17" s="223"/>
+      <c r="D17" s="224"/>
+      <c r="E17" s="224"/>
+      <c r="F17" s="224"/>
+      <c r="G17" s="224"/>
+      <c r="H17" s="224"/>
+      <c r="I17" s="224"/>
+      <c r="J17" s="224"/>
+      <c r="K17" s="224"/>
+      <c r="L17" s="224"/>
+      <c r="M17" s="224"/>
+      <c r="N17" s="225"/>
       <c r="O17" s="58"/>
       <c r="P17" s="65"/>
       <c r="Q17" s="43"/>
@@ -7449,18 +7452,18 @@
       <c r="B18" s="64">
         <v>14</v>
       </c>
-      <c r="C18" s="208"/>
-      <c r="D18" s="209"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="209"/>
-      <c r="H18" s="209"/>
-      <c r="I18" s="209"/>
-      <c r="J18" s="209"/>
-      <c r="K18" s="209"/>
-      <c r="L18" s="209"/>
-      <c r="M18" s="209"/>
-      <c r="N18" s="210"/>
+      <c r="C18" s="223"/>
+      <c r="D18" s="224"/>
+      <c r="E18" s="224"/>
+      <c r="F18" s="224"/>
+      <c r="G18" s="224"/>
+      <c r="H18" s="224"/>
+      <c r="I18" s="224"/>
+      <c r="J18" s="224"/>
+      <c r="K18" s="224"/>
+      <c r="L18" s="224"/>
+      <c r="M18" s="224"/>
+      <c r="N18" s="225"/>
       <c r="O18" s="58"/>
       <c r="P18" s="65"/>
       <c r="Q18" s="43"/>
@@ -7470,18 +7473,18 @@
       <c r="B19" s="64">
         <v>15</v>
       </c>
-      <c r="C19" s="208"/>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="209"/>
-      <c r="H19" s="209"/>
-      <c r="I19" s="209"/>
-      <c r="J19" s="209"/>
-      <c r="K19" s="209"/>
-      <c r="L19" s="209"/>
-      <c r="M19" s="209"/>
-      <c r="N19" s="210"/>
+      <c r="C19" s="223"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="224"/>
+      <c r="F19" s="224"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="224"/>
+      <c r="I19" s="224"/>
+      <c r="J19" s="224"/>
+      <c r="K19" s="224"/>
+      <c r="L19" s="224"/>
+      <c r="M19" s="224"/>
+      <c r="N19" s="225"/>
       <c r="O19" s="58"/>
       <c r="P19" s="65"/>
       <c r="Q19" s="43"/>
@@ -7491,18 +7494,18 @@
       <c r="B20" s="64">
         <v>16</v>
       </c>
-      <c r="C20" s="208"/>
-      <c r="D20" s="209"/>
-      <c r="E20" s="209"/>
-      <c r="F20" s="209"/>
-      <c r="G20" s="209"/>
-      <c r="H20" s="209"/>
-      <c r="I20" s="209"/>
-      <c r="J20" s="209"/>
-      <c r="K20" s="209"/>
-      <c r="L20" s="209"/>
-      <c r="M20" s="209"/>
-      <c r="N20" s="210"/>
+      <c r="C20" s="223"/>
+      <c r="D20" s="224"/>
+      <c r="E20" s="224"/>
+      <c r="F20" s="224"/>
+      <c r="G20" s="224"/>
+      <c r="H20" s="224"/>
+      <c r="I20" s="224"/>
+      <c r="J20" s="224"/>
+      <c r="K20" s="224"/>
+      <c r="L20" s="224"/>
+      <c r="M20" s="224"/>
+      <c r="N20" s="225"/>
       <c r="O20" s="58"/>
       <c r="P20" s="65"/>
       <c r="Q20" s="43"/>
@@ -7512,18 +7515,18 @@
       <c r="B21" s="64">
         <v>17</v>
       </c>
-      <c r="C21" s="208"/>
-      <c r="D21" s="209"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="209"/>
-      <c r="H21" s="209"/>
-      <c r="I21" s="209"/>
-      <c r="J21" s="209"/>
-      <c r="K21" s="209"/>
-      <c r="L21" s="209"/>
-      <c r="M21" s="209"/>
-      <c r="N21" s="210"/>
+      <c r="C21" s="223"/>
+      <c r="D21" s="224"/>
+      <c r="E21" s="224"/>
+      <c r="F21" s="224"/>
+      <c r="G21" s="224"/>
+      <c r="H21" s="224"/>
+      <c r="I21" s="224"/>
+      <c r="J21" s="224"/>
+      <c r="K21" s="224"/>
+      <c r="L21" s="224"/>
+      <c r="M21" s="224"/>
+      <c r="N21" s="225"/>
       <c r="O21" s="58"/>
       <c r="P21" s="65"/>
       <c r="Q21" s="43"/>
@@ -7533,18 +7536,18 @@
       <c r="B22" s="64">
         <v>18</v>
       </c>
-      <c r="C22" s="208"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="209"/>
-      <c r="G22" s="209"/>
-      <c r="H22" s="209"/>
-      <c r="I22" s="209"/>
-      <c r="J22" s="209"/>
-      <c r="K22" s="209"/>
-      <c r="L22" s="209"/>
-      <c r="M22" s="209"/>
-      <c r="N22" s="210"/>
+      <c r="C22" s="223"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="224"/>
+      <c r="F22" s="224"/>
+      <c r="G22" s="224"/>
+      <c r="H22" s="224"/>
+      <c r="I22" s="224"/>
+      <c r="J22" s="224"/>
+      <c r="K22" s="224"/>
+      <c r="L22" s="224"/>
+      <c r="M22" s="224"/>
+      <c r="N22" s="225"/>
       <c r="O22" s="58"/>
       <c r="P22" s="65"/>
       <c r="Q22" s="43"/>
@@ -7554,18 +7557,18 @@
       <c r="B23" s="64">
         <v>19</v>
       </c>
-      <c r="C23" s="208"/>
-      <c r="D23" s="209"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="209"/>
-      <c r="G23" s="209"/>
-      <c r="H23" s="209"/>
-      <c r="I23" s="209"/>
-      <c r="J23" s="209"/>
-      <c r="K23" s="209"/>
-      <c r="L23" s="209"/>
-      <c r="M23" s="209"/>
-      <c r="N23" s="210"/>
+      <c r="C23" s="223"/>
+      <c r="D23" s="224"/>
+      <c r="E23" s="224"/>
+      <c r="F23" s="224"/>
+      <c r="G23" s="224"/>
+      <c r="H23" s="224"/>
+      <c r="I23" s="224"/>
+      <c r="J23" s="224"/>
+      <c r="K23" s="224"/>
+      <c r="L23" s="224"/>
+      <c r="M23" s="224"/>
+      <c r="N23" s="225"/>
       <c r="O23" s="58"/>
       <c r="P23" s="65"/>
       <c r="Q23" s="43"/>
@@ -7575,18 +7578,18 @@
       <c r="B24" s="64">
         <v>20</v>
       </c>
-      <c r="C24" s="208"/>
-      <c r="D24" s="209"/>
-      <c r="E24" s="209"/>
-      <c r="F24" s="209"/>
-      <c r="G24" s="209"/>
-      <c r="H24" s="209"/>
-      <c r="I24" s="209"/>
-      <c r="J24" s="209"/>
-      <c r="K24" s="209"/>
-      <c r="L24" s="209"/>
-      <c r="M24" s="209"/>
-      <c r="N24" s="210"/>
+      <c r="C24" s="223"/>
+      <c r="D24" s="224"/>
+      <c r="E24" s="224"/>
+      <c r="F24" s="224"/>
+      <c r="G24" s="224"/>
+      <c r="H24" s="224"/>
+      <c r="I24" s="224"/>
+      <c r="J24" s="224"/>
+      <c r="K24" s="224"/>
+      <c r="L24" s="224"/>
+      <c r="M24" s="224"/>
+      <c r="N24" s="225"/>
       <c r="O24" s="58"/>
       <c r="P24" s="65"/>
       <c r="Q24" s="43"/>
@@ -7596,18 +7599,18 @@
       <c r="B25" s="64">
         <v>21</v>
       </c>
-      <c r="C25" s="208"/>
-      <c r="D25" s="209"/>
-      <c r="E25" s="209"/>
-      <c r="F25" s="209"/>
-      <c r="G25" s="209"/>
-      <c r="H25" s="209"/>
-      <c r="I25" s="209"/>
-      <c r="J25" s="209"/>
-      <c r="K25" s="209"/>
-      <c r="L25" s="209"/>
-      <c r="M25" s="209"/>
-      <c r="N25" s="210"/>
+      <c r="C25" s="223"/>
+      <c r="D25" s="224"/>
+      <c r="E25" s="224"/>
+      <c r="F25" s="224"/>
+      <c r="G25" s="224"/>
+      <c r="H25" s="224"/>
+      <c r="I25" s="224"/>
+      <c r="J25" s="224"/>
+      <c r="K25" s="224"/>
+      <c r="L25" s="224"/>
+      <c r="M25" s="224"/>
+      <c r="N25" s="225"/>
       <c r="O25" s="58"/>
       <c r="P25" s="65"/>
       <c r="Q25" s="43"/>
@@ -7617,18 +7620,18 @@
       <c r="B26" s="64">
         <v>22</v>
       </c>
-      <c r="C26" s="208"/>
-      <c r="D26" s="209"/>
-      <c r="E26" s="209"/>
-      <c r="F26" s="209"/>
-      <c r="G26" s="209"/>
-      <c r="H26" s="209"/>
-      <c r="I26" s="209"/>
-      <c r="J26" s="209"/>
-      <c r="K26" s="209"/>
-      <c r="L26" s="209"/>
-      <c r="M26" s="209"/>
-      <c r="N26" s="210"/>
+      <c r="C26" s="223"/>
+      <c r="D26" s="224"/>
+      <c r="E26" s="224"/>
+      <c r="F26" s="224"/>
+      <c r="G26" s="224"/>
+      <c r="H26" s="224"/>
+      <c r="I26" s="224"/>
+      <c r="J26" s="224"/>
+      <c r="K26" s="224"/>
+      <c r="L26" s="224"/>
+      <c r="M26" s="224"/>
+      <c r="N26" s="225"/>
       <c r="O26" s="58"/>
       <c r="P26" s="65"/>
       <c r="Q26" s="43"/>
@@ -7638,18 +7641,18 @@
       <c r="B27" s="64">
         <v>23</v>
       </c>
-      <c r="C27" s="208"/>
-      <c r="D27" s="209"/>
-      <c r="E27" s="209"/>
-      <c r="F27" s="209"/>
-      <c r="G27" s="209"/>
-      <c r="H27" s="209"/>
-      <c r="I27" s="209"/>
-      <c r="J27" s="209"/>
-      <c r="K27" s="209"/>
-      <c r="L27" s="209"/>
-      <c r="M27" s="209"/>
-      <c r="N27" s="210"/>
+      <c r="C27" s="223"/>
+      <c r="D27" s="224"/>
+      <c r="E27" s="224"/>
+      <c r="F27" s="224"/>
+      <c r="G27" s="224"/>
+      <c r="H27" s="224"/>
+      <c r="I27" s="224"/>
+      <c r="J27" s="224"/>
+      <c r="K27" s="224"/>
+      <c r="L27" s="224"/>
+      <c r="M27" s="224"/>
+      <c r="N27" s="225"/>
       <c r="O27" s="58"/>
       <c r="P27" s="65"/>
       <c r="Q27" s="43"/>
@@ -7659,18 +7662,18 @@
       <c r="B28" s="64">
         <v>24</v>
       </c>
-      <c r="C28" s="208"/>
-      <c r="D28" s="209"/>
-      <c r="E28" s="209"/>
-      <c r="F28" s="209"/>
-      <c r="G28" s="209"/>
-      <c r="H28" s="209"/>
-      <c r="I28" s="209"/>
-      <c r="J28" s="209"/>
-      <c r="K28" s="209"/>
-      <c r="L28" s="209"/>
-      <c r="M28" s="209"/>
-      <c r="N28" s="210"/>
+      <c r="C28" s="223"/>
+      <c r="D28" s="224"/>
+      <c r="E28" s="224"/>
+      <c r="F28" s="224"/>
+      <c r="G28" s="224"/>
+      <c r="H28" s="224"/>
+      <c r="I28" s="224"/>
+      <c r="J28" s="224"/>
+      <c r="K28" s="224"/>
+      <c r="L28" s="224"/>
+      <c r="M28" s="224"/>
+      <c r="N28" s="225"/>
       <c r="O28" s="58"/>
       <c r="P28" s="65"/>
       <c r="Q28" s="43"/>
@@ -7680,18 +7683,18 @@
       <c r="B29" s="64">
         <v>25</v>
       </c>
-      <c r="C29" s="208"/>
-      <c r="D29" s="209"/>
-      <c r="E29" s="209"/>
-      <c r="F29" s="209"/>
-      <c r="G29" s="209"/>
-      <c r="H29" s="209"/>
-      <c r="I29" s="209"/>
-      <c r="J29" s="209"/>
-      <c r="K29" s="209"/>
-      <c r="L29" s="209"/>
-      <c r="M29" s="209"/>
-      <c r="N29" s="210"/>
+      <c r="C29" s="223"/>
+      <c r="D29" s="224"/>
+      <c r="E29" s="224"/>
+      <c r="F29" s="224"/>
+      <c r="G29" s="224"/>
+      <c r="H29" s="224"/>
+      <c r="I29" s="224"/>
+      <c r="J29" s="224"/>
+      <c r="K29" s="224"/>
+      <c r="L29" s="224"/>
+      <c r="M29" s="224"/>
+      <c r="N29" s="225"/>
       <c r="O29" s="58"/>
       <c r="P29" s="65"/>
       <c r="Q29" s="43"/>
@@ -7701,18 +7704,18 @@
       <c r="B30" s="64">
         <v>26</v>
       </c>
-      <c r="C30" s="208"/>
-      <c r="D30" s="209"/>
-      <c r="E30" s="209"/>
-      <c r="F30" s="209"/>
-      <c r="G30" s="209"/>
-      <c r="H30" s="209"/>
-      <c r="I30" s="209"/>
-      <c r="J30" s="209"/>
-      <c r="K30" s="209"/>
-      <c r="L30" s="209"/>
-      <c r="M30" s="209"/>
-      <c r="N30" s="210"/>
+      <c r="C30" s="223"/>
+      <c r="D30" s="224"/>
+      <c r="E30" s="224"/>
+      <c r="F30" s="224"/>
+      <c r="G30" s="224"/>
+      <c r="H30" s="224"/>
+      <c r="I30" s="224"/>
+      <c r="J30" s="224"/>
+      <c r="K30" s="224"/>
+      <c r="L30" s="224"/>
+      <c r="M30" s="224"/>
+      <c r="N30" s="225"/>
       <c r="O30" s="58"/>
       <c r="P30" s="65"/>
       <c r="Q30" s="43"/>
@@ -7722,18 +7725,18 @@
       <c r="B31" s="64">
         <v>27</v>
       </c>
-      <c r="C31" s="208"/>
-      <c r="D31" s="209"/>
-      <c r="E31" s="209"/>
-      <c r="F31" s="209"/>
-      <c r="G31" s="209"/>
-      <c r="H31" s="209"/>
-      <c r="I31" s="209"/>
-      <c r="J31" s="209"/>
-      <c r="K31" s="209"/>
-      <c r="L31" s="209"/>
-      <c r="M31" s="209"/>
-      <c r="N31" s="210"/>
+      <c r="C31" s="223"/>
+      <c r="D31" s="224"/>
+      <c r="E31" s="224"/>
+      <c r="F31" s="224"/>
+      <c r="G31" s="224"/>
+      <c r="H31" s="224"/>
+      <c r="I31" s="224"/>
+      <c r="J31" s="224"/>
+      <c r="K31" s="224"/>
+      <c r="L31" s="224"/>
+      <c r="M31" s="224"/>
+      <c r="N31" s="225"/>
       <c r="O31" s="58"/>
       <c r="P31" s="65"/>
       <c r="Q31" s="43"/>
@@ -7743,18 +7746,18 @@
       <c r="B32" s="64">
         <v>28</v>
       </c>
-      <c r="C32" s="208"/>
-      <c r="D32" s="209"/>
-      <c r="E32" s="209"/>
-      <c r="F32" s="209"/>
-      <c r="G32" s="209"/>
-      <c r="H32" s="209"/>
-      <c r="I32" s="209"/>
-      <c r="J32" s="209"/>
-      <c r="K32" s="209"/>
-      <c r="L32" s="209"/>
-      <c r="M32" s="209"/>
-      <c r="N32" s="210"/>
+      <c r="C32" s="223"/>
+      <c r="D32" s="224"/>
+      <c r="E32" s="224"/>
+      <c r="F32" s="224"/>
+      <c r="G32" s="224"/>
+      <c r="H32" s="224"/>
+      <c r="I32" s="224"/>
+      <c r="J32" s="224"/>
+      <c r="K32" s="224"/>
+      <c r="L32" s="224"/>
+      <c r="M32" s="224"/>
+      <c r="N32" s="225"/>
       <c r="O32" s="58"/>
       <c r="P32" s="65"/>
       <c r="Q32" s="43"/>
@@ -7764,18 +7767,18 @@
       <c r="B33" s="64">
         <v>29</v>
       </c>
-      <c r="C33" s="208"/>
-      <c r="D33" s="209"/>
-      <c r="E33" s="209"/>
-      <c r="F33" s="209"/>
-      <c r="G33" s="209"/>
-      <c r="H33" s="209"/>
-      <c r="I33" s="209"/>
-      <c r="J33" s="209"/>
-      <c r="K33" s="209"/>
-      <c r="L33" s="209"/>
-      <c r="M33" s="209"/>
-      <c r="N33" s="210"/>
+      <c r="C33" s="223"/>
+      <c r="D33" s="224"/>
+      <c r="E33" s="224"/>
+      <c r="F33" s="224"/>
+      <c r="G33" s="224"/>
+      <c r="H33" s="224"/>
+      <c r="I33" s="224"/>
+      <c r="J33" s="224"/>
+      <c r="K33" s="224"/>
+      <c r="L33" s="224"/>
+      <c r="M33" s="224"/>
+      <c r="N33" s="225"/>
       <c r="O33" s="58"/>
       <c r="P33" s="65"/>
       <c r="Q33" s="43"/>
@@ -7785,18 +7788,18 @@
       <c r="B34" s="64">
         <v>30</v>
       </c>
-      <c r="C34" s="208"/>
-      <c r="D34" s="209"/>
-      <c r="E34" s="209"/>
-      <c r="F34" s="209"/>
-      <c r="G34" s="209"/>
-      <c r="H34" s="209"/>
-      <c r="I34" s="209"/>
-      <c r="J34" s="209"/>
-      <c r="K34" s="209"/>
-      <c r="L34" s="209"/>
-      <c r="M34" s="209"/>
-      <c r="N34" s="210"/>
+      <c r="C34" s="223"/>
+      <c r="D34" s="224"/>
+      <c r="E34" s="224"/>
+      <c r="F34" s="224"/>
+      <c r="G34" s="224"/>
+      <c r="H34" s="224"/>
+      <c r="I34" s="224"/>
+      <c r="J34" s="224"/>
+      <c r="K34" s="224"/>
+      <c r="L34" s="224"/>
+      <c r="M34" s="224"/>
+      <c r="N34" s="225"/>
       <c r="O34" s="58"/>
       <c r="P34" s="65"/>
       <c r="Q34" s="43"/>
@@ -7806,18 +7809,18 @@
       <c r="B35" s="64">
         <v>31</v>
       </c>
-      <c r="C35" s="208"/>
-      <c r="D35" s="209"/>
-      <c r="E35" s="209"/>
-      <c r="F35" s="209"/>
-      <c r="G35" s="209"/>
-      <c r="H35" s="209"/>
-      <c r="I35" s="209"/>
-      <c r="J35" s="209"/>
-      <c r="K35" s="209"/>
-      <c r="L35" s="209"/>
-      <c r="M35" s="209"/>
-      <c r="N35" s="210"/>
+      <c r="C35" s="223"/>
+      <c r="D35" s="224"/>
+      <c r="E35" s="224"/>
+      <c r="F35" s="224"/>
+      <c r="G35" s="224"/>
+      <c r="H35" s="224"/>
+      <c r="I35" s="224"/>
+      <c r="J35" s="224"/>
+      <c r="K35" s="224"/>
+      <c r="L35" s="224"/>
+      <c r="M35" s="224"/>
+      <c r="N35" s="225"/>
       <c r="O35" s="58"/>
       <c r="P35" s="65"/>
       <c r="Q35" s="43"/>
@@ -7827,18 +7830,18 @@
       <c r="B36" s="64">
         <v>32</v>
       </c>
-      <c r="C36" s="208"/>
-      <c r="D36" s="209"/>
-      <c r="E36" s="209"/>
-      <c r="F36" s="209"/>
-      <c r="G36" s="209"/>
-      <c r="H36" s="209"/>
-      <c r="I36" s="209"/>
-      <c r="J36" s="209"/>
-      <c r="K36" s="209"/>
-      <c r="L36" s="209"/>
-      <c r="M36" s="209"/>
-      <c r="N36" s="210"/>
+      <c r="C36" s="223"/>
+      <c r="D36" s="224"/>
+      <c r="E36" s="224"/>
+      <c r="F36" s="224"/>
+      <c r="G36" s="224"/>
+      <c r="H36" s="224"/>
+      <c r="I36" s="224"/>
+      <c r="J36" s="224"/>
+      <c r="K36" s="224"/>
+      <c r="L36" s="224"/>
+      <c r="M36" s="224"/>
+      <c r="N36" s="225"/>
       <c r="O36" s="58"/>
       <c r="P36" s="65"/>
       <c r="Q36" s="43"/>
@@ -7848,18 +7851,18 @@
       <c r="B37" s="64">
         <v>33</v>
       </c>
-      <c r="C37" s="208"/>
-      <c r="D37" s="209"/>
-      <c r="E37" s="209"/>
-      <c r="F37" s="209"/>
-      <c r="G37" s="209"/>
-      <c r="H37" s="209"/>
-      <c r="I37" s="209"/>
-      <c r="J37" s="209"/>
-      <c r="K37" s="209"/>
-      <c r="L37" s="209"/>
-      <c r="M37" s="209"/>
-      <c r="N37" s="210"/>
+      <c r="C37" s="223"/>
+      <c r="D37" s="224"/>
+      <c r="E37" s="224"/>
+      <c r="F37" s="224"/>
+      <c r="G37" s="224"/>
+      <c r="H37" s="224"/>
+      <c r="I37" s="224"/>
+      <c r="J37" s="224"/>
+      <c r="K37" s="224"/>
+      <c r="L37" s="224"/>
+      <c r="M37" s="224"/>
+      <c r="N37" s="225"/>
       <c r="O37" s="58"/>
       <c r="P37" s="65"/>
       <c r="Q37" s="43"/>
@@ -7869,18 +7872,18 @@
       <c r="B38" s="64">
         <v>34</v>
       </c>
-      <c r="C38" s="208"/>
-      <c r="D38" s="209"/>
-      <c r="E38" s="209"/>
-      <c r="F38" s="209"/>
-      <c r="G38" s="209"/>
-      <c r="H38" s="209"/>
-      <c r="I38" s="209"/>
-      <c r="J38" s="209"/>
-      <c r="K38" s="209"/>
-      <c r="L38" s="209"/>
-      <c r="M38" s="209"/>
-      <c r="N38" s="210"/>
+      <c r="C38" s="223"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="224"/>
+      <c r="F38" s="224"/>
+      <c r="G38" s="224"/>
+      <c r="H38" s="224"/>
+      <c r="I38" s="224"/>
+      <c r="J38" s="224"/>
+      <c r="K38" s="224"/>
+      <c r="L38" s="224"/>
+      <c r="M38" s="224"/>
+      <c r="N38" s="225"/>
       <c r="O38" s="58"/>
       <c r="P38" s="65"/>
       <c r="Q38" s="43"/>
@@ -7890,18 +7893,18 @@
       <c r="B39" s="64">
         <v>35</v>
       </c>
-      <c r="C39" s="208"/>
-      <c r="D39" s="209"/>
-      <c r="E39" s="209"/>
-      <c r="F39" s="209"/>
-      <c r="G39" s="209"/>
-      <c r="H39" s="209"/>
-      <c r="I39" s="209"/>
-      <c r="J39" s="209"/>
-      <c r="K39" s="209"/>
-      <c r="L39" s="209"/>
-      <c r="M39" s="209"/>
-      <c r="N39" s="210"/>
+      <c r="C39" s="223"/>
+      <c r="D39" s="224"/>
+      <c r="E39" s="224"/>
+      <c r="F39" s="224"/>
+      <c r="G39" s="224"/>
+      <c r="H39" s="224"/>
+      <c r="I39" s="224"/>
+      <c r="J39" s="224"/>
+      <c r="K39" s="224"/>
+      <c r="L39" s="224"/>
+      <c r="M39" s="224"/>
+      <c r="N39" s="225"/>
       <c r="O39" s="58"/>
       <c r="P39" s="65"/>
       <c r="Q39" s="43"/>
@@ -7911,18 +7914,18 @@
       <c r="B40" s="64">
         <v>36</v>
       </c>
-      <c r="C40" s="208"/>
-      <c r="D40" s="209"/>
-      <c r="E40" s="209"/>
-      <c r="F40" s="209"/>
-      <c r="G40" s="209"/>
-      <c r="H40" s="209"/>
-      <c r="I40" s="209"/>
-      <c r="J40" s="209"/>
-      <c r="K40" s="209"/>
-      <c r="L40" s="209"/>
-      <c r="M40" s="209"/>
-      <c r="N40" s="210"/>
+      <c r="C40" s="223"/>
+      <c r="D40" s="224"/>
+      <c r="E40" s="224"/>
+      <c r="F40" s="224"/>
+      <c r="G40" s="224"/>
+      <c r="H40" s="224"/>
+      <c r="I40" s="224"/>
+      <c r="J40" s="224"/>
+      <c r="K40" s="224"/>
+      <c r="L40" s="224"/>
+      <c r="M40" s="224"/>
+      <c r="N40" s="225"/>
       <c r="O40" s="58"/>
       <c r="P40" s="65"/>
       <c r="Q40" s="43"/>
@@ -7930,18 +7933,18 @@
     <row r="41" spans="1:17" ht="33" thickBot="1">
       <c r="A41" s="44"/>
       <c r="B41" s="67"/>
-      <c r="C41" s="211"/>
-      <c r="D41" s="212"/>
-      <c r="E41" s="212"/>
-      <c r="F41" s="212"/>
-      <c r="G41" s="212"/>
-      <c r="H41" s="212"/>
-      <c r="I41" s="212"/>
-      <c r="J41" s="212"/>
-      <c r="K41" s="212"/>
-      <c r="L41" s="212"/>
-      <c r="M41" s="212"/>
-      <c r="N41" s="213"/>
+      <c r="C41" s="226"/>
+      <c r="D41" s="227"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="227"/>
+      <c r="G41" s="227"/>
+      <c r="H41" s="227"/>
+      <c r="I41" s="227"/>
+      <c r="J41" s="227"/>
+      <c r="K41" s="227"/>
+      <c r="L41" s="227"/>
+      <c r="M41" s="227"/>
+      <c r="N41" s="228"/>
       <c r="O41" s="68"/>
       <c r="P41" s="69"/>
       <c r="Q41" s="43"/>
@@ -8011,41 +8014,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:N2"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="C6:N6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="C8:N8"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="C11:N11"/>
-    <mergeCell ref="C12:N12"/>
-    <mergeCell ref="C13:N13"/>
-    <mergeCell ref="C14:N14"/>
-    <mergeCell ref="C15:N15"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="C18:N18"/>
-    <mergeCell ref="C19:N19"/>
-    <mergeCell ref="C20:N20"/>
-    <mergeCell ref="C21:N21"/>
-    <mergeCell ref="C22:N22"/>
-    <mergeCell ref="C23:N23"/>
-    <mergeCell ref="C24:N24"/>
-    <mergeCell ref="C25:N25"/>
-    <mergeCell ref="C26:N26"/>
-    <mergeCell ref="C27:N27"/>
-    <mergeCell ref="C28:N28"/>
-    <mergeCell ref="C29:N29"/>
-    <mergeCell ref="C30:N30"/>
-    <mergeCell ref="C31:N31"/>
-    <mergeCell ref="C32:N32"/>
-    <mergeCell ref="C33:N33"/>
-    <mergeCell ref="C34:N34"/>
     <mergeCell ref="C40:N40"/>
     <mergeCell ref="C41:N41"/>
     <mergeCell ref="C35:N35"/>
@@ -8053,6 +8021,41 @@
     <mergeCell ref="C37:N37"/>
     <mergeCell ref="C38:N38"/>
     <mergeCell ref="C39:N39"/>
+    <mergeCell ref="C30:N30"/>
+    <mergeCell ref="C31:N31"/>
+    <mergeCell ref="C32:N32"/>
+    <mergeCell ref="C33:N33"/>
+    <mergeCell ref="C34:N34"/>
+    <mergeCell ref="C25:N25"/>
+    <mergeCell ref="C26:N26"/>
+    <mergeCell ref="C27:N27"/>
+    <mergeCell ref="C28:N28"/>
+    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="C20:N20"/>
+    <mergeCell ref="C21:N21"/>
+    <mergeCell ref="C22:N22"/>
+    <mergeCell ref="C23:N23"/>
+    <mergeCell ref="C24:N24"/>
+    <mergeCell ref="C15:N15"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="C18:N18"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="C11:N11"/>
+    <mergeCell ref="C12:N12"/>
+    <mergeCell ref="C13:N13"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="C6:N6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="C8:N8"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:N2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="C4:N4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8087,52 +8090,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="43.05" customHeight="1">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="218" t="str">
+      <c r="B1" s="209"/>
+      <c r="C1" s="212" t="str">
         <f>表紙!C7</f>
         <v>プロジェクト名</v>
       </c>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
-      <c r="L1" s="219"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
       <c r="M1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="224"/>
-      <c r="O1" s="225"/>
+      <c r="N1" s="218"/>
+      <c r="O1" s="219"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="43.05" customHeight="1" thickBot="1">
-      <c r="A2" s="216"/>
-      <c r="B2" s="217"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="222"/>
+      <c r="A2" s="210"/>
+      <c r="B2" s="211"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
       <c r="M2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="226">
+      <c r="N2" s="220">
         <f ca="1">NOW()</f>
-        <v>44836.832805208331</v>
-      </c>
-      <c r="O2" s="227"/>
+        <v>44836.836932523147</v>
+      </c>
+      <c r="O2" s="221"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
@@ -9307,93 +9310,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="43.05" customHeight="1">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="218" t="str">
+      <c r="B1" s="209"/>
+      <c r="C1" s="212" t="str">
         <f>表紙!C7</f>
         <v>プロジェクト名</v>
       </c>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
-      <c r="L1" s="219"/>
-      <c r="M1" s="219"/>
-      <c r="N1" s="219"/>
-      <c r="O1" s="219"/>
-      <c r="P1" s="219"/>
-      <c r="Q1" s="219"/>
-      <c r="R1" s="219"/>
-      <c r="S1" s="219"/>
-      <c r="T1" s="219"/>
-      <c r="U1" s="219"/>
-      <c r="V1" s="219"/>
-      <c r="W1" s="219"/>
-      <c r="X1" s="219"/>
-      <c r="Y1" s="219"/>
-      <c r="Z1" s="219"/>
-      <c r="AA1" s="219"/>
-      <c r="AB1" s="219"/>
-      <c r="AC1" s="219"/>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="219"/>
-      <c r="AG1" s="219"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="M1" s="213"/>
+      <c r="N1" s="213"/>
+      <c r="O1" s="213"/>
+      <c r="P1" s="213"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="213"/>
+      <c r="S1" s="213"/>
+      <c r="T1" s="213"/>
+      <c r="U1" s="213"/>
+      <c r="V1" s="213"/>
+      <c r="W1" s="213"/>
+      <c r="X1" s="213"/>
+      <c r="Y1" s="213"/>
+      <c r="Z1" s="213"/>
+      <c r="AA1" s="213"/>
+      <c r="AB1" s="213"/>
+      <c r="AC1" s="213"/>
+      <c r="AD1" s="213"/>
+      <c r="AE1" s="213"/>
+      <c r="AF1" s="213"/>
+      <c r="AG1" s="213"/>
       <c r="AH1" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="AI1" s="256"/>
-      <c r="AJ1" s="257"/>
+      <c r="AI1" s="229"/>
+      <c r="AJ1" s="230"/>
       <c r="AK1" s="4"/>
       <c r="AL1" s="4"/>
     </row>
     <row r="2" spans="1:38" ht="43.05" customHeight="1" thickBot="1">
-      <c r="A2" s="216"/>
-      <c r="B2" s="217"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="222"/>
-      <c r="M2" s="222"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="222"/>
-      <c r="P2" s="222"/>
-      <c r="Q2" s="222"/>
-      <c r="R2" s="222"/>
-      <c r="S2" s="222"/>
-      <c r="T2" s="222"/>
-      <c r="U2" s="222"/>
-      <c r="V2" s="222"/>
-      <c r="W2" s="222"/>
-      <c r="X2" s="222"/>
-      <c r="Y2" s="222"/>
-      <c r="Z2" s="222"/>
-      <c r="AA2" s="222"/>
-      <c r="AB2" s="222"/>
-      <c r="AC2" s="222"/>
-      <c r="AD2" s="222"/>
-      <c r="AE2" s="222"/>
-      <c r="AF2" s="222"/>
-      <c r="AG2" s="222"/>
+      <c r="A2" s="210"/>
+      <c r="B2" s="211"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="216"/>
+      <c r="AA2" s="216"/>
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="216"/>
+      <c r="AD2" s="216"/>
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="216"/>
+      <c r="AG2" s="216"/>
       <c r="AH2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="AI2" s="258">
+      <c r="AI2" s="231">
         <v>44826</v>
       </c>
-      <c r="AJ2" s="259"/>
+      <c r="AJ2" s="232"/>
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
     </row>
@@ -9503,21 +9506,21 @@
       <c r="C6" s="198" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="260" t="s">
+      <c r="D6" s="233" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="252"/>
-      <c r="F6" s="253"/>
-      <c r="G6" s="251" t="s">
+      <c r="E6" s="234"/>
+      <c r="F6" s="235"/>
+      <c r="G6" s="236" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="252"/>
-      <c r="I6" s="253"/>
-      <c r="J6" s="251" t="s">
+      <c r="H6" s="234"/>
+      <c r="I6" s="235"/>
+      <c r="J6" s="236" t="s">
         <v>120</v>
       </c>
-      <c r="K6" s="252"/>
-      <c r="L6" s="261"/>
+      <c r="K6" s="234"/>
+      <c r="L6" s="237"/>
       <c r="M6" s="130"/>
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
@@ -9547,21 +9550,21 @@
       <c r="C7" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="241" t="s">
+      <c r="D7" s="258" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="233"/>
-      <c r="F7" s="242"/>
-      <c r="G7" s="232" t="s">
+      <c r="E7" s="242"/>
+      <c r="F7" s="243"/>
+      <c r="G7" s="241" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="233"/>
-      <c r="I7" s="242"/>
-      <c r="J7" s="232" t="s">
+      <c r="H7" s="242"/>
+      <c r="I7" s="243"/>
+      <c r="J7" s="241" t="s">
         <v>118</v>
       </c>
-      <c r="K7" s="233"/>
-      <c r="L7" s="234"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="253"/>
       <c r="M7" s="130"/>
       <c r="N7" s="70"/>
       <c r="O7" s="70"/>
@@ -9591,21 +9594,21 @@
       <c r="C8" s="153" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="243" t="s">
+      <c r="D8" s="259" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="244"/>
-      <c r="F8" s="245"/>
-      <c r="G8" s="254" t="s">
+      <c r="E8" s="239"/>
+      <c r="F8" s="240"/>
+      <c r="G8" s="238" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="244"/>
-      <c r="I8" s="245"/>
-      <c r="J8" s="235" t="s">
+      <c r="H8" s="239"/>
+      <c r="I8" s="240"/>
+      <c r="J8" s="254" t="s">
         <v>119</v>
       </c>
-      <c r="K8" s="236"/>
-      <c r="L8" s="237"/>
+      <c r="K8" s="255"/>
+      <c r="L8" s="256"/>
       <c r="M8" s="130"/>
       <c r="N8" s="70"/>
       <c r="O8" s="70"/>
@@ -9635,21 +9638,21 @@
       <c r="C9" s="153" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="246" t="s">
+      <c r="D9" s="260" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="239"/>
-      <c r="F9" s="247"/>
-      <c r="G9" s="238" t="s">
+      <c r="E9" s="245"/>
+      <c r="F9" s="246"/>
+      <c r="G9" s="244" t="s">
         <v>116</v>
       </c>
-      <c r="H9" s="239"/>
-      <c r="I9" s="247"/>
-      <c r="J9" s="238" t="s">
+      <c r="H9" s="245"/>
+      <c r="I9" s="246"/>
+      <c r="J9" s="244" t="s">
         <v>118</v>
       </c>
-      <c r="K9" s="239"/>
-      <c r="L9" s="240"/>
+      <c r="K9" s="245"/>
+      <c r="L9" s="257"/>
       <c r="M9" s="130"/>
       <c r="N9" s="70"/>
       <c r="O9" s="70"/>
@@ -9679,21 +9682,21 @@
       <c r="C10" s="154" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="248" t="s">
+      <c r="D10" s="261" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="249"/>
-      <c r="F10" s="250"/>
-      <c r="G10" s="255" t="s">
+      <c r="E10" s="248"/>
+      <c r="F10" s="249"/>
+      <c r="G10" s="247" t="s">
         <v>116</v>
       </c>
-      <c r="H10" s="249"/>
-      <c r="I10" s="250"/>
-      <c r="J10" s="229" t="s">
+      <c r="H10" s="248"/>
+      <c r="I10" s="249"/>
+      <c r="J10" s="250" t="s">
         <v>118</v>
       </c>
-      <c r="K10" s="230"/>
-      <c r="L10" s="231"/>
+      <c r="K10" s="251"/>
+      <c r="L10" s="252"/>
       <c r="M10" s="131"/>
       <c r="N10" s="125"/>
       <c r="O10" s="125"/>
@@ -9723,13 +9726,10 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:AG2"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="G9:I9"/>
@@ -9738,10 +9738,13 @@
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="J9:L9"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:AG2"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9767,54 +9770,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="43.05" customHeight="1">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="218" t="str">
+      <c r="B1" s="209"/>
+      <c r="C1" s="212" t="str">
         <f>表紙!C7</f>
         <v>プロジェクト名</v>
       </c>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
-      <c r="L1" s="219"/>
-      <c r="M1" s="220"/>
-      <c r="N1" s="220"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
       <c r="O1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="225"/>
+      <c r="P1" s="218"/>
+      <c r="Q1" s="219"/>
     </row>
     <row r="2" spans="1:17" ht="43.05" customHeight="1" thickBot="1">
-      <c r="A2" s="216"/>
-      <c r="B2" s="217"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="222"/>
-      <c r="M2" s="223"/>
-      <c r="N2" s="223"/>
+      <c r="A2" s="210"/>
+      <c r="B2" s="211"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="217"/>
       <c r="O2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="226">
+      <c r="P2" s="220">
         <f ca="1">NOW()</f>
-        <v>44836.832805208331</v>
-      </c>
-      <c r="Q2" s="227"/>
+        <v>44836.836932523147</v>
+      </c>
+      <c r="Q2" s="221"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="8"/>
@@ -9823,18 +9826,18 @@
     <row r="4" spans="1:17" ht="25.8">
       <c r="A4" s="57"/>
       <c r="B4" s="112"/>
-      <c r="C4" s="274"/>
-      <c r="D4" s="274"/>
-      <c r="E4" s="274"/>
-      <c r="F4" s="274"/>
-      <c r="G4" s="274"/>
-      <c r="H4" s="274"/>
-      <c r="I4" s="274"/>
-      <c r="J4" s="274"/>
-      <c r="K4" s="274"/>
-      <c r="L4" s="274"/>
-      <c r="M4" s="274"/>
-      <c r="N4" s="274"/>
+      <c r="C4" s="262"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="262"/>
+      <c r="F4" s="262"/>
+      <c r="G4" s="262"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="262"/>
+      <c r="J4" s="262"/>
+      <c r="K4" s="262"/>
+      <c r="L4" s="262"/>
+      <c r="M4" s="262"/>
+      <c r="N4" s="262"/>
       <c r="O4" s="113"/>
       <c r="P4" s="113"/>
       <c r="Q4" s="9"/>
@@ -9842,20 +9845,20 @@
     <row r="5" spans="1:17" s="2" customFormat="1" ht="32.4">
       <c r="A5" s="42"/>
       <c r="B5" s="112"/>
-      <c r="C5" s="272" t="s">
+      <c r="C5" s="265" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="272"/>
-      <c r="E5" s="272"/>
-      <c r="F5" s="272"/>
-      <c r="G5" s="271"/>
-      <c r="H5" s="271"/>
-      <c r="I5" s="271"/>
-      <c r="J5" s="271"/>
-      <c r="K5" s="271"/>
-      <c r="L5" s="271"/>
-      <c r="M5" s="271"/>
-      <c r="N5" s="271"/>
+      <c r="D5" s="265"/>
+      <c r="E5" s="265"/>
+      <c r="F5" s="265"/>
+      <c r="G5" s="266"/>
+      <c r="H5" s="266"/>
+      <c r="I5" s="266"/>
+      <c r="J5" s="266"/>
+      <c r="K5" s="266"/>
+      <c r="L5" s="266"/>
+      <c r="M5" s="266"/>
+      <c r="N5" s="266"/>
       <c r="O5" s="114"/>
       <c r="P5" s="114"/>
       <c r="Q5" s="43"/>
@@ -9863,65 +9866,65 @@
     <row r="6" spans="1:17" ht="32.4">
       <c r="A6" s="44"/>
       <c r="B6" s="112"/>
-      <c r="C6" s="270" t="s">
+      <c r="C6" s="267" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="270"/>
-      <c r="E6" s="270"/>
-      <c r="F6" s="270"/>
-      <c r="G6" s="271"/>
-      <c r="H6" s="271"/>
-      <c r="I6" s="271"/>
-      <c r="J6" s="271"/>
-      <c r="K6" s="271"/>
-      <c r="L6" s="271"/>
-      <c r="M6" s="271"/>
-      <c r="N6" s="271"/>
+      <c r="D6" s="267"/>
+      <c r="E6" s="267"/>
+      <c r="F6" s="267"/>
+      <c r="G6" s="266"/>
+      <c r="H6" s="266"/>
+      <c r="I6" s="266"/>
+      <c r="J6" s="266"/>
+      <c r="K6" s="266"/>
+      <c r="L6" s="266"/>
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
       <c r="O6" s="114"/>
       <c r="P6" s="114"/>
       <c r="Q6" s="43"/>
     </row>
-    <row r="7" spans="1:17" s="265" customFormat="1" ht="25.8">
-      <c r="A7" s="264" t="s">
+    <row r="7" spans="1:17" s="269" customFormat="1" ht="25.8">
+      <c r="A7" s="268" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="262" customFormat="1" ht="25.8">
-      <c r="A8" s="262" t="s">
+    <row r="8" spans="1:17" s="263" customFormat="1" ht="25.8">
+      <c r="A8" s="263" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="263"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
-      <c r="G8" s="263"/>
-      <c r="H8" s="263"/>
-      <c r="I8" s="263"/>
-      <c r="J8" s="263"/>
-      <c r="K8" s="263"/>
-      <c r="L8" s="263"/>
-      <c r="M8" s="263"/>
-      <c r="N8" s="263"/>
-      <c r="O8" s="263"/>
-      <c r="P8" s="263"/>
-      <c r="Q8" s="263"/>
+      <c r="B8" s="264"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264"/>
+      <c r="G8" s="264"/>
+      <c r="H8" s="264"/>
+      <c r="I8" s="264"/>
+      <c r="J8" s="264"/>
+      <c r="K8" s="264"/>
+      <c r="L8" s="264"/>
+      <c r="M8" s="264"/>
+      <c r="N8" s="264"/>
+      <c r="O8" s="264"/>
+      <c r="P8" s="264"/>
+      <c r="Q8" s="264"/>
     </row>
     <row r="9" spans="1:17" ht="32.4">
       <c r="A9" s="44"/>
       <c r="B9" s="112"/>
-      <c r="C9" s="271"/>
-      <c r="D9" s="271"/>
-      <c r="E9" s="271"/>
-      <c r="F9" s="271"/>
-      <c r="G9" s="271"/>
-      <c r="H9" s="271"/>
-      <c r="I9" s="271"/>
-      <c r="J9" s="271"/>
-      <c r="K9" s="271"/>
-      <c r="L9" s="271"/>
-      <c r="M9" s="271"/>
-      <c r="N9" s="271"/>
+      <c r="C9" s="266"/>
+      <c r="D9" s="266"/>
+      <c r="E9" s="266"/>
+      <c r="F9" s="266"/>
+      <c r="G9" s="266"/>
+      <c r="H9" s="266"/>
+      <c r="I9" s="266"/>
+      <c r="J9" s="266"/>
+      <c r="K9" s="266"/>
+      <c r="L9" s="266"/>
+      <c r="M9" s="266"/>
+      <c r="N9" s="266"/>
       <c r="O9" s="114"/>
       <c r="P9" s="114"/>
       <c r="Q9" s="43"/>
@@ -9929,18 +9932,18 @@
     <row r="10" spans="1:17" ht="32.4">
       <c r="A10" s="44"/>
       <c r="B10" s="112"/>
-      <c r="C10" s="271"/>
-      <c r="D10" s="271"/>
-      <c r="E10" s="271"/>
-      <c r="F10" s="271"/>
-      <c r="G10" s="271"/>
-      <c r="H10" s="271"/>
-      <c r="I10" s="271"/>
-      <c r="J10" s="271"/>
-      <c r="K10" s="271"/>
-      <c r="L10" s="271"/>
-      <c r="M10" s="271"/>
-      <c r="N10" s="271"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="266"/>
+      <c r="G10" s="266"/>
+      <c r="H10" s="266"/>
+      <c r="I10" s="266"/>
+      <c r="J10" s="266"/>
+      <c r="K10" s="266"/>
+      <c r="L10" s="266"/>
+      <c r="M10" s="266"/>
+      <c r="N10" s="266"/>
       <c r="O10" s="114"/>
       <c r="P10" s="114"/>
       <c r="Q10" s="43"/>
@@ -9948,65 +9951,65 @@
     <row r="11" spans="1:17" ht="32.4">
       <c r="A11" s="44"/>
       <c r="B11" s="112"/>
-      <c r="C11" s="270" t="s">
+      <c r="C11" s="267" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="270"/>
-      <c r="E11" s="270"/>
-      <c r="F11" s="270"/>
-      <c r="G11" s="271"/>
-      <c r="H11" s="271"/>
-      <c r="I11" s="271"/>
-      <c r="J11" s="271"/>
-      <c r="K11" s="271"/>
-      <c r="L11" s="271"/>
-      <c r="M11" s="271"/>
-      <c r="N11" s="271"/>
+      <c r="D11" s="267"/>
+      <c r="E11" s="267"/>
+      <c r="F11" s="267"/>
+      <c r="G11" s="266"/>
+      <c r="H11" s="266"/>
+      <c r="I11" s="266"/>
+      <c r="J11" s="266"/>
+      <c r="K11" s="266"/>
+      <c r="L11" s="266"/>
+      <c r="M11" s="266"/>
+      <c r="N11" s="266"/>
       <c r="O11" s="114"/>
       <c r="P11" s="114"/>
       <c r="Q11" s="43"/>
     </row>
-    <row r="12" spans="1:17" s="265" customFormat="1" ht="25.8">
-      <c r="A12" s="264" t="s">
+    <row r="12" spans="1:17" s="269" customFormat="1" ht="25.8">
+      <c r="A12" s="268" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="267" customFormat="1" ht="32.4">
-      <c r="A13" s="262" t="s">
+    <row r="13" spans="1:17" s="270" customFormat="1" ht="32.4">
+      <c r="A13" s="263" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="266"/>
-      <c r="C13" s="266"/>
-      <c r="D13" s="266"/>
-      <c r="E13" s="266"/>
-      <c r="F13" s="266"/>
-      <c r="G13" s="266"/>
-      <c r="H13" s="266"/>
-      <c r="I13" s="266"/>
-      <c r="J13" s="266"/>
-      <c r="K13" s="266"/>
-      <c r="L13" s="266"/>
-      <c r="M13" s="266"/>
-      <c r="N13" s="266"/>
-      <c r="O13" s="266"/>
-      <c r="P13" s="266"/>
-      <c r="Q13" s="266"/>
+      <c r="B13" s="271"/>
+      <c r="C13" s="271"/>
+      <c r="D13" s="271"/>
+      <c r="E13" s="271"/>
+      <c r="F13" s="271"/>
+      <c r="G13" s="271"/>
+      <c r="H13" s="271"/>
+      <c r="I13" s="271"/>
+      <c r="J13" s="271"/>
+      <c r="K13" s="271"/>
+      <c r="L13" s="271"/>
+      <c r="M13" s="271"/>
+      <c r="N13" s="271"/>
+      <c r="O13" s="271"/>
+      <c r="P13" s="271"/>
+      <c r="Q13" s="271"/>
     </row>
     <row r="14" spans="1:17" ht="32.4">
       <c r="A14" s="44"/>
       <c r="B14" s="112"/>
-      <c r="C14" s="271"/>
-      <c r="D14" s="271"/>
-      <c r="E14" s="271"/>
-      <c r="F14" s="271"/>
-      <c r="G14" s="271"/>
-      <c r="H14" s="271"/>
-      <c r="I14" s="271"/>
-      <c r="J14" s="271"/>
-      <c r="K14" s="271"/>
-      <c r="L14" s="271"/>
-      <c r="M14" s="271"/>
-      <c r="N14" s="271"/>
+      <c r="C14" s="266"/>
+      <c r="D14" s="266"/>
+      <c r="E14" s="266"/>
+      <c r="F14" s="266"/>
+      <c r="G14" s="266"/>
+      <c r="H14" s="266"/>
+      <c r="I14" s="266"/>
+      <c r="J14" s="266"/>
+      <c r="K14" s="266"/>
+      <c r="L14" s="266"/>
+      <c r="M14" s="266"/>
+      <c r="N14" s="266"/>
       <c r="O14" s="114"/>
       <c r="P14" s="114"/>
       <c r="Q14" s="43"/>
@@ -10014,18 +10017,18 @@
     <row r="15" spans="1:17" ht="32.4">
       <c r="A15" s="44"/>
       <c r="B15" s="112"/>
-      <c r="C15" s="271"/>
-      <c r="D15" s="271"/>
-      <c r="E15" s="271"/>
-      <c r="F15" s="271"/>
-      <c r="G15" s="271"/>
-      <c r="H15" s="271"/>
-      <c r="I15" s="271"/>
-      <c r="J15" s="271"/>
-      <c r="K15" s="271"/>
-      <c r="L15" s="271"/>
-      <c r="M15" s="271"/>
-      <c r="N15" s="271"/>
+      <c r="C15" s="266"/>
+      <c r="D15" s="266"/>
+      <c r="E15" s="266"/>
+      <c r="F15" s="266"/>
+      <c r="G15" s="266"/>
+      <c r="H15" s="266"/>
+      <c r="I15" s="266"/>
+      <c r="J15" s="266"/>
+      <c r="K15" s="266"/>
+      <c r="L15" s="266"/>
+      <c r="M15" s="266"/>
+      <c r="N15" s="266"/>
       <c r="O15" s="114"/>
       <c r="P15" s="114"/>
       <c r="Q15" s="43"/>
@@ -10051,81 +10054,81 @@
       <c r="P16" s="114"/>
       <c r="Q16" s="43"/>
     </row>
-    <row r="17" spans="1:17" s="268" customFormat="1" ht="25.8">
-      <c r="A17" s="268" t="s">
+    <row r="17" spans="1:17" s="273" customFormat="1" ht="25.8">
+      <c r="A17" s="273" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="269"/>
-      <c r="C17" s="269"/>
-      <c r="D17" s="269"/>
-      <c r="E17" s="269"/>
-      <c r="F17" s="269"/>
-      <c r="G17" s="269"/>
-      <c r="H17" s="269"/>
-      <c r="I17" s="269"/>
-      <c r="J17" s="269"/>
-      <c r="K17" s="269"/>
-      <c r="L17" s="269"/>
-      <c r="M17" s="269"/>
-      <c r="N17" s="269"/>
-      <c r="O17" s="269"/>
-      <c r="P17" s="269"/>
-      <c r="Q17" s="269"/>
-    </row>
-    <row r="18" spans="1:17" s="262" customFormat="1" ht="40.799999999999997" customHeight="1">
-      <c r="A18" s="262" t="s">
+      <c r="B17" s="274"/>
+      <c r="C17" s="274"/>
+      <c r="D17" s="274"/>
+      <c r="E17" s="274"/>
+      <c r="F17" s="274"/>
+      <c r="G17" s="274"/>
+      <c r="H17" s="274"/>
+      <c r="I17" s="274"/>
+      <c r="J17" s="274"/>
+      <c r="K17" s="274"/>
+      <c r="L17" s="274"/>
+      <c r="M17" s="274"/>
+      <c r="N17" s="274"/>
+      <c r="O17" s="274"/>
+      <c r="P17" s="274"/>
+      <c r="Q17" s="274"/>
+    </row>
+    <row r="18" spans="1:17" s="263" customFormat="1" ht="40.799999999999997" customHeight="1">
+      <c r="A18" s="263" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="263"/>
-      <c r="C18" s="263"/>
-      <c r="D18" s="263"/>
-      <c r="E18" s="263"/>
-      <c r="F18" s="263"/>
-      <c r="G18" s="263"/>
-      <c r="H18" s="263"/>
-      <c r="I18" s="263"/>
-      <c r="J18" s="263"/>
-      <c r="K18" s="263"/>
-      <c r="L18" s="263"/>
-      <c r="M18" s="263"/>
-      <c r="N18" s="263"/>
-      <c r="O18" s="263"/>
-      <c r="P18" s="263"/>
-      <c r="Q18" s="263"/>
-    </row>
-    <row r="19" spans="1:17" s="267" customFormat="1" ht="32.4">
-      <c r="B19" s="266"/>
-      <c r="C19" s="266"/>
-      <c r="D19" s="266"/>
-      <c r="E19" s="266"/>
-      <c r="F19" s="266"/>
-      <c r="G19" s="266"/>
-      <c r="H19" s="266"/>
-      <c r="I19" s="266"/>
-      <c r="J19" s="266"/>
-      <c r="K19" s="266"/>
-      <c r="L19" s="266"/>
-      <c r="M19" s="266"/>
-      <c r="N19" s="266"/>
-      <c r="O19" s="266"/>
-      <c r="P19" s="266"/>
-      <c r="Q19" s="266"/>
+      <c r="B18" s="264"/>
+      <c r="C18" s="264"/>
+      <c r="D18" s="264"/>
+      <c r="E18" s="264"/>
+      <c r="F18" s="264"/>
+      <c r="G18" s="264"/>
+      <c r="H18" s="264"/>
+      <c r="I18" s="264"/>
+      <c r="J18" s="264"/>
+      <c r="K18" s="264"/>
+      <c r="L18" s="264"/>
+      <c r="M18" s="264"/>
+      <c r="N18" s="264"/>
+      <c r="O18" s="264"/>
+      <c r="P18" s="264"/>
+      <c r="Q18" s="264"/>
+    </row>
+    <row r="19" spans="1:17" s="270" customFormat="1" ht="32.4">
+      <c r="B19" s="271"/>
+      <c r="C19" s="271"/>
+      <c r="D19" s="271"/>
+      <c r="E19" s="271"/>
+      <c r="F19" s="271"/>
+      <c r="G19" s="271"/>
+      <c r="H19" s="271"/>
+      <c r="I19" s="271"/>
+      <c r="J19" s="271"/>
+      <c r="K19" s="271"/>
+      <c r="L19" s="271"/>
+      <c r="M19" s="271"/>
+      <c r="N19" s="271"/>
+      <c r="O19" s="271"/>
+      <c r="P19" s="271"/>
+      <c r="Q19" s="271"/>
     </row>
     <row r="20" spans="1:17" ht="32.4">
       <c r="A20" s="44"/>
       <c r="B20" s="115"/>
-      <c r="C20" s="271"/>
-      <c r="D20" s="271"/>
-      <c r="E20" s="271"/>
-      <c r="F20" s="271"/>
-      <c r="G20" s="271"/>
-      <c r="H20" s="271"/>
-      <c r="I20" s="271"/>
-      <c r="J20" s="271"/>
-      <c r="K20" s="271"/>
-      <c r="L20" s="271"/>
-      <c r="M20" s="271"/>
-      <c r="N20" s="271"/>
+      <c r="C20" s="266"/>
+      <c r="D20" s="266"/>
+      <c r="E20" s="266"/>
+      <c r="F20" s="266"/>
+      <c r="G20" s="266"/>
+      <c r="H20" s="266"/>
+      <c r="I20" s="266"/>
+      <c r="J20" s="266"/>
+      <c r="K20" s="266"/>
+      <c r="L20" s="266"/>
+      <c r="M20" s="266"/>
+      <c r="N20" s="266"/>
       <c r="O20" s="114"/>
       <c r="P20" s="114"/>
       <c r="Q20" s="43"/>
@@ -10133,22 +10136,22 @@
     <row r="21" spans="1:17" ht="32.4">
       <c r="A21" s="44"/>
       <c r="B21" s="115"/>
-      <c r="C21" s="272" t="s">
+      <c r="C21" s="265" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="272"/>
-      <c r="E21" s="272"/>
-      <c r="F21" s="272"/>
-      <c r="G21" s="273" t="s">
+      <c r="D21" s="265"/>
+      <c r="E21" s="265"/>
+      <c r="F21" s="265"/>
+      <c r="G21" s="272" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="273"/>
-      <c r="I21" s="273"/>
-      <c r="J21" s="273"/>
-      <c r="K21" s="273"/>
-      <c r="L21" s="273"/>
-      <c r="M21" s="273"/>
-      <c r="N21" s="273"/>
+      <c r="H21" s="272"/>
+      <c r="I21" s="272"/>
+      <c r="J21" s="272"/>
+      <c r="K21" s="272"/>
+      <c r="L21" s="272"/>
+      <c r="M21" s="272"/>
+      <c r="N21" s="272"/>
       <c r="O21" s="114"/>
       <c r="P21" s="114"/>
       <c r="Q21" s="43"/>
@@ -10198,18 +10201,18 @@
     <row r="24" spans="1:17" ht="32.4">
       <c r="A24" s="44"/>
       <c r="B24" s="115"/>
-      <c r="C24" s="271"/>
-      <c r="D24" s="271"/>
-      <c r="E24" s="271"/>
-      <c r="F24" s="271"/>
-      <c r="G24" s="271"/>
-      <c r="H24" s="271"/>
-      <c r="I24" s="271"/>
-      <c r="J24" s="271"/>
-      <c r="K24" s="271"/>
-      <c r="L24" s="271"/>
-      <c r="M24" s="271"/>
-      <c r="N24" s="271"/>
+      <c r="C24" s="266"/>
+      <c r="D24" s="266"/>
+      <c r="E24" s="266"/>
+      <c r="F24" s="266"/>
+      <c r="G24" s="266"/>
+      <c r="H24" s="266"/>
+      <c r="I24" s="266"/>
+      <c r="J24" s="266"/>
+      <c r="K24" s="266"/>
+      <c r="L24" s="266"/>
+      <c r="M24" s="266"/>
+      <c r="N24" s="266"/>
       <c r="O24" s="114"/>
       <c r="P24" s="114"/>
       <c r="Q24" s="43"/>
@@ -10217,18 +10220,18 @@
     <row r="25" spans="1:17" ht="32.4">
       <c r="A25" s="44"/>
       <c r="B25" s="115"/>
-      <c r="C25" s="271"/>
-      <c r="D25" s="271"/>
-      <c r="E25" s="271"/>
-      <c r="F25" s="271"/>
-      <c r="G25" s="271"/>
-      <c r="H25" s="271"/>
-      <c r="I25" s="271"/>
-      <c r="J25" s="271"/>
-      <c r="K25" s="271"/>
-      <c r="L25" s="271"/>
-      <c r="M25" s="271"/>
-      <c r="N25" s="271"/>
+      <c r="C25" s="266"/>
+      <c r="D25" s="266"/>
+      <c r="E25" s="266"/>
+      <c r="F25" s="266"/>
+      <c r="G25" s="266"/>
+      <c r="H25" s="266"/>
+      <c r="I25" s="266"/>
+      <c r="J25" s="266"/>
+      <c r="K25" s="266"/>
+      <c r="L25" s="266"/>
+      <c r="M25" s="266"/>
+      <c r="N25" s="266"/>
       <c r="O25" s="114"/>
       <c r="P25" s="114"/>
       <c r="Q25" s="43"/>
@@ -10236,18 +10239,18 @@
     <row r="26" spans="1:17" ht="32.4">
       <c r="A26" s="44"/>
       <c r="B26" s="115"/>
-      <c r="C26" s="271"/>
-      <c r="D26" s="271"/>
-      <c r="E26" s="271"/>
-      <c r="F26" s="271"/>
-      <c r="G26" s="271"/>
-      <c r="H26" s="271"/>
-      <c r="I26" s="271"/>
-      <c r="J26" s="271"/>
-      <c r="K26" s="271"/>
-      <c r="L26" s="271"/>
-      <c r="M26" s="271"/>
-      <c r="N26" s="271"/>
+      <c r="C26" s="266"/>
+      <c r="D26" s="266"/>
+      <c r="E26" s="266"/>
+      <c r="F26" s="266"/>
+      <c r="G26" s="266"/>
+      <c r="H26" s="266"/>
+      <c r="I26" s="266"/>
+      <c r="J26" s="266"/>
+      <c r="K26" s="266"/>
+      <c r="L26" s="266"/>
+      <c r="M26" s="266"/>
+      <c r="N26" s="266"/>
       <c r="O26" s="114"/>
       <c r="P26" s="114"/>
       <c r="Q26" s="43"/>
@@ -10255,18 +10258,18 @@
     <row r="27" spans="1:17" ht="32.4">
       <c r="A27" s="44"/>
       <c r="B27" s="115"/>
-      <c r="C27" s="271"/>
-      <c r="D27" s="271"/>
-      <c r="E27" s="271"/>
-      <c r="F27" s="271"/>
-      <c r="G27" s="271"/>
-      <c r="H27" s="271"/>
-      <c r="I27" s="271"/>
-      <c r="J27" s="271"/>
-      <c r="K27" s="271"/>
-      <c r="L27" s="271"/>
-      <c r="M27" s="271"/>
-      <c r="N27" s="271"/>
+      <c r="C27" s="266"/>
+      <c r="D27" s="266"/>
+      <c r="E27" s="266"/>
+      <c r="F27" s="266"/>
+      <c r="G27" s="266"/>
+      <c r="H27" s="266"/>
+      <c r="I27" s="266"/>
+      <c r="J27" s="266"/>
+      <c r="K27" s="266"/>
+      <c r="L27" s="266"/>
+      <c r="M27" s="266"/>
+      <c r="N27" s="266"/>
       <c r="O27" s="114"/>
       <c r="P27" s="114"/>
       <c r="Q27" s="43"/>
@@ -10274,18 +10277,18 @@
     <row r="28" spans="1:17" ht="32.4">
       <c r="A28" s="44"/>
       <c r="B28" s="115"/>
-      <c r="C28" s="271"/>
-      <c r="D28" s="271"/>
-      <c r="E28" s="271"/>
-      <c r="F28" s="271"/>
-      <c r="G28" s="271"/>
-      <c r="H28" s="271"/>
-      <c r="I28" s="271"/>
-      <c r="J28" s="271"/>
-      <c r="K28" s="271"/>
-      <c r="L28" s="271"/>
-      <c r="M28" s="271"/>
-      <c r="N28" s="271"/>
+      <c r="C28" s="266"/>
+      <c r="D28" s="266"/>
+      <c r="E28" s="266"/>
+      <c r="F28" s="266"/>
+      <c r="G28" s="266"/>
+      <c r="H28" s="266"/>
+      <c r="I28" s="266"/>
+      <c r="J28" s="266"/>
+      <c r="K28" s="266"/>
+      <c r="L28" s="266"/>
+      <c r="M28" s="266"/>
+      <c r="N28" s="266"/>
       <c r="O28" s="114"/>
       <c r="P28" s="114"/>
       <c r="Q28" s="43"/>
@@ -10293,18 +10296,18 @@
     <row r="29" spans="1:17" ht="32.4">
       <c r="A29" s="44"/>
       <c r="B29" s="115"/>
-      <c r="C29" s="270"/>
-      <c r="D29" s="270"/>
-      <c r="E29" s="270"/>
-      <c r="F29" s="270"/>
-      <c r="G29" s="271"/>
-      <c r="H29" s="271"/>
-      <c r="I29" s="271"/>
-      <c r="J29" s="271"/>
-      <c r="K29" s="271"/>
-      <c r="L29" s="271"/>
-      <c r="M29" s="271"/>
-      <c r="N29" s="271"/>
+      <c r="C29" s="267"/>
+      <c r="D29" s="267"/>
+      <c r="E29" s="267"/>
+      <c r="F29" s="267"/>
+      <c r="G29" s="266"/>
+      <c r="H29" s="266"/>
+      <c r="I29" s="266"/>
+      <c r="J29" s="266"/>
+      <c r="K29" s="266"/>
+      <c r="L29" s="266"/>
+      <c r="M29" s="266"/>
+      <c r="N29" s="266"/>
       <c r="O29" s="114"/>
       <c r="P29" s="114"/>
       <c r="Q29" s="43"/>
@@ -10312,18 +10315,18 @@
     <row r="30" spans="1:17" ht="32.4">
       <c r="A30" s="44"/>
       <c r="B30" s="115"/>
-      <c r="C30" s="271"/>
-      <c r="D30" s="271"/>
-      <c r="E30" s="271"/>
-      <c r="F30" s="271"/>
-      <c r="G30" s="271"/>
-      <c r="H30" s="271"/>
-      <c r="I30" s="271"/>
-      <c r="J30" s="271"/>
-      <c r="K30" s="271"/>
-      <c r="L30" s="271"/>
-      <c r="M30" s="271"/>
-      <c r="N30" s="271"/>
+      <c r="C30" s="266"/>
+      <c r="D30" s="266"/>
+      <c r="E30" s="266"/>
+      <c r="F30" s="266"/>
+      <c r="G30" s="266"/>
+      <c r="H30" s="266"/>
+      <c r="I30" s="266"/>
+      <c r="J30" s="266"/>
+      <c r="K30" s="266"/>
+      <c r="L30" s="266"/>
+      <c r="M30" s="266"/>
+      <c r="N30" s="266"/>
       <c r="O30" s="114"/>
       <c r="P30" s="114"/>
       <c r="Q30" s="43"/>
@@ -10331,18 +10334,18 @@
     <row r="31" spans="1:17" ht="32.4">
       <c r="A31" s="44"/>
       <c r="B31" s="115"/>
-      <c r="C31" s="271"/>
-      <c r="D31" s="271"/>
-      <c r="E31" s="271"/>
-      <c r="F31" s="271"/>
-      <c r="G31" s="271"/>
-      <c r="H31" s="271"/>
-      <c r="I31" s="271"/>
-      <c r="J31" s="271"/>
-      <c r="K31" s="271"/>
-      <c r="L31" s="271"/>
-      <c r="M31" s="271"/>
-      <c r="N31" s="271"/>
+      <c r="C31" s="266"/>
+      <c r="D31" s="266"/>
+      <c r="E31" s="266"/>
+      <c r="F31" s="266"/>
+      <c r="G31" s="266"/>
+      <c r="H31" s="266"/>
+      <c r="I31" s="266"/>
+      <c r="J31" s="266"/>
+      <c r="K31" s="266"/>
+      <c r="L31" s="266"/>
+      <c r="M31" s="266"/>
+      <c r="N31" s="266"/>
       <c r="O31" s="114"/>
       <c r="P31" s="114"/>
       <c r="Q31" s="43"/>
@@ -10350,18 +10353,18 @@
     <row r="32" spans="1:17" ht="32.4">
       <c r="A32" s="44"/>
       <c r="B32" s="115"/>
-      <c r="C32" s="271"/>
-      <c r="D32" s="271"/>
-      <c r="E32" s="271"/>
-      <c r="F32" s="271"/>
-      <c r="G32" s="271"/>
-      <c r="H32" s="271"/>
-      <c r="I32" s="271"/>
-      <c r="J32" s="271"/>
-      <c r="K32" s="271"/>
-      <c r="L32" s="271"/>
-      <c r="M32" s="271"/>
-      <c r="N32" s="271"/>
+      <c r="C32" s="266"/>
+      <c r="D32" s="266"/>
+      <c r="E32" s="266"/>
+      <c r="F32" s="266"/>
+      <c r="G32" s="266"/>
+      <c r="H32" s="266"/>
+      <c r="I32" s="266"/>
+      <c r="J32" s="266"/>
+      <c r="K32" s="266"/>
+      <c r="L32" s="266"/>
+      <c r="M32" s="266"/>
+      <c r="N32" s="266"/>
       <c r="O32" s="114"/>
       <c r="P32" s="114"/>
       <c r="Q32" s="43"/>
@@ -10369,18 +10372,18 @@
     <row r="33" spans="1:17" ht="32.4">
       <c r="A33" s="44"/>
       <c r="B33" s="115"/>
-      <c r="C33" s="271"/>
-      <c r="D33" s="271"/>
-      <c r="E33" s="271"/>
-      <c r="F33" s="271"/>
-      <c r="G33" s="271"/>
-      <c r="H33" s="271"/>
-      <c r="I33" s="271"/>
-      <c r="J33" s="271"/>
-      <c r="K33" s="271"/>
-      <c r="L33" s="271"/>
-      <c r="M33" s="271"/>
-      <c r="N33" s="271"/>
+      <c r="C33" s="266"/>
+      <c r="D33" s="266"/>
+      <c r="E33" s="266"/>
+      <c r="F33" s="266"/>
+      <c r="G33" s="266"/>
+      <c r="H33" s="266"/>
+      <c r="I33" s="266"/>
+      <c r="J33" s="266"/>
+      <c r="K33" s="266"/>
+      <c r="L33" s="266"/>
+      <c r="M33" s="266"/>
+      <c r="N33" s="266"/>
       <c r="O33" s="114"/>
       <c r="P33" s="114"/>
       <c r="Q33" s="43"/>
@@ -10388,18 +10391,18 @@
     <row r="34" spans="1:17" ht="32.4">
       <c r="A34" s="44"/>
       <c r="B34" s="115"/>
-      <c r="C34" s="271"/>
-      <c r="D34" s="271"/>
-      <c r="E34" s="271"/>
-      <c r="F34" s="271"/>
-      <c r="G34" s="271"/>
-      <c r="H34" s="271"/>
-      <c r="I34" s="271"/>
-      <c r="J34" s="271"/>
-      <c r="K34" s="271"/>
-      <c r="L34" s="271"/>
-      <c r="M34" s="271"/>
-      <c r="N34" s="271"/>
+      <c r="C34" s="266"/>
+      <c r="D34" s="266"/>
+      <c r="E34" s="266"/>
+      <c r="F34" s="266"/>
+      <c r="G34" s="266"/>
+      <c r="H34" s="266"/>
+      <c r="I34" s="266"/>
+      <c r="J34" s="266"/>
+      <c r="K34" s="266"/>
+      <c r="L34" s="266"/>
+      <c r="M34" s="266"/>
+      <c r="N34" s="266"/>
       <c r="O34" s="114"/>
       <c r="P34" s="114"/>
       <c r="Q34" s="43"/>
@@ -10407,18 +10410,18 @@
     <row r="35" spans="1:17" ht="32.4">
       <c r="A35" s="44"/>
       <c r="B35" s="115"/>
-      <c r="C35" s="271"/>
-      <c r="D35" s="271"/>
-      <c r="E35" s="271"/>
-      <c r="F35" s="271"/>
-      <c r="G35" s="271"/>
-      <c r="H35" s="271"/>
-      <c r="I35" s="271"/>
-      <c r="J35" s="271"/>
-      <c r="K35" s="271"/>
-      <c r="L35" s="271"/>
-      <c r="M35" s="271"/>
-      <c r="N35" s="271"/>
+      <c r="C35" s="266"/>
+      <c r="D35" s="266"/>
+      <c r="E35" s="266"/>
+      <c r="F35" s="266"/>
+      <c r="G35" s="266"/>
+      <c r="H35" s="266"/>
+      <c r="I35" s="266"/>
+      <c r="J35" s="266"/>
+      <c r="K35" s="266"/>
+      <c r="L35" s="266"/>
+      <c r="M35" s="266"/>
+      <c r="N35" s="266"/>
       <c r="O35" s="114"/>
       <c r="P35" s="114"/>
       <c r="Q35" s="43"/>
@@ -10426,18 +10429,18 @@
     <row r="36" spans="1:17" ht="32.4">
       <c r="A36" s="44"/>
       <c r="B36" s="115"/>
-      <c r="C36" s="271"/>
-      <c r="D36" s="271"/>
-      <c r="E36" s="271"/>
-      <c r="F36" s="271"/>
-      <c r="G36" s="271"/>
-      <c r="H36" s="271"/>
-      <c r="I36" s="271"/>
-      <c r="J36" s="271"/>
-      <c r="K36" s="271"/>
-      <c r="L36" s="271"/>
-      <c r="M36" s="271"/>
-      <c r="N36" s="271"/>
+      <c r="C36" s="266"/>
+      <c r="D36" s="266"/>
+      <c r="E36" s="266"/>
+      <c r="F36" s="266"/>
+      <c r="G36" s="266"/>
+      <c r="H36" s="266"/>
+      <c r="I36" s="266"/>
+      <c r="J36" s="266"/>
+      <c r="K36" s="266"/>
+      <c r="L36" s="266"/>
+      <c r="M36" s="266"/>
+      <c r="N36" s="266"/>
       <c r="O36" s="114"/>
       <c r="P36" s="114"/>
       <c r="Q36" s="43"/>
@@ -10445,18 +10448,18 @@
     <row r="37" spans="1:17" ht="32.4">
       <c r="A37" s="44"/>
       <c r="B37" s="115"/>
-      <c r="C37" s="271"/>
-      <c r="D37" s="271"/>
-      <c r="E37" s="271"/>
-      <c r="F37" s="271"/>
-      <c r="G37" s="271"/>
-      <c r="H37" s="271"/>
-      <c r="I37" s="271"/>
-      <c r="J37" s="271"/>
-      <c r="K37" s="271"/>
-      <c r="L37" s="271"/>
-      <c r="M37" s="271"/>
-      <c r="N37" s="271"/>
+      <c r="C37" s="266"/>
+      <c r="D37" s="266"/>
+      <c r="E37" s="266"/>
+      <c r="F37" s="266"/>
+      <c r="G37" s="266"/>
+      <c r="H37" s="266"/>
+      <c r="I37" s="266"/>
+      <c r="J37" s="266"/>
+      <c r="K37" s="266"/>
+      <c r="L37" s="266"/>
+      <c r="M37" s="266"/>
+      <c r="N37" s="266"/>
       <c r="O37" s="114"/>
       <c r="P37" s="114"/>
       <c r="Q37" s="43"/>
@@ -10464,18 +10467,18 @@
     <row r="38" spans="1:17" ht="32.4">
       <c r="A38" s="44"/>
       <c r="B38" s="115"/>
-      <c r="C38" s="271"/>
-      <c r="D38" s="271"/>
-      <c r="E38" s="271"/>
-      <c r="F38" s="271"/>
-      <c r="G38" s="271"/>
-      <c r="H38" s="271"/>
-      <c r="I38" s="271"/>
-      <c r="J38" s="271"/>
-      <c r="K38" s="271"/>
-      <c r="L38" s="271"/>
-      <c r="M38" s="271"/>
-      <c r="N38" s="271"/>
+      <c r="C38" s="266"/>
+      <c r="D38" s="266"/>
+      <c r="E38" s="266"/>
+      <c r="F38" s="266"/>
+      <c r="G38" s="266"/>
+      <c r="H38" s="266"/>
+      <c r="I38" s="266"/>
+      <c r="J38" s="266"/>
+      <c r="K38" s="266"/>
+      <c r="L38" s="266"/>
+      <c r="M38" s="266"/>
+      <c r="N38" s="266"/>
       <c r="O38" s="114"/>
       <c r="P38" s="114"/>
       <c r="Q38" s="43"/>
@@ -10483,18 +10486,18 @@
     <row r="39" spans="1:17" ht="32.4">
       <c r="A39" s="44"/>
       <c r="B39" s="115"/>
-      <c r="C39" s="271"/>
-      <c r="D39" s="271"/>
-      <c r="E39" s="271"/>
-      <c r="F39" s="271"/>
-      <c r="G39" s="271"/>
-      <c r="H39" s="271"/>
-      <c r="I39" s="271"/>
-      <c r="J39" s="271"/>
-      <c r="K39" s="271"/>
-      <c r="L39" s="271"/>
-      <c r="M39" s="271"/>
-      <c r="N39" s="271"/>
+      <c r="C39" s="266"/>
+      <c r="D39" s="266"/>
+      <c r="E39" s="266"/>
+      <c r="F39" s="266"/>
+      <c r="G39" s="266"/>
+      <c r="H39" s="266"/>
+      <c r="I39" s="266"/>
+      <c r="J39" s="266"/>
+      <c r="K39" s="266"/>
+      <c r="L39" s="266"/>
+      <c r="M39" s="266"/>
+      <c r="N39" s="266"/>
       <c r="O39" s="114"/>
       <c r="P39" s="114"/>
       <c r="Q39" s="43"/>
@@ -10502,18 +10505,18 @@
     <row r="40" spans="1:17" ht="32.4">
       <c r="A40" s="44"/>
       <c r="B40" s="115"/>
-      <c r="C40" s="271"/>
-      <c r="D40" s="271"/>
-      <c r="E40" s="271"/>
-      <c r="F40" s="271"/>
-      <c r="G40" s="271"/>
-      <c r="H40" s="271"/>
-      <c r="I40" s="271"/>
-      <c r="J40" s="271"/>
-      <c r="K40" s="271"/>
-      <c r="L40" s="271"/>
-      <c r="M40" s="271"/>
-      <c r="N40" s="271"/>
+      <c r="C40" s="266"/>
+      <c r="D40" s="266"/>
+      <c r="E40" s="266"/>
+      <c r="F40" s="266"/>
+      <c r="G40" s="266"/>
+      <c r="H40" s="266"/>
+      <c r="I40" s="266"/>
+      <c r="J40" s="266"/>
+      <c r="K40" s="266"/>
+      <c r="L40" s="266"/>
+      <c r="M40" s="266"/>
+      <c r="N40" s="266"/>
       <c r="O40" s="114"/>
       <c r="P40" s="114"/>
       <c r="Q40" s="43"/>
@@ -10521,18 +10524,18 @@
     <row r="41" spans="1:17" ht="32.4">
       <c r="A41" s="44"/>
       <c r="B41" s="115"/>
-      <c r="C41" s="271"/>
-      <c r="D41" s="271"/>
-      <c r="E41" s="271"/>
-      <c r="F41" s="271"/>
-      <c r="G41" s="271"/>
-      <c r="H41" s="271"/>
-      <c r="I41" s="271"/>
-      <c r="J41" s="271"/>
-      <c r="K41" s="271"/>
-      <c r="L41" s="271"/>
-      <c r="M41" s="271"/>
-      <c r="N41" s="271"/>
+      <c r="C41" s="266"/>
+      <c r="D41" s="266"/>
+      <c r="E41" s="266"/>
+      <c r="F41" s="266"/>
+      <c r="G41" s="266"/>
+      <c r="H41" s="266"/>
+      <c r="I41" s="266"/>
+      <c r="J41" s="266"/>
+      <c r="K41" s="266"/>
+      <c r="L41" s="266"/>
+      <c r="M41" s="266"/>
+      <c r="N41" s="266"/>
       <c r="O41" s="114"/>
       <c r="P41" s="114"/>
       <c r="Q41" s="43"/>
@@ -10602,6 +10605,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="A8:XFD8"/>
+    <mergeCell ref="A12:XFD12"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="A17:XFD17"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:N36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:N37"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:N41"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:N38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:N39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:N40"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:N33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:N34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:N35"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:N30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:N32"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:N28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:N29"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:N24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="A19:XFD19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:N21"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="C4:F4"/>
@@ -10618,57 +10672,6 @@
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="G15:N15"/>
     <mergeCell ref="A7:XFD7"/>
-    <mergeCell ref="A19:XFD19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:N20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:N24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:N26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:N28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:N30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:N32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:N33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:N34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:N35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:N36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:N37"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:N41"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:N38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:N39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:N40"/>
-    <mergeCell ref="A8:XFD8"/>
-    <mergeCell ref="A12:XFD12"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="A17:XFD17"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:N10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10695,54 +10698,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="43.05" customHeight="1">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="208" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="218" t="str">
+      <c r="B1" s="209"/>
+      <c r="C1" s="212" t="str">
         <f>表紙!C7</f>
         <v>プロジェクト名</v>
       </c>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
-      <c r="L1" s="219"/>
-      <c r="M1" s="220"/>
-      <c r="N1" s="220"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
       <c r="O1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="225"/>
+      <c r="P1" s="218"/>
+      <c r="Q1" s="219"/>
     </row>
     <row r="2" spans="1:17" ht="43.05" customHeight="1" thickBot="1">
-      <c r="A2" s="216"/>
-      <c r="B2" s="217"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="222"/>
-      <c r="M2" s="223"/>
-      <c r="N2" s="223"/>
+      <c r="A2" s="210"/>
+      <c r="B2" s="211"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="217"/>
       <c r="O2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="226">
+      <c r="P2" s="220">
         <f ca="1">NOW()</f>
-        <v>44836.832805208331</v>
-      </c>
-      <c r="Q2" s="227"/>
+        <v>44836.836932523147</v>
+      </c>
+      <c r="Q2" s="221"/>
     </row>
     <row r="3" spans="1:17" ht="16.2" thickBot="1">
       <c r="A3" s="8"/>
@@ -10753,24 +10756,24 @@
       <c r="B4" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="277" t="s">
+      <c r="C4" s="275" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="277" t="s">
+      <c r="D4" s="276"/>
+      <c r="E4" s="276"/>
+      <c r="F4" s="277"/>
+      <c r="G4" s="275" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="278"/>
-      <c r="I4" s="278"/>
-      <c r="J4" s="278"/>
-      <c r="K4" s="278"/>
-      <c r="L4" s="278"/>
-      <c r="M4" s="278"/>
-      <c r="N4" s="278"/>
-      <c r="O4" s="278"/>
-      <c r="P4" s="279"/>
+      <c r="H4" s="276"/>
+      <c r="I4" s="276"/>
+      <c r="J4" s="276"/>
+      <c r="K4" s="276"/>
+      <c r="L4" s="276"/>
+      <c r="M4" s="276"/>
+      <c r="N4" s="276"/>
+      <c r="O4" s="276"/>
+      <c r="P4" s="291"/>
       <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="1:17" s="2" customFormat="1" ht="32.4">
@@ -10778,24 +10781,24 @@
       <c r="B5" s="64">
         <v>1</v>
       </c>
-      <c r="C5" s="288" t="s">
+      <c r="C5" s="278" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="288"/>
-      <c r="E5" s="288"/>
-      <c r="F5" s="288"/>
-      <c r="G5" s="280" t="s">
+      <c r="D5" s="278"/>
+      <c r="E5" s="278"/>
+      <c r="F5" s="278"/>
+      <c r="G5" s="279" t="s">
         <v>145</v>
       </c>
-      <c r="H5" s="281"/>
-      <c r="I5" s="281"/>
-      <c r="J5" s="281"/>
-      <c r="K5" s="281"/>
-      <c r="L5" s="281"/>
-      <c r="M5" s="281"/>
-      <c r="N5" s="281"/>
-      <c r="O5" s="281"/>
-      <c r="P5" s="282"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="280"/>
+      <c r="J5" s="280"/>
+      <c r="K5" s="280"/>
+      <c r="L5" s="280"/>
+      <c r="M5" s="280"/>
+      <c r="N5" s="280"/>
+      <c r="O5" s="280"/>
+      <c r="P5" s="281"/>
       <c r="Q5" s="43"/>
     </row>
     <row r="6" spans="1:17" ht="32.4">
@@ -10803,24 +10806,24 @@
       <c r="B6" s="64">
         <v>2</v>
       </c>
-      <c r="C6" s="288" t="s">
+      <c r="C6" s="278" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="288"/>
-      <c r="E6" s="288"/>
-      <c r="F6" s="288"/>
-      <c r="G6" s="280" t="s">
+      <c r="D6" s="278"/>
+      <c r="E6" s="278"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="279" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="281"/>
-      <c r="I6" s="281"/>
-      <c r="J6" s="281"/>
-      <c r="K6" s="281"/>
-      <c r="L6" s="281"/>
-      <c r="M6" s="281"/>
-      <c r="N6" s="281"/>
-      <c r="O6" s="281"/>
-      <c r="P6" s="282"/>
+      <c r="H6" s="280"/>
+      <c r="I6" s="280"/>
+      <c r="J6" s="280"/>
+      <c r="K6" s="280"/>
+      <c r="L6" s="280"/>
+      <c r="M6" s="280"/>
+      <c r="N6" s="280"/>
+      <c r="O6" s="280"/>
+      <c r="P6" s="281"/>
       <c r="Q6" s="43"/>
     </row>
     <row r="7" spans="1:17" ht="32.4">
@@ -10828,24 +10831,24 @@
       <c r="B7" s="64">
         <v>3</v>
       </c>
-      <c r="C7" s="288" t="s">
+      <c r="C7" s="278" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="288"/>
-      <c r="E7" s="288"/>
-      <c r="F7" s="288"/>
+      <c r="D7" s="278"/>
+      <c r="E7" s="278"/>
+      <c r="F7" s="278"/>
       <c r="G7" s="283" t="s">
         <v>146</v>
       </c>
-      <c r="H7" s="281"/>
-      <c r="I7" s="281"/>
-      <c r="J7" s="281"/>
-      <c r="K7" s="281"/>
-      <c r="L7" s="281"/>
-      <c r="M7" s="281"/>
-      <c r="N7" s="281"/>
-      <c r="O7" s="281"/>
-      <c r="P7" s="282"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="280"/>
+      <c r="J7" s="280"/>
+      <c r="K7" s="280"/>
+      <c r="L7" s="280"/>
+      <c r="M7" s="280"/>
+      <c r="N7" s="280"/>
+      <c r="O7" s="280"/>
+      <c r="P7" s="281"/>
       <c r="Q7" s="43"/>
     </row>
     <row r="8" spans="1:17" ht="32.4">
@@ -10853,24 +10856,24 @@
       <c r="B8" s="64">
         <v>4</v>
       </c>
-      <c r="C8" s="288" t="s">
+      <c r="C8" s="278" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="288"/>
-      <c r="E8" s="288"/>
-      <c r="F8" s="288"/>
+      <c r="D8" s="278"/>
+      <c r="E8" s="278"/>
+      <c r="F8" s="278"/>
       <c r="G8" s="283" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="281"/>
-      <c r="I8" s="281"/>
-      <c r="J8" s="281"/>
-      <c r="K8" s="281"/>
-      <c r="L8" s="281"/>
-      <c r="M8" s="281"/>
-      <c r="N8" s="281"/>
-      <c r="O8" s="281"/>
-      <c r="P8" s="282"/>
+      <c r="H8" s="280"/>
+      <c r="I8" s="280"/>
+      <c r="J8" s="280"/>
+      <c r="K8" s="280"/>
+      <c r="L8" s="280"/>
+      <c r="M8" s="280"/>
+      <c r="N8" s="280"/>
+      <c r="O8" s="280"/>
+      <c r="P8" s="281"/>
       <c r="Q8" s="43"/>
     </row>
     <row r="9" spans="1:17" ht="32.4">
@@ -10878,24 +10881,24 @@
       <c r="B9" s="64">
         <v>5</v>
       </c>
-      <c r="C9" s="288" t="s">
+      <c r="C9" s="278" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="288"/>
-      <c r="E9" s="288"/>
-      <c r="F9" s="288"/>
-      <c r="G9" s="280" t="s">
+      <c r="D9" s="278"/>
+      <c r="E9" s="278"/>
+      <c r="F9" s="278"/>
+      <c r="G9" s="279" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="281"/>
-      <c r="I9" s="281"/>
-      <c r="J9" s="281"/>
-      <c r="K9" s="281"/>
-      <c r="L9" s="281"/>
-      <c r="M9" s="281"/>
-      <c r="N9" s="281"/>
-      <c r="O9" s="281"/>
-      <c r="P9" s="282"/>
+      <c r="H9" s="280"/>
+      <c r="I9" s="280"/>
+      <c r="J9" s="280"/>
+      <c r="K9" s="280"/>
+      <c r="L9" s="280"/>
+      <c r="M9" s="280"/>
+      <c r="N9" s="280"/>
+      <c r="O9" s="280"/>
+      <c r="P9" s="281"/>
       <c r="Q9" s="43"/>
     </row>
     <row r="10" spans="1:17" ht="32.4">
@@ -10903,24 +10906,24 @@
       <c r="B10" s="64">
         <v>6</v>
       </c>
-      <c r="C10" s="288" t="s">
+      <c r="C10" s="278" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="288"/>
-      <c r="E10" s="288"/>
-      <c r="F10" s="288"/>
-      <c r="G10" s="280" t="s">
+      <c r="D10" s="278"/>
+      <c r="E10" s="278"/>
+      <c r="F10" s="278"/>
+      <c r="G10" s="279" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="281"/>
-      <c r="I10" s="281"/>
-      <c r="J10" s="281"/>
-      <c r="K10" s="281"/>
-      <c r="L10" s="281"/>
-      <c r="M10" s="281"/>
-      <c r="N10" s="281"/>
-      <c r="O10" s="281"/>
-      <c r="P10" s="282"/>
+      <c r="H10" s="280"/>
+      <c r="I10" s="280"/>
+      <c r="J10" s="280"/>
+      <c r="K10" s="280"/>
+      <c r="L10" s="280"/>
+      <c r="M10" s="280"/>
+      <c r="N10" s="280"/>
+      <c r="O10" s="280"/>
+      <c r="P10" s="281"/>
       <c r="Q10" s="43"/>
     </row>
     <row r="11" spans="1:17" ht="32.4">
@@ -10928,24 +10931,24 @@
       <c r="B11" s="64">
         <v>7</v>
       </c>
-      <c r="C11" s="288" t="s">
+      <c r="C11" s="278" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="288"/>
-      <c r="E11" s="288"/>
-      <c r="F11" s="288"/>
-      <c r="G11" s="280" t="s">
+      <c r="D11" s="278"/>
+      <c r="E11" s="278"/>
+      <c r="F11" s="278"/>
+      <c r="G11" s="279" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="281"/>
-      <c r="I11" s="281"/>
-      <c r="J11" s="281"/>
-      <c r="K11" s="281"/>
-      <c r="L11" s="281"/>
-      <c r="M11" s="281"/>
-      <c r="N11" s="281"/>
-      <c r="O11" s="281"/>
-      <c r="P11" s="282"/>
+      <c r="H11" s="280"/>
+      <c r="I11" s="280"/>
+      <c r="J11" s="280"/>
+      <c r="K11" s="280"/>
+      <c r="L11" s="280"/>
+      <c r="M11" s="280"/>
+      <c r="N11" s="280"/>
+      <c r="O11" s="280"/>
+      <c r="P11" s="281"/>
       <c r="Q11" s="43"/>
     </row>
     <row r="12" spans="1:17" ht="32.4">
@@ -10953,24 +10956,24 @@
       <c r="B12" s="64">
         <v>8</v>
       </c>
-      <c r="C12" s="288" t="s">
+      <c r="C12" s="278" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="288"/>
-      <c r="E12" s="288"/>
-      <c r="F12" s="288"/>
-      <c r="G12" s="280" t="s">
+      <c r="D12" s="278"/>
+      <c r="E12" s="278"/>
+      <c r="F12" s="278"/>
+      <c r="G12" s="279" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="281"/>
-      <c r="I12" s="281"/>
-      <c r="J12" s="281"/>
-      <c r="K12" s="281"/>
-      <c r="L12" s="281"/>
-      <c r="M12" s="281"/>
-      <c r="N12" s="281"/>
-      <c r="O12" s="281"/>
-      <c r="P12" s="282"/>
+      <c r="H12" s="280"/>
+      <c r="I12" s="280"/>
+      <c r="J12" s="280"/>
+      <c r="K12" s="280"/>
+      <c r="L12" s="280"/>
+      <c r="M12" s="280"/>
+      <c r="N12" s="280"/>
+      <c r="O12" s="280"/>
+      <c r="P12" s="281"/>
       <c r="Q12" s="43"/>
     </row>
     <row r="13" spans="1:17" ht="32.4">
@@ -10978,24 +10981,24 @@
       <c r="B13" s="64">
         <v>9</v>
       </c>
-      <c r="C13" s="288" t="s">
+      <c r="C13" s="278" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="288"/>
-      <c r="E13" s="288"/>
-      <c r="F13" s="288"/>
-      <c r="G13" s="280" t="s">
+      <c r="D13" s="278"/>
+      <c r="E13" s="278"/>
+      <c r="F13" s="278"/>
+      <c r="G13" s="279" t="s">
         <v>147</v>
       </c>
-      <c r="H13" s="281"/>
-      <c r="I13" s="281"/>
-      <c r="J13" s="281"/>
-      <c r="K13" s="281"/>
-      <c r="L13" s="281"/>
-      <c r="M13" s="281"/>
-      <c r="N13" s="281"/>
-      <c r="O13" s="281"/>
-      <c r="P13" s="282"/>
+      <c r="H13" s="280"/>
+      <c r="I13" s="280"/>
+      <c r="J13" s="280"/>
+      <c r="K13" s="280"/>
+      <c r="L13" s="280"/>
+      <c r="M13" s="280"/>
+      <c r="N13" s="280"/>
+      <c r="O13" s="280"/>
+      <c r="P13" s="281"/>
       <c r="Q13" s="43"/>
     </row>
     <row r="14" spans="1:17" ht="31.8" customHeight="1">
@@ -11003,24 +11006,24 @@
       <c r="B14" s="64">
         <v>10</v>
       </c>
-      <c r="C14" s="280" t="s">
+      <c r="C14" s="279" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="281"/>
-      <c r="E14" s="281"/>
-      <c r="F14" s="290"/>
+      <c r="D14" s="280"/>
+      <c r="E14" s="280"/>
+      <c r="F14" s="282"/>
       <c r="G14" s="283" t="s">
         <v>156</v>
       </c>
-      <c r="H14" s="281"/>
-      <c r="I14" s="281"/>
-      <c r="J14" s="281"/>
-      <c r="K14" s="281"/>
-      <c r="L14" s="281"/>
-      <c r="M14" s="281"/>
-      <c r="N14" s="281"/>
-      <c r="O14" s="281"/>
-      <c r="P14" s="289"/>
+      <c r="H14" s="280"/>
+      <c r="I14" s="280"/>
+      <c r="J14" s="280"/>
+      <c r="K14" s="280"/>
+      <c r="L14" s="280"/>
+      <c r="M14" s="280"/>
+      <c r="N14" s="280"/>
+      <c r="O14" s="280"/>
+      <c r="P14" s="284"/>
       <c r="Q14" s="43"/>
     </row>
     <row r="15" spans="1:17" ht="32.4">
@@ -11028,24 +11031,24 @@
       <c r="B15" s="64">
         <v>11</v>
       </c>
-      <c r="C15" s="288" t="s">
+      <c r="C15" s="278" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="288"/>
-      <c r="E15" s="288"/>
-      <c r="F15" s="288"/>
-      <c r="G15" s="280" t="s">
+      <c r="D15" s="278"/>
+      <c r="E15" s="278"/>
+      <c r="F15" s="278"/>
+      <c r="G15" s="279" t="s">
         <v>148</v>
       </c>
-      <c r="H15" s="281"/>
-      <c r="I15" s="281"/>
-      <c r="J15" s="281"/>
-      <c r="K15" s="281"/>
-      <c r="L15" s="281"/>
-      <c r="M15" s="281"/>
-      <c r="N15" s="281"/>
-      <c r="O15" s="281"/>
-      <c r="P15" s="289"/>
+      <c r="H15" s="280"/>
+      <c r="I15" s="280"/>
+      <c r="J15" s="280"/>
+      <c r="K15" s="280"/>
+      <c r="L15" s="280"/>
+      <c r="M15" s="280"/>
+      <c r="N15" s="280"/>
+      <c r="O15" s="280"/>
+      <c r="P15" s="284"/>
       <c r="Q15" s="43"/>
     </row>
     <row r="16" spans="1:17" ht="32.4">
@@ -11053,24 +11056,24 @@
       <c r="B16" s="64">
         <v>12</v>
       </c>
-      <c r="C16" s="288" t="s">
+      <c r="C16" s="278" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="288"/>
-      <c r="E16" s="288"/>
-      <c r="F16" s="288"/>
-      <c r="G16" s="280" t="s">
+      <c r="D16" s="278"/>
+      <c r="E16" s="278"/>
+      <c r="F16" s="278"/>
+      <c r="G16" s="279" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="281"/>
-      <c r="I16" s="281"/>
-      <c r="J16" s="281"/>
-      <c r="K16" s="281"/>
-      <c r="L16" s="281"/>
-      <c r="M16" s="281"/>
-      <c r="N16" s="281"/>
-      <c r="O16" s="281"/>
-      <c r="P16" s="289"/>
+      <c r="H16" s="280"/>
+      <c r="I16" s="280"/>
+      <c r="J16" s="280"/>
+      <c r="K16" s="280"/>
+      <c r="L16" s="280"/>
+      <c r="M16" s="280"/>
+      <c r="N16" s="280"/>
+      <c r="O16" s="280"/>
+      <c r="P16" s="284"/>
       <c r="Q16" s="43"/>
     </row>
     <row r="17" spans="1:17" ht="32.4">
@@ -11078,24 +11081,24 @@
       <c r="B17" s="64">
         <v>13</v>
       </c>
-      <c r="C17" s="280" t="s">
+      <c r="C17" s="279" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="281"/>
-      <c r="E17" s="281"/>
-      <c r="F17" s="290"/>
-      <c r="G17" s="280" t="s">
+      <c r="D17" s="280"/>
+      <c r="E17" s="280"/>
+      <c r="F17" s="282"/>
+      <c r="G17" s="279" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="281"/>
-      <c r="I17" s="281"/>
-      <c r="J17" s="281"/>
-      <c r="K17" s="281"/>
-      <c r="L17" s="281"/>
-      <c r="M17" s="281"/>
-      <c r="N17" s="281"/>
-      <c r="O17" s="281"/>
-      <c r="P17" s="289"/>
+      <c r="H17" s="280"/>
+      <c r="I17" s="280"/>
+      <c r="J17" s="280"/>
+      <c r="K17" s="280"/>
+      <c r="L17" s="280"/>
+      <c r="M17" s="280"/>
+      <c r="N17" s="280"/>
+      <c r="O17" s="280"/>
+      <c r="P17" s="284"/>
       <c r="Q17" s="43"/>
     </row>
     <row r="18" spans="1:17" ht="32.4">
@@ -11103,24 +11106,24 @@
       <c r="B18" s="64">
         <v>14</v>
       </c>
-      <c r="C18" s="288" t="s">
+      <c r="C18" s="278" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="288"/>
-      <c r="E18" s="288"/>
-      <c r="F18" s="288"/>
-      <c r="G18" s="280" t="s">
+      <c r="D18" s="278"/>
+      <c r="E18" s="278"/>
+      <c r="F18" s="278"/>
+      <c r="G18" s="279" t="s">
         <v>151</v>
       </c>
-      <c r="H18" s="281"/>
-      <c r="I18" s="281"/>
-      <c r="J18" s="281"/>
-      <c r="K18" s="281"/>
-      <c r="L18" s="281"/>
-      <c r="M18" s="281"/>
-      <c r="N18" s="281"/>
-      <c r="O18" s="281"/>
-      <c r="P18" s="289"/>
+      <c r="H18" s="280"/>
+      <c r="I18" s="280"/>
+      <c r="J18" s="280"/>
+      <c r="K18" s="280"/>
+      <c r="L18" s="280"/>
+      <c r="M18" s="280"/>
+      <c r="N18" s="280"/>
+      <c r="O18" s="280"/>
+      <c r="P18" s="284"/>
       <c r="Q18" s="43"/>
     </row>
     <row r="19" spans="1:17" ht="32.4">
@@ -11128,24 +11131,24 @@
       <c r="B19" s="64">
         <v>15</v>
       </c>
-      <c r="C19" s="288" t="s">
+      <c r="C19" s="278" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="288"/>
-      <c r="E19" s="288"/>
-      <c r="F19" s="288"/>
-      <c r="G19" s="280" t="s">
+      <c r="D19" s="278"/>
+      <c r="E19" s="278"/>
+      <c r="F19" s="278"/>
+      <c r="G19" s="279" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="281"/>
-      <c r="I19" s="281"/>
-      <c r="J19" s="281"/>
-      <c r="K19" s="281"/>
-      <c r="L19" s="281"/>
-      <c r="M19" s="281"/>
-      <c r="N19" s="281"/>
-      <c r="O19" s="281"/>
-      <c r="P19" s="289"/>
+      <c r="H19" s="280"/>
+      <c r="I19" s="280"/>
+      <c r="J19" s="280"/>
+      <c r="K19" s="280"/>
+      <c r="L19" s="280"/>
+      <c r="M19" s="280"/>
+      <c r="N19" s="280"/>
+      <c r="O19" s="280"/>
+      <c r="P19" s="284"/>
       <c r="Q19" s="43"/>
     </row>
     <row r="20" spans="1:17" ht="32.4">
@@ -11153,24 +11156,24 @@
       <c r="B20" s="64">
         <v>16</v>
       </c>
-      <c r="C20" s="288" t="s">
+      <c r="C20" s="278" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="288"/>
-      <c r="E20" s="288"/>
-      <c r="F20" s="288"/>
-      <c r="G20" s="280" t="s">
+      <c r="D20" s="278"/>
+      <c r="E20" s="278"/>
+      <c r="F20" s="278"/>
+      <c r="G20" s="279" t="s">
         <v>153</v>
       </c>
-      <c r="H20" s="281"/>
-      <c r="I20" s="281"/>
-      <c r="J20" s="281"/>
-      <c r="K20" s="281"/>
-      <c r="L20" s="281"/>
-      <c r="M20" s="281"/>
-      <c r="N20" s="281"/>
-      <c r="O20" s="281"/>
-      <c r="P20" s="289"/>
+      <c r="H20" s="280"/>
+      <c r="I20" s="280"/>
+      <c r="J20" s="280"/>
+      <c r="K20" s="280"/>
+      <c r="L20" s="280"/>
+      <c r="M20" s="280"/>
+      <c r="N20" s="280"/>
+      <c r="O20" s="280"/>
+      <c r="P20" s="284"/>
       <c r="Q20" s="43"/>
     </row>
     <row r="21" spans="1:17" ht="32.4">
@@ -11178,24 +11181,24 @@
       <c r="B21" s="64">
         <v>17</v>
       </c>
-      <c r="C21" s="288" t="s">
+      <c r="C21" s="278" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="288"/>
-      <c r="E21" s="288"/>
-      <c r="F21" s="288"/>
-      <c r="G21" s="280" t="s">
+      <c r="D21" s="278"/>
+      <c r="E21" s="278"/>
+      <c r="F21" s="278"/>
+      <c r="G21" s="279" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="281"/>
-      <c r="I21" s="281"/>
-      <c r="J21" s="281"/>
-      <c r="K21" s="281"/>
-      <c r="L21" s="281"/>
-      <c r="M21" s="281"/>
-      <c r="N21" s="281"/>
-      <c r="O21" s="281"/>
-      <c r="P21" s="289"/>
+      <c r="H21" s="280"/>
+      <c r="I21" s="280"/>
+      <c r="J21" s="280"/>
+      <c r="K21" s="280"/>
+      <c r="L21" s="280"/>
+      <c r="M21" s="280"/>
+      <c r="N21" s="280"/>
+      <c r="O21" s="280"/>
+      <c r="P21" s="284"/>
       <c r="Q21" s="43"/>
     </row>
     <row r="22" spans="1:17" ht="32.4">
@@ -11203,24 +11206,24 @@
       <c r="B22" s="64">
         <v>18</v>
       </c>
-      <c r="C22" s="288" t="s">
+      <c r="C22" s="278" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="288"/>
-      <c r="E22" s="288"/>
-      <c r="F22" s="288"/>
-      <c r="G22" s="280" t="s">
+      <c r="D22" s="278"/>
+      <c r="E22" s="278"/>
+      <c r="F22" s="278"/>
+      <c r="G22" s="279" t="s">
         <v>155</v>
       </c>
-      <c r="H22" s="281"/>
-      <c r="I22" s="281"/>
-      <c r="J22" s="281"/>
-      <c r="K22" s="281"/>
-      <c r="L22" s="281"/>
-      <c r="M22" s="281"/>
-      <c r="N22" s="281"/>
-      <c r="O22" s="281"/>
-      <c r="P22" s="289"/>
+      <c r="H22" s="280"/>
+      <c r="I22" s="280"/>
+      <c r="J22" s="280"/>
+      <c r="K22" s="280"/>
+      <c r="L22" s="280"/>
+      <c r="M22" s="280"/>
+      <c r="N22" s="280"/>
+      <c r="O22" s="280"/>
+      <c r="P22" s="284"/>
       <c r="Q22" s="43"/>
     </row>
     <row r="23" spans="1:17" ht="32.4">
@@ -11228,20 +11231,20 @@
       <c r="B23" s="64">
         <v>19</v>
       </c>
-      <c r="C23" s="284"/>
-      <c r="D23" s="284"/>
-      <c r="E23" s="284"/>
-      <c r="F23" s="284"/>
-      <c r="G23" s="285"/>
-      <c r="H23" s="286"/>
-      <c r="I23" s="286"/>
-      <c r="J23" s="286"/>
-      <c r="K23" s="286"/>
-      <c r="L23" s="286"/>
-      <c r="M23" s="286"/>
-      <c r="N23" s="286"/>
-      <c r="O23" s="286"/>
-      <c r="P23" s="287"/>
+      <c r="C23" s="285"/>
+      <c r="D23" s="285"/>
+      <c r="E23" s="285"/>
+      <c r="F23" s="285"/>
+      <c r="G23" s="286"/>
+      <c r="H23" s="287"/>
+      <c r="I23" s="287"/>
+      <c r="J23" s="287"/>
+      <c r="K23" s="287"/>
+      <c r="L23" s="287"/>
+      <c r="M23" s="287"/>
+      <c r="N23" s="287"/>
+      <c r="O23" s="287"/>
+      <c r="P23" s="288"/>
       <c r="Q23" s="43"/>
     </row>
     <row r="24" spans="1:17" ht="32.4">
@@ -11249,20 +11252,20 @@
       <c r="B24" s="64">
         <v>20</v>
       </c>
-      <c r="C24" s="284"/>
-      <c r="D24" s="284"/>
-      <c r="E24" s="284"/>
-      <c r="F24" s="284"/>
-      <c r="G24" s="285"/>
-      <c r="H24" s="286"/>
-      <c r="I24" s="286"/>
-      <c r="J24" s="286"/>
-      <c r="K24" s="286"/>
-      <c r="L24" s="286"/>
-      <c r="M24" s="286"/>
-      <c r="N24" s="286"/>
-      <c r="O24" s="286"/>
-      <c r="P24" s="287"/>
+      <c r="C24" s="285"/>
+      <c r="D24" s="285"/>
+      <c r="E24" s="285"/>
+      <c r="F24" s="285"/>
+      <c r="G24" s="286"/>
+      <c r="H24" s="287"/>
+      <c r="I24" s="287"/>
+      <c r="J24" s="287"/>
+      <c r="K24" s="287"/>
+      <c r="L24" s="287"/>
+      <c r="M24" s="287"/>
+      <c r="N24" s="287"/>
+      <c r="O24" s="287"/>
+      <c r="P24" s="288"/>
       <c r="Q24" s="43"/>
     </row>
     <row r="25" spans="1:17" ht="32.4">
@@ -11270,20 +11273,20 @@
       <c r="B25" s="64">
         <v>21</v>
       </c>
-      <c r="C25" s="284"/>
-      <c r="D25" s="284"/>
-      <c r="E25" s="284"/>
-      <c r="F25" s="284"/>
-      <c r="G25" s="285"/>
-      <c r="H25" s="286"/>
-      <c r="I25" s="286"/>
-      <c r="J25" s="286"/>
-      <c r="K25" s="286"/>
-      <c r="L25" s="286"/>
-      <c r="M25" s="286"/>
-      <c r="N25" s="286"/>
-      <c r="O25" s="286"/>
-      <c r="P25" s="287"/>
+      <c r="C25" s="285"/>
+      <c r="D25" s="285"/>
+      <c r="E25" s="285"/>
+      <c r="F25" s="285"/>
+      <c r="G25" s="286"/>
+      <c r="H25" s="287"/>
+      <c r="I25" s="287"/>
+      <c r="J25" s="287"/>
+      <c r="K25" s="287"/>
+      <c r="L25" s="287"/>
+      <c r="M25" s="287"/>
+      <c r="N25" s="287"/>
+      <c r="O25" s="287"/>
+      <c r="P25" s="288"/>
       <c r="Q25" s="43"/>
     </row>
     <row r="26" spans="1:17" ht="32.4">
@@ -11291,20 +11294,20 @@
       <c r="B26" s="64">
         <v>22</v>
       </c>
-      <c r="C26" s="284"/>
-      <c r="D26" s="284"/>
-      <c r="E26" s="284"/>
-      <c r="F26" s="284"/>
-      <c r="G26" s="285"/>
-      <c r="H26" s="286"/>
-      <c r="I26" s="286"/>
-      <c r="J26" s="286"/>
-      <c r="K26" s="286"/>
-      <c r="L26" s="286"/>
-      <c r="M26" s="286"/>
-      <c r="N26" s="286"/>
-      <c r="O26" s="286"/>
-      <c r="P26" s="287"/>
+      <c r="C26" s="285"/>
+      <c r="D26" s="285"/>
+      <c r="E26" s="285"/>
+      <c r="F26" s="285"/>
+      <c r="G26" s="286"/>
+      <c r="H26" s="287"/>
+      <c r="I26" s="287"/>
+      <c r="J26" s="287"/>
+      <c r="K26" s="287"/>
+      <c r="L26" s="287"/>
+      <c r="M26" s="287"/>
+      <c r="N26" s="287"/>
+      <c r="O26" s="287"/>
+      <c r="P26" s="288"/>
       <c r="Q26" s="43"/>
     </row>
     <row r="27" spans="1:17" ht="32.4">
@@ -11312,20 +11315,20 @@
       <c r="B27" s="64">
         <v>23</v>
       </c>
-      <c r="C27" s="284"/>
-      <c r="D27" s="284"/>
-      <c r="E27" s="284"/>
-      <c r="F27" s="284"/>
-      <c r="G27" s="285"/>
-      <c r="H27" s="286"/>
-      <c r="I27" s="286"/>
-      <c r="J27" s="286"/>
-      <c r="K27" s="286"/>
-      <c r="L27" s="286"/>
-      <c r="M27" s="286"/>
-      <c r="N27" s="286"/>
-      <c r="O27" s="286"/>
-      <c r="P27" s="287"/>
+      <c r="C27" s="285"/>
+      <c r="D27" s="285"/>
+      <c r="E27" s="285"/>
+      <c r="F27" s="285"/>
+      <c r="G27" s="286"/>
+      <c r="H27" s="287"/>
+      <c r="I27" s="287"/>
+      <c r="J27" s="287"/>
+      <c r="K27" s="287"/>
+      <c r="L27" s="287"/>
+      <c r="M27" s="287"/>
+      <c r="N27" s="287"/>
+      <c r="O27" s="287"/>
+      <c r="P27" s="288"/>
       <c r="Q27" s="43"/>
     </row>
     <row r="28" spans="1:17" ht="32.4">
@@ -11333,20 +11336,20 @@
       <c r="B28" s="64">
         <v>24</v>
       </c>
-      <c r="C28" s="284"/>
-      <c r="D28" s="284"/>
-      <c r="E28" s="284"/>
-      <c r="F28" s="284"/>
-      <c r="G28" s="285"/>
-      <c r="H28" s="286"/>
-      <c r="I28" s="286"/>
-      <c r="J28" s="286"/>
-      <c r="K28" s="286"/>
-      <c r="L28" s="286"/>
-      <c r="M28" s="286"/>
-      <c r="N28" s="286"/>
-      <c r="O28" s="286"/>
-      <c r="P28" s="287"/>
+      <c r="C28" s="285"/>
+      <c r="D28" s="285"/>
+      <c r="E28" s="285"/>
+      <c r="F28" s="285"/>
+      <c r="G28" s="286"/>
+      <c r="H28" s="287"/>
+      <c r="I28" s="287"/>
+      <c r="J28" s="287"/>
+      <c r="K28" s="287"/>
+      <c r="L28" s="287"/>
+      <c r="M28" s="287"/>
+      <c r="N28" s="287"/>
+      <c r="O28" s="287"/>
+      <c r="P28" s="288"/>
       <c r="Q28" s="43"/>
     </row>
     <row r="29" spans="1:17" ht="32.4">
@@ -11354,20 +11357,20 @@
       <c r="B29" s="64">
         <v>25</v>
       </c>
-      <c r="C29" s="284"/>
-      <c r="D29" s="284"/>
-      <c r="E29" s="284"/>
-      <c r="F29" s="284"/>
-      <c r="G29" s="285"/>
-      <c r="H29" s="286"/>
-      <c r="I29" s="286"/>
-      <c r="J29" s="286"/>
-      <c r="K29" s="286"/>
-      <c r="L29" s="286"/>
-      <c r="M29" s="286"/>
-      <c r="N29" s="286"/>
-      <c r="O29" s="286"/>
-      <c r="P29" s="287"/>
+      <c r="C29" s="285"/>
+      <c r="D29" s="285"/>
+      <c r="E29" s="285"/>
+      <c r="F29" s="285"/>
+      <c r="G29" s="286"/>
+      <c r="H29" s="287"/>
+      <c r="I29" s="287"/>
+      <c r="J29" s="287"/>
+      <c r="K29" s="287"/>
+      <c r="L29" s="287"/>
+      <c r="M29" s="287"/>
+      <c r="N29" s="287"/>
+      <c r="O29" s="287"/>
+      <c r="P29" s="288"/>
       <c r="Q29" s="43"/>
     </row>
     <row r="30" spans="1:17" ht="32.4">
@@ -11375,20 +11378,20 @@
       <c r="B30" s="64">
         <v>26</v>
       </c>
-      <c r="C30" s="284"/>
-      <c r="D30" s="284"/>
-      <c r="E30" s="284"/>
-      <c r="F30" s="284"/>
-      <c r="G30" s="285"/>
-      <c r="H30" s="286"/>
-      <c r="I30" s="286"/>
-      <c r="J30" s="286"/>
-      <c r="K30" s="286"/>
-      <c r="L30" s="286"/>
-      <c r="M30" s="286"/>
-      <c r="N30" s="286"/>
-      <c r="O30" s="286"/>
-      <c r="P30" s="287"/>
+      <c r="C30" s="285"/>
+      <c r="D30" s="285"/>
+      <c r="E30" s="285"/>
+      <c r="F30" s="285"/>
+      <c r="G30" s="286"/>
+      <c r="H30" s="287"/>
+      <c r="I30" s="287"/>
+      <c r="J30" s="287"/>
+      <c r="K30" s="287"/>
+      <c r="L30" s="287"/>
+      <c r="M30" s="287"/>
+      <c r="N30" s="287"/>
+      <c r="O30" s="287"/>
+      <c r="P30" s="288"/>
       <c r="Q30" s="43"/>
     </row>
     <row r="31" spans="1:17" ht="32.4">
@@ -11396,20 +11399,20 @@
       <c r="B31" s="64">
         <v>27</v>
       </c>
-      <c r="C31" s="284"/>
-      <c r="D31" s="284"/>
-      <c r="E31" s="284"/>
-      <c r="F31" s="284"/>
-      <c r="G31" s="285"/>
-      <c r="H31" s="286"/>
-      <c r="I31" s="286"/>
-      <c r="J31" s="286"/>
-      <c r="K31" s="286"/>
-      <c r="L31" s="286"/>
-      <c r="M31" s="286"/>
-      <c r="N31" s="286"/>
-      <c r="O31" s="286"/>
-      <c r="P31" s="287"/>
+      <c r="C31" s="285"/>
+      <c r="D31" s="285"/>
+      <c r="E31" s="285"/>
+      <c r="F31" s="285"/>
+      <c r="G31" s="286"/>
+      <c r="H31" s="287"/>
+      <c r="I31" s="287"/>
+      <c r="J31" s="287"/>
+      <c r="K31" s="287"/>
+      <c r="L31" s="287"/>
+      <c r="M31" s="287"/>
+      <c r="N31" s="287"/>
+      <c r="O31" s="287"/>
+      <c r="P31" s="288"/>
       <c r="Q31" s="43"/>
     </row>
     <row r="32" spans="1:17" ht="32.4">
@@ -11417,20 +11420,20 @@
       <c r="B32" s="64">
         <v>28</v>
       </c>
-      <c r="C32" s="284"/>
-      <c r="D32" s="284"/>
-      <c r="E32" s="284"/>
-      <c r="F32" s="284"/>
-      <c r="G32" s="285"/>
-      <c r="H32" s="286"/>
-      <c r="I32" s="286"/>
-      <c r="J32" s="286"/>
-      <c r="K32" s="286"/>
-      <c r="L32" s="286"/>
-      <c r="M32" s="286"/>
-      <c r="N32" s="286"/>
-      <c r="O32" s="286"/>
-      <c r="P32" s="287"/>
+      <c r="C32" s="285"/>
+      <c r="D32" s="285"/>
+      <c r="E32" s="285"/>
+      <c r="F32" s="285"/>
+      <c r="G32" s="286"/>
+      <c r="H32" s="287"/>
+      <c r="I32" s="287"/>
+      <c r="J32" s="287"/>
+      <c r="K32" s="287"/>
+      <c r="L32" s="287"/>
+      <c r="M32" s="287"/>
+      <c r="N32" s="287"/>
+      <c r="O32" s="287"/>
+      <c r="P32" s="288"/>
       <c r="Q32" s="43"/>
     </row>
     <row r="33" spans="1:17" ht="32.4">
@@ -11438,20 +11441,20 @@
       <c r="B33" s="64">
         <v>29</v>
       </c>
-      <c r="C33" s="284"/>
-      <c r="D33" s="284"/>
-      <c r="E33" s="284"/>
-      <c r="F33" s="284"/>
-      <c r="G33" s="285"/>
-      <c r="H33" s="286"/>
-      <c r="I33" s="286"/>
-      <c r="J33" s="286"/>
-      <c r="K33" s="286"/>
-      <c r="L33" s="286"/>
-      <c r="M33" s="286"/>
-      <c r="N33" s="286"/>
-      <c r="O33" s="286"/>
-      <c r="P33" s="287"/>
+      <c r="C33" s="285"/>
+      <c r="D33" s="285"/>
+      <c r="E33" s="285"/>
+      <c r="F33" s="285"/>
+      <c r="G33" s="286"/>
+      <c r="H33" s="287"/>
+      <c r="I33" s="287"/>
+      <c r="J33" s="287"/>
+      <c r="K33" s="287"/>
+      <c r="L33" s="287"/>
+      <c r="M33" s="287"/>
+      <c r="N33" s="287"/>
+      <c r="O33" s="287"/>
+      <c r="P33" s="288"/>
       <c r="Q33" s="43"/>
     </row>
     <row r="34" spans="1:17" ht="32.4">
@@ -11459,20 +11462,20 @@
       <c r="B34" s="64">
         <v>30</v>
       </c>
-      <c r="C34" s="284"/>
-      <c r="D34" s="284"/>
-      <c r="E34" s="284"/>
-      <c r="F34" s="284"/>
-      <c r="G34" s="285"/>
-      <c r="H34" s="286"/>
-      <c r="I34" s="286"/>
-      <c r="J34" s="286"/>
-      <c r="K34" s="286"/>
-      <c r="L34" s="286"/>
-      <c r="M34" s="286"/>
-      <c r="N34" s="286"/>
-      <c r="O34" s="286"/>
-      <c r="P34" s="287"/>
+      <c r="C34" s="285"/>
+      <c r="D34" s="285"/>
+      <c r="E34" s="285"/>
+      <c r="F34" s="285"/>
+      <c r="G34" s="286"/>
+      <c r="H34" s="287"/>
+      <c r="I34" s="287"/>
+      <c r="J34" s="287"/>
+      <c r="K34" s="287"/>
+      <c r="L34" s="287"/>
+      <c r="M34" s="287"/>
+      <c r="N34" s="287"/>
+      <c r="O34" s="287"/>
+      <c r="P34" s="288"/>
       <c r="Q34" s="43"/>
     </row>
     <row r="35" spans="1:17" ht="32.4">
@@ -11480,20 +11483,20 @@
       <c r="B35" s="64">
         <v>31</v>
       </c>
-      <c r="C35" s="284"/>
-      <c r="D35" s="284"/>
-      <c r="E35" s="284"/>
-      <c r="F35" s="284"/>
-      <c r="G35" s="285"/>
-      <c r="H35" s="286"/>
-      <c r="I35" s="286"/>
-      <c r="J35" s="286"/>
-      <c r="K35" s="286"/>
-      <c r="L35" s="286"/>
-      <c r="M35" s="286"/>
-      <c r="N35" s="286"/>
-      <c r="O35" s="286"/>
-      <c r="P35" s="287"/>
+      <c r="C35" s="285"/>
+      <c r="D35" s="285"/>
+      <c r="E35" s="285"/>
+      <c r="F35" s="285"/>
+      <c r="G35" s="286"/>
+      <c r="H35" s="287"/>
+      <c r="I35" s="287"/>
+      <c r="J35" s="287"/>
+      <c r="K35" s="287"/>
+      <c r="L35" s="287"/>
+      <c r="M35" s="287"/>
+      <c r="N35" s="287"/>
+      <c r="O35" s="287"/>
+      <c r="P35" s="288"/>
       <c r="Q35" s="43"/>
     </row>
     <row r="36" spans="1:17" ht="32.4">
@@ -11501,20 +11504,20 @@
       <c r="B36" s="64">
         <v>32</v>
       </c>
-      <c r="C36" s="284"/>
-      <c r="D36" s="284"/>
-      <c r="E36" s="284"/>
-      <c r="F36" s="284"/>
-      <c r="G36" s="285"/>
-      <c r="H36" s="286"/>
-      <c r="I36" s="286"/>
-      <c r="J36" s="286"/>
-      <c r="K36" s="286"/>
-      <c r="L36" s="286"/>
-      <c r="M36" s="286"/>
-      <c r="N36" s="286"/>
-      <c r="O36" s="286"/>
-      <c r="P36" s="287"/>
+      <c r="C36" s="285"/>
+      <c r="D36" s="285"/>
+      <c r="E36" s="285"/>
+      <c r="F36" s="285"/>
+      <c r="G36" s="286"/>
+      <c r="H36" s="287"/>
+      <c r="I36" s="287"/>
+      <c r="J36" s="287"/>
+      <c r="K36" s="287"/>
+      <c r="L36" s="287"/>
+      <c r="M36" s="287"/>
+      <c r="N36" s="287"/>
+      <c r="O36" s="287"/>
+      <c r="P36" s="288"/>
       <c r="Q36" s="43"/>
     </row>
     <row r="37" spans="1:17" ht="32.4">
@@ -11522,20 +11525,20 @@
       <c r="B37" s="64">
         <v>33</v>
       </c>
-      <c r="C37" s="284"/>
-      <c r="D37" s="284"/>
-      <c r="E37" s="284"/>
-      <c r="F37" s="284"/>
-      <c r="G37" s="285"/>
-      <c r="H37" s="286"/>
-      <c r="I37" s="286"/>
-      <c r="J37" s="286"/>
-      <c r="K37" s="286"/>
-      <c r="L37" s="286"/>
-      <c r="M37" s="286"/>
-      <c r="N37" s="286"/>
-      <c r="O37" s="286"/>
-      <c r="P37" s="287"/>
+      <c r="C37" s="285"/>
+      <c r="D37" s="285"/>
+      <c r="E37" s="285"/>
+      <c r="F37" s="285"/>
+      <c r="G37" s="286"/>
+      <c r="H37" s="287"/>
+      <c r="I37" s="287"/>
+      <c r="J37" s="287"/>
+      <c r="K37" s="287"/>
+      <c r="L37" s="287"/>
+      <c r="M37" s="287"/>
+      <c r="N37" s="287"/>
+      <c r="O37" s="287"/>
+      <c r="P37" s="288"/>
       <c r="Q37" s="43"/>
     </row>
     <row r="38" spans="1:17" ht="32.4">
@@ -11543,20 +11546,20 @@
       <c r="B38" s="64">
         <v>34</v>
       </c>
-      <c r="C38" s="284"/>
-      <c r="D38" s="284"/>
-      <c r="E38" s="284"/>
-      <c r="F38" s="284"/>
-      <c r="G38" s="285"/>
-      <c r="H38" s="286"/>
-      <c r="I38" s="286"/>
-      <c r="J38" s="286"/>
-      <c r="K38" s="286"/>
-      <c r="L38" s="286"/>
-      <c r="M38" s="286"/>
-      <c r="N38" s="286"/>
-      <c r="O38" s="286"/>
-      <c r="P38" s="287"/>
+      <c r="C38" s="285"/>
+      <c r="D38" s="285"/>
+      <c r="E38" s="285"/>
+      <c r="F38" s="285"/>
+      <c r="G38" s="286"/>
+      <c r="H38" s="287"/>
+      <c r="I38" s="287"/>
+      <c r="J38" s="287"/>
+      <c r="K38" s="287"/>
+      <c r="L38" s="287"/>
+      <c r="M38" s="287"/>
+      <c r="N38" s="287"/>
+      <c r="O38" s="287"/>
+      <c r="P38" s="288"/>
       <c r="Q38" s="43"/>
     </row>
     <row r="39" spans="1:17" ht="32.4">
@@ -11564,20 +11567,20 @@
       <c r="B39" s="64">
         <v>35</v>
       </c>
-      <c r="C39" s="284"/>
-      <c r="D39" s="284"/>
-      <c r="E39" s="284"/>
-      <c r="F39" s="284"/>
-      <c r="G39" s="285"/>
-      <c r="H39" s="286"/>
-      <c r="I39" s="286"/>
-      <c r="J39" s="286"/>
-      <c r="K39" s="286"/>
-      <c r="L39" s="286"/>
-      <c r="M39" s="286"/>
-      <c r="N39" s="286"/>
-      <c r="O39" s="286"/>
-      <c r="P39" s="287"/>
+      <c r="C39" s="285"/>
+      <c r="D39" s="285"/>
+      <c r="E39" s="285"/>
+      <c r="F39" s="285"/>
+      <c r="G39" s="286"/>
+      <c r="H39" s="287"/>
+      <c r="I39" s="287"/>
+      <c r="J39" s="287"/>
+      <c r="K39" s="287"/>
+      <c r="L39" s="287"/>
+      <c r="M39" s="287"/>
+      <c r="N39" s="287"/>
+      <c r="O39" s="287"/>
+      <c r="P39" s="288"/>
       <c r="Q39" s="43"/>
     </row>
     <row r="40" spans="1:17" ht="32.4">
@@ -11585,39 +11588,39 @@
       <c r="B40" s="64">
         <v>36</v>
       </c>
-      <c r="C40" s="284"/>
-      <c r="D40" s="284"/>
-      <c r="E40" s="284"/>
-      <c r="F40" s="284"/>
-      <c r="G40" s="285"/>
-      <c r="H40" s="286"/>
-      <c r="I40" s="286"/>
-      <c r="J40" s="286"/>
-      <c r="K40" s="286"/>
-      <c r="L40" s="286"/>
-      <c r="M40" s="286"/>
-      <c r="N40" s="286"/>
-      <c r="O40" s="286"/>
-      <c r="P40" s="287"/>
+      <c r="C40" s="285"/>
+      <c r="D40" s="285"/>
+      <c r="E40" s="285"/>
+      <c r="F40" s="285"/>
+      <c r="G40" s="286"/>
+      <c r="H40" s="287"/>
+      <c r="I40" s="287"/>
+      <c r="J40" s="287"/>
+      <c r="K40" s="287"/>
+      <c r="L40" s="287"/>
+      <c r="M40" s="287"/>
+      <c r="N40" s="287"/>
+      <c r="O40" s="287"/>
+      <c r="P40" s="288"/>
       <c r="Q40" s="43"/>
     </row>
     <row r="41" spans="1:17" ht="33" thickBot="1">
       <c r="A41" s="44"/>
       <c r="B41" s="67"/>
-      <c r="C41" s="276"/>
-      <c r="D41" s="276"/>
-      <c r="E41" s="276"/>
-      <c r="F41" s="276"/>
-      <c r="G41" s="211"/>
-      <c r="H41" s="212"/>
-      <c r="I41" s="212"/>
-      <c r="J41" s="212"/>
-      <c r="K41" s="212"/>
-      <c r="L41" s="212"/>
-      <c r="M41" s="212"/>
-      <c r="N41" s="212"/>
-      <c r="O41" s="212"/>
-      <c r="P41" s="275"/>
+      <c r="C41" s="290"/>
+      <c r="D41" s="290"/>
+      <c r="E41" s="290"/>
+      <c r="F41" s="290"/>
+      <c r="G41" s="226"/>
+      <c r="H41" s="227"/>
+      <c r="I41" s="227"/>
+      <c r="J41" s="227"/>
+      <c r="K41" s="227"/>
+      <c r="L41" s="227"/>
+      <c r="M41" s="227"/>
+      <c r="N41" s="227"/>
+      <c r="O41" s="227"/>
+      <c r="P41" s="289"/>
       <c r="Q41" s="43"/>
     </row>
     <row r="42" spans="1:17">
@@ -11685,70 +11688,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:N2"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G12:P12"/>
-    <mergeCell ref="G13:P13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G14:P14"/>
-    <mergeCell ref="G15:P15"/>
-    <mergeCell ref="G16:P16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G17:P17"/>
-    <mergeCell ref="G18:P18"/>
-    <mergeCell ref="G19:P19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G20:P20"/>
-    <mergeCell ref="G21:P21"/>
-    <mergeCell ref="G22:P22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G23:P23"/>
-    <mergeCell ref="G24:P24"/>
-    <mergeCell ref="G25:P25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G26:P26"/>
-    <mergeCell ref="G27:P27"/>
-    <mergeCell ref="G28:P28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G29:P29"/>
-    <mergeCell ref="G30:P30"/>
-    <mergeCell ref="G31:P31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G32:P32"/>
-    <mergeCell ref="G33:P33"/>
-    <mergeCell ref="G34:P34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G35:P35"/>
-    <mergeCell ref="G36:P36"/>
-    <mergeCell ref="G37:P37"/>
     <mergeCell ref="G41:P41"/>
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="G4:P4"/>
@@ -11765,6 +11704,70 @@
     <mergeCell ref="G38:P38"/>
     <mergeCell ref="G39:P39"/>
     <mergeCell ref="G40:P40"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G35:P35"/>
+    <mergeCell ref="G36:P36"/>
+    <mergeCell ref="G37:P37"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G32:P32"/>
+    <mergeCell ref="G33:P33"/>
+    <mergeCell ref="G34:P34"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G29:P29"/>
+    <mergeCell ref="G30:P30"/>
+    <mergeCell ref="G31:P31"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G26:P26"/>
+    <mergeCell ref="G27:P27"/>
+    <mergeCell ref="G28:P28"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G23:P23"/>
+    <mergeCell ref="G24:P24"/>
+    <mergeCell ref="G25:P25"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G20:P20"/>
+    <mergeCell ref="G21:P21"/>
+    <mergeCell ref="G22:P22"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G17:P17"/>
+    <mergeCell ref="G18:P18"/>
+    <mergeCell ref="G19:P19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G14:P14"/>
+    <mergeCell ref="G15:P15"/>
+    <mergeCell ref="G16:P16"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G12:P12"/>
+    <mergeCell ref="G13:P13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:N2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11790,53 +11793,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="43.05" customHeight="1">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="208" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="218" t="str">
+      <c r="B1" s="209"/>
+      <c r="C1" s="212" t="str">
         <f>表紙!C7</f>
         <v>プロジェクト名</v>
       </c>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
-      <c r="L1" s="219"/>
-      <c r="M1" s="220"/>
-      <c r="N1" s="220"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
       <c r="O1" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="224">
+      <c r="P1" s="218">
         <v>44832</v>
       </c>
-      <c r="Q1" s="225"/>
+      <c r="Q1" s="219"/>
     </row>
     <row r="2" spans="1:17" ht="43.05" customHeight="1" thickBot="1">
-      <c r="A2" s="216"/>
-      <c r="B2" s="217"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="222"/>
-      <c r="M2" s="223"/>
-      <c r="N2" s="223"/>
+      <c r="A2" s="210"/>
+      <c r="B2" s="211"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="217"/>
       <c r="O2" s="188" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="226"/>
-      <c r="Q2" s="227"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="221"/>
     </row>
     <row r="3" spans="1:17" ht="26.4" thickBot="1">
       <c r="A3" s="8"/>
@@ -11847,22 +11850,22 @@
       <c r="B4" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="277" t="s">
+      <c r="C4" s="275" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="277" t="s">
+      <c r="D4" s="276"/>
+      <c r="E4" s="276"/>
+      <c r="F4" s="277"/>
+      <c r="G4" s="275" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="278"/>
-      <c r="I4" s="278"/>
-      <c r="J4" s="278"/>
-      <c r="K4" s="278"/>
-      <c r="L4" s="278"/>
-      <c r="M4" s="278"/>
-      <c r="N4" s="291"/>
+      <c r="H4" s="276"/>
+      <c r="I4" s="276"/>
+      <c r="J4" s="276"/>
+      <c r="K4" s="276"/>
+      <c r="L4" s="276"/>
+      <c r="M4" s="276"/>
+      <c r="N4" s="277"/>
       <c r="O4" s="190" t="s">
         <v>28</v>
       </c>
@@ -11932,13 +11935,13 @@
       <c r="B7" s="64">
         <v>3</v>
       </c>
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="294" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="295"/>
-      <c r="E7" s="295"/>
-      <c r="F7" s="295"/>
-      <c r="G7" s="294" t="s">
+      <c r="D7" s="294"/>
+      <c r="E7" s="294"/>
+      <c r="F7" s="294"/>
+      <c r="G7" s="295" t="s">
         <v>98</v>
       </c>
       <c r="H7" s="296"/>
@@ -11959,13 +11962,13 @@
       <c r="B8" s="64">
         <v>4</v>
       </c>
-      <c r="C8" s="295" t="s">
+      <c r="C8" s="294" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="295"/>
-      <c r="E8" s="295"/>
-      <c r="F8" s="295"/>
-      <c r="G8" s="294" t="s">
+      <c r="D8" s="294"/>
+      <c r="E8" s="294"/>
+      <c r="F8" s="294"/>
+      <c r="G8" s="295" t="s">
         <v>95</v>
       </c>
       <c r="H8" s="293"/>
@@ -11988,12 +11991,12 @@
       <c r="B9" s="64">
         <v>5</v>
       </c>
-      <c r="C9" s="295" t="s">
+      <c r="C9" s="294" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="295"/>
-      <c r="E9" s="295"/>
-      <c r="F9" s="295"/>
+      <c r="D9" s="294"/>
+      <c r="E9" s="294"/>
+      <c r="F9" s="294"/>
       <c r="G9" s="293" t="s">
         <v>97</v>
       </c>
@@ -12015,12 +12018,12 @@
       <c r="B10" s="64">
         <v>6</v>
       </c>
-      <c r="C10" s="295" t="s">
+      <c r="C10" s="294" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="295"/>
-      <c r="E10" s="295"/>
-      <c r="F10" s="295"/>
+      <c r="D10" s="294"/>
+      <c r="E10" s="294"/>
+      <c r="F10" s="294"/>
       <c r="G10" s="293" t="s">
         <v>100</v>
       </c>
@@ -12042,12 +12045,12 @@
       <c r="B11" s="64">
         <v>7</v>
       </c>
-      <c r="C11" s="295" t="s">
+      <c r="C11" s="294" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="295"/>
-      <c r="E11" s="295"/>
-      <c r="F11" s="295"/>
+      <c r="D11" s="294"/>
+      <c r="E11" s="294"/>
+      <c r="F11" s="294"/>
       <c r="G11" s="293" t="s">
         <v>102</v>
       </c>
@@ -12075,7 +12078,7 @@
       <c r="D12" s="292"/>
       <c r="E12" s="292"/>
       <c r="F12" s="292"/>
-      <c r="G12" s="294" t="s">
+      <c r="G12" s="295" t="s">
         <v>105</v>
       </c>
       <c r="H12" s="293"/>
@@ -12239,18 +12242,18 @@
       <c r="B18" s="64">
         <v>14</v>
       </c>
-      <c r="C18" s="284"/>
-      <c r="D18" s="284"/>
-      <c r="E18" s="284"/>
-      <c r="F18" s="284"/>
-      <c r="G18" s="284"/>
-      <c r="H18" s="284"/>
-      <c r="I18" s="284"/>
-      <c r="J18" s="284"/>
-      <c r="K18" s="284"/>
-      <c r="L18" s="284"/>
-      <c r="M18" s="284"/>
-      <c r="N18" s="284"/>
+      <c r="C18" s="285"/>
+      <c r="D18" s="285"/>
+      <c r="E18" s="285"/>
+      <c r="F18" s="285"/>
+      <c r="G18" s="285"/>
+      <c r="H18" s="285"/>
+      <c r="I18" s="285"/>
+      <c r="J18" s="285"/>
+      <c r="K18" s="285"/>
+      <c r="L18" s="285"/>
+      <c r="M18" s="285"/>
+      <c r="N18" s="285"/>
       <c r="O18" s="191"/>
       <c r="P18" s="65"/>
       <c r="Q18" s="43"/>
@@ -12258,18 +12261,18 @@
     <row r="19" spans="1:17" ht="32.4">
       <c r="A19" s="44"/>
       <c r="B19" s="66"/>
-      <c r="C19" s="284"/>
-      <c r="D19" s="284"/>
-      <c r="E19" s="284"/>
-      <c r="F19" s="284"/>
-      <c r="G19" s="284"/>
-      <c r="H19" s="284"/>
-      <c r="I19" s="284"/>
-      <c r="J19" s="284"/>
-      <c r="K19" s="284"/>
-      <c r="L19" s="284"/>
-      <c r="M19" s="284"/>
-      <c r="N19" s="284"/>
+      <c r="C19" s="285"/>
+      <c r="D19" s="285"/>
+      <c r="E19" s="285"/>
+      <c r="F19" s="285"/>
+      <c r="G19" s="285"/>
+      <c r="H19" s="285"/>
+      <c r="I19" s="285"/>
+      <c r="J19" s="285"/>
+      <c r="K19" s="285"/>
+      <c r="L19" s="285"/>
+      <c r="M19" s="285"/>
+      <c r="N19" s="285"/>
       <c r="O19" s="191"/>
       <c r="P19" s="65"/>
       <c r="Q19" s="43"/>
@@ -12277,18 +12280,18 @@
     <row r="20" spans="1:17" ht="32.4">
       <c r="A20" s="44"/>
       <c r="B20" s="66"/>
-      <c r="C20" s="284"/>
-      <c r="D20" s="284"/>
-      <c r="E20" s="284"/>
-      <c r="F20" s="284"/>
-      <c r="G20" s="284"/>
-      <c r="H20" s="284"/>
-      <c r="I20" s="284"/>
-      <c r="J20" s="284"/>
-      <c r="K20" s="284"/>
-      <c r="L20" s="284"/>
-      <c r="M20" s="284"/>
-      <c r="N20" s="284"/>
+      <c r="C20" s="285"/>
+      <c r="D20" s="285"/>
+      <c r="E20" s="285"/>
+      <c r="F20" s="285"/>
+      <c r="G20" s="285"/>
+      <c r="H20" s="285"/>
+      <c r="I20" s="285"/>
+      <c r="J20" s="285"/>
+      <c r="K20" s="285"/>
+      <c r="L20" s="285"/>
+      <c r="M20" s="285"/>
+      <c r="N20" s="285"/>
       <c r="O20" s="191"/>
       <c r="P20" s="65"/>
       <c r="Q20" s="43"/>
@@ -12296,18 +12299,18 @@
     <row r="21" spans="1:17" ht="32.4">
       <c r="A21" s="44"/>
       <c r="B21" s="66"/>
-      <c r="C21" s="284"/>
-      <c r="D21" s="284"/>
-      <c r="E21" s="284"/>
-      <c r="F21" s="284"/>
-      <c r="G21" s="284"/>
-      <c r="H21" s="284"/>
-      <c r="I21" s="284"/>
-      <c r="J21" s="284"/>
-      <c r="K21" s="284"/>
-      <c r="L21" s="284"/>
-      <c r="M21" s="284"/>
-      <c r="N21" s="284"/>
+      <c r="C21" s="285"/>
+      <c r="D21" s="285"/>
+      <c r="E21" s="285"/>
+      <c r="F21" s="285"/>
+      <c r="G21" s="285"/>
+      <c r="H21" s="285"/>
+      <c r="I21" s="285"/>
+      <c r="J21" s="285"/>
+      <c r="K21" s="285"/>
+      <c r="L21" s="285"/>
+      <c r="M21" s="285"/>
+      <c r="N21" s="285"/>
       <c r="O21" s="191"/>
       <c r="P21" s="65"/>
       <c r="Q21" s="43"/>
@@ -12315,18 +12318,18 @@
     <row r="22" spans="1:17" ht="32.4">
       <c r="A22" s="44"/>
       <c r="B22" s="66"/>
-      <c r="C22" s="284"/>
-      <c r="D22" s="284"/>
-      <c r="E22" s="284"/>
-      <c r="F22" s="284"/>
-      <c r="G22" s="284"/>
-      <c r="H22" s="284"/>
-      <c r="I22" s="284"/>
-      <c r="J22" s="284"/>
-      <c r="K22" s="284"/>
-      <c r="L22" s="284"/>
-      <c r="M22" s="284"/>
-      <c r="N22" s="284"/>
+      <c r="C22" s="285"/>
+      <c r="D22" s="285"/>
+      <c r="E22" s="285"/>
+      <c r="F22" s="285"/>
+      <c r="G22" s="285"/>
+      <c r="H22" s="285"/>
+      <c r="I22" s="285"/>
+      <c r="J22" s="285"/>
+      <c r="K22" s="285"/>
+      <c r="L22" s="285"/>
+      <c r="M22" s="285"/>
+      <c r="N22" s="285"/>
       <c r="O22" s="191"/>
       <c r="P22" s="65"/>
       <c r="Q22" s="43"/>
@@ -12334,18 +12337,18 @@
     <row r="23" spans="1:17" ht="32.4">
       <c r="A23" s="44"/>
       <c r="B23" s="66"/>
-      <c r="C23" s="284"/>
-      <c r="D23" s="284"/>
-      <c r="E23" s="284"/>
-      <c r="F23" s="284"/>
-      <c r="G23" s="284"/>
-      <c r="H23" s="284"/>
-      <c r="I23" s="284"/>
-      <c r="J23" s="284"/>
-      <c r="K23" s="284"/>
-      <c r="L23" s="284"/>
-      <c r="M23" s="284"/>
-      <c r="N23" s="284"/>
+      <c r="C23" s="285"/>
+      <c r="D23" s="285"/>
+      <c r="E23" s="285"/>
+      <c r="F23" s="285"/>
+      <c r="G23" s="285"/>
+      <c r="H23" s="285"/>
+      <c r="I23" s="285"/>
+      <c r="J23" s="285"/>
+      <c r="K23" s="285"/>
+      <c r="L23" s="285"/>
+      <c r="M23" s="285"/>
+      <c r="N23" s="285"/>
       <c r="O23" s="191"/>
       <c r="P23" s="65"/>
       <c r="Q23" s="43"/>
@@ -12353,18 +12356,18 @@
     <row r="24" spans="1:17" ht="32.4">
       <c r="A24" s="44"/>
       <c r="B24" s="66"/>
-      <c r="C24" s="284"/>
-      <c r="D24" s="284"/>
-      <c r="E24" s="284"/>
-      <c r="F24" s="284"/>
-      <c r="G24" s="284"/>
-      <c r="H24" s="284"/>
-      <c r="I24" s="284"/>
-      <c r="J24" s="284"/>
-      <c r="K24" s="284"/>
-      <c r="L24" s="284"/>
-      <c r="M24" s="284"/>
-      <c r="N24" s="284"/>
+      <c r="C24" s="285"/>
+      <c r="D24" s="285"/>
+      <c r="E24" s="285"/>
+      <c r="F24" s="285"/>
+      <c r="G24" s="285"/>
+      <c r="H24" s="285"/>
+      <c r="I24" s="285"/>
+      <c r="J24" s="285"/>
+      <c r="K24" s="285"/>
+      <c r="L24" s="285"/>
+      <c r="M24" s="285"/>
+      <c r="N24" s="285"/>
       <c r="O24" s="191"/>
       <c r="P24" s="65"/>
       <c r="Q24" s="43"/>
@@ -12372,18 +12375,18 @@
     <row r="25" spans="1:17" ht="32.4">
       <c r="A25" s="44"/>
       <c r="B25" s="66"/>
-      <c r="C25" s="284"/>
-      <c r="D25" s="284"/>
-      <c r="E25" s="284"/>
-      <c r="F25" s="284"/>
-      <c r="G25" s="284"/>
-      <c r="H25" s="284"/>
-      <c r="I25" s="284"/>
-      <c r="J25" s="284"/>
-      <c r="K25" s="284"/>
-      <c r="L25" s="284"/>
-      <c r="M25" s="284"/>
-      <c r="N25" s="284"/>
+      <c r="C25" s="285"/>
+      <c r="D25" s="285"/>
+      <c r="E25" s="285"/>
+      <c r="F25" s="285"/>
+      <c r="G25" s="285"/>
+      <c r="H25" s="285"/>
+      <c r="I25" s="285"/>
+      <c r="J25" s="285"/>
+      <c r="K25" s="285"/>
+      <c r="L25" s="285"/>
+      <c r="M25" s="285"/>
+      <c r="N25" s="285"/>
       <c r="O25" s="191"/>
       <c r="P25" s="65"/>
       <c r="Q25" s="43"/>
@@ -12391,18 +12394,18 @@
     <row r="26" spans="1:17" ht="32.4">
       <c r="A26" s="44"/>
       <c r="B26" s="66"/>
-      <c r="C26" s="284"/>
-      <c r="D26" s="284"/>
-      <c r="E26" s="284"/>
-      <c r="F26" s="284"/>
-      <c r="G26" s="284"/>
-      <c r="H26" s="284"/>
-      <c r="I26" s="284"/>
-      <c r="J26" s="284"/>
-      <c r="K26" s="284"/>
-      <c r="L26" s="284"/>
-      <c r="M26" s="284"/>
-      <c r="N26" s="284"/>
+      <c r="C26" s="285"/>
+      <c r="D26" s="285"/>
+      <c r="E26" s="285"/>
+      <c r="F26" s="285"/>
+      <c r="G26" s="285"/>
+      <c r="H26" s="285"/>
+      <c r="I26" s="285"/>
+      <c r="J26" s="285"/>
+      <c r="K26" s="285"/>
+      <c r="L26" s="285"/>
+      <c r="M26" s="285"/>
+      <c r="N26" s="285"/>
       <c r="O26" s="191"/>
       <c r="P26" s="65"/>
       <c r="Q26" s="43"/>
@@ -12410,18 +12413,18 @@
     <row r="27" spans="1:17" ht="32.4">
       <c r="A27" s="44"/>
       <c r="B27" s="66"/>
-      <c r="C27" s="284"/>
-      <c r="D27" s="284"/>
-      <c r="E27" s="284"/>
-      <c r="F27" s="284"/>
-      <c r="G27" s="284"/>
-      <c r="H27" s="284"/>
-      <c r="I27" s="284"/>
-      <c r="J27" s="284"/>
-      <c r="K27" s="284"/>
-      <c r="L27" s="284"/>
-      <c r="M27" s="284"/>
-      <c r="N27" s="284"/>
+      <c r="C27" s="285"/>
+      <c r="D27" s="285"/>
+      <c r="E27" s="285"/>
+      <c r="F27" s="285"/>
+      <c r="G27" s="285"/>
+      <c r="H27" s="285"/>
+      <c r="I27" s="285"/>
+      <c r="J27" s="285"/>
+      <c r="K27" s="285"/>
+      <c r="L27" s="285"/>
+      <c r="M27" s="285"/>
+      <c r="N27" s="285"/>
       <c r="O27" s="191"/>
       <c r="P27" s="65"/>
       <c r="Q27" s="43"/>
@@ -12429,18 +12432,18 @@
     <row r="28" spans="1:17" ht="32.4">
       <c r="A28" s="44"/>
       <c r="B28" s="66"/>
-      <c r="C28" s="284"/>
-      <c r="D28" s="284"/>
-      <c r="E28" s="284"/>
-      <c r="F28" s="284"/>
-      <c r="G28" s="284"/>
-      <c r="H28" s="284"/>
-      <c r="I28" s="284"/>
-      <c r="J28" s="284"/>
-      <c r="K28" s="284"/>
-      <c r="L28" s="284"/>
-      <c r="M28" s="284"/>
-      <c r="N28" s="284"/>
+      <c r="C28" s="285"/>
+      <c r="D28" s="285"/>
+      <c r="E28" s="285"/>
+      <c r="F28" s="285"/>
+      <c r="G28" s="285"/>
+      <c r="H28" s="285"/>
+      <c r="I28" s="285"/>
+      <c r="J28" s="285"/>
+      <c r="K28" s="285"/>
+      <c r="L28" s="285"/>
+      <c r="M28" s="285"/>
+      <c r="N28" s="285"/>
       <c r="O28" s="191"/>
       <c r="P28" s="65"/>
       <c r="Q28" s="43"/>
@@ -12448,18 +12451,18 @@
     <row r="29" spans="1:17" ht="32.4">
       <c r="A29" s="44"/>
       <c r="B29" s="66"/>
-      <c r="C29" s="284"/>
-      <c r="D29" s="284"/>
-      <c r="E29" s="284"/>
-      <c r="F29" s="284"/>
-      <c r="G29" s="284"/>
-      <c r="H29" s="284"/>
-      <c r="I29" s="284"/>
-      <c r="J29" s="284"/>
-      <c r="K29" s="284"/>
-      <c r="L29" s="284"/>
-      <c r="M29" s="284"/>
-      <c r="N29" s="284"/>
+      <c r="C29" s="285"/>
+      <c r="D29" s="285"/>
+      <c r="E29" s="285"/>
+      <c r="F29" s="285"/>
+      <c r="G29" s="285"/>
+      <c r="H29" s="285"/>
+      <c r="I29" s="285"/>
+      <c r="J29" s="285"/>
+      <c r="K29" s="285"/>
+      <c r="L29" s="285"/>
+      <c r="M29" s="285"/>
+      <c r="N29" s="285"/>
       <c r="O29" s="191"/>
       <c r="P29" s="65"/>
       <c r="Q29" s="43"/>
@@ -12467,18 +12470,18 @@
     <row r="30" spans="1:17" ht="32.4">
       <c r="A30" s="44"/>
       <c r="B30" s="66"/>
-      <c r="C30" s="284"/>
-      <c r="D30" s="284"/>
-      <c r="E30" s="284"/>
-      <c r="F30" s="284"/>
-      <c r="G30" s="284"/>
-      <c r="H30" s="284"/>
-      <c r="I30" s="284"/>
-      <c r="J30" s="284"/>
-      <c r="K30" s="284"/>
-      <c r="L30" s="284"/>
-      <c r="M30" s="284"/>
-      <c r="N30" s="284"/>
+      <c r="C30" s="285"/>
+      <c r="D30" s="285"/>
+      <c r="E30" s="285"/>
+      <c r="F30" s="285"/>
+      <c r="G30" s="285"/>
+      <c r="H30" s="285"/>
+      <c r="I30" s="285"/>
+      <c r="J30" s="285"/>
+      <c r="K30" s="285"/>
+      <c r="L30" s="285"/>
+      <c r="M30" s="285"/>
+      <c r="N30" s="285"/>
       <c r="O30" s="191"/>
       <c r="P30" s="65"/>
       <c r="Q30" s="43"/>
@@ -12486,18 +12489,18 @@
     <row r="31" spans="1:17" ht="32.4">
       <c r="A31" s="44"/>
       <c r="B31" s="66"/>
-      <c r="C31" s="284"/>
-      <c r="D31" s="284"/>
-      <c r="E31" s="284"/>
-      <c r="F31" s="284"/>
-      <c r="G31" s="284"/>
-      <c r="H31" s="284"/>
-      <c r="I31" s="284"/>
-      <c r="J31" s="284"/>
-      <c r="K31" s="284"/>
-      <c r="L31" s="284"/>
-      <c r="M31" s="284"/>
-      <c r="N31" s="284"/>
+      <c r="C31" s="285"/>
+      <c r="D31" s="285"/>
+      <c r="E31" s="285"/>
+      <c r="F31" s="285"/>
+      <c r="G31" s="285"/>
+      <c r="H31" s="285"/>
+      <c r="I31" s="285"/>
+      <c r="J31" s="285"/>
+      <c r="K31" s="285"/>
+      <c r="L31" s="285"/>
+      <c r="M31" s="285"/>
+      <c r="N31" s="285"/>
       <c r="O31" s="191"/>
       <c r="P31" s="65"/>
       <c r="Q31" s="43"/>
@@ -12505,18 +12508,18 @@
     <row r="32" spans="1:17" ht="32.4">
       <c r="A32" s="44"/>
       <c r="B32" s="66"/>
-      <c r="C32" s="284"/>
-      <c r="D32" s="284"/>
-      <c r="E32" s="284"/>
-      <c r="F32" s="284"/>
-      <c r="G32" s="284"/>
-      <c r="H32" s="284"/>
-      <c r="I32" s="284"/>
-      <c r="J32" s="284"/>
-      <c r="K32" s="284"/>
-      <c r="L32" s="284"/>
-      <c r="M32" s="284"/>
-      <c r="N32" s="284"/>
+      <c r="C32" s="285"/>
+      <c r="D32" s="285"/>
+      <c r="E32" s="285"/>
+      <c r="F32" s="285"/>
+      <c r="G32" s="285"/>
+      <c r="H32" s="285"/>
+      <c r="I32" s="285"/>
+      <c r="J32" s="285"/>
+      <c r="K32" s="285"/>
+      <c r="L32" s="285"/>
+      <c r="M32" s="285"/>
+      <c r="N32" s="285"/>
       <c r="O32" s="191"/>
       <c r="P32" s="65"/>
       <c r="Q32" s="43"/>
@@ -12524,18 +12527,18 @@
     <row r="33" spans="1:17" ht="32.4">
       <c r="A33" s="44"/>
       <c r="B33" s="66"/>
-      <c r="C33" s="284"/>
-      <c r="D33" s="284"/>
-      <c r="E33" s="284"/>
-      <c r="F33" s="284"/>
-      <c r="G33" s="284"/>
-      <c r="H33" s="284"/>
-      <c r="I33" s="284"/>
-      <c r="J33" s="284"/>
-      <c r="K33" s="284"/>
-      <c r="L33" s="284"/>
-      <c r="M33" s="284"/>
-      <c r="N33" s="284"/>
+      <c r="C33" s="285"/>
+      <c r="D33" s="285"/>
+      <c r="E33" s="285"/>
+      <c r="F33" s="285"/>
+      <c r="G33" s="285"/>
+      <c r="H33" s="285"/>
+      <c r="I33" s="285"/>
+      <c r="J33" s="285"/>
+      <c r="K33" s="285"/>
+      <c r="L33" s="285"/>
+      <c r="M33" s="285"/>
+      <c r="N33" s="285"/>
       <c r="O33" s="191"/>
       <c r="P33" s="65"/>
       <c r="Q33" s="43"/>
@@ -12543,18 +12546,18 @@
     <row r="34" spans="1:17" ht="32.4">
       <c r="A34" s="44"/>
       <c r="B34" s="66"/>
-      <c r="C34" s="284"/>
-      <c r="D34" s="284"/>
-      <c r="E34" s="284"/>
-      <c r="F34" s="284"/>
-      <c r="G34" s="284"/>
-      <c r="H34" s="284"/>
-      <c r="I34" s="284"/>
-      <c r="J34" s="284"/>
-      <c r="K34" s="284"/>
-      <c r="L34" s="284"/>
-      <c r="M34" s="284"/>
-      <c r="N34" s="284"/>
+      <c r="C34" s="285"/>
+      <c r="D34" s="285"/>
+      <c r="E34" s="285"/>
+      <c r="F34" s="285"/>
+      <c r="G34" s="285"/>
+      <c r="H34" s="285"/>
+      <c r="I34" s="285"/>
+      <c r="J34" s="285"/>
+      <c r="K34" s="285"/>
+      <c r="L34" s="285"/>
+      <c r="M34" s="285"/>
+      <c r="N34" s="285"/>
       <c r="O34" s="191"/>
       <c r="P34" s="65"/>
       <c r="Q34" s="43"/>
@@ -12562,18 +12565,18 @@
     <row r="35" spans="1:17" ht="32.4">
       <c r="A35" s="44"/>
       <c r="B35" s="66"/>
-      <c r="C35" s="284"/>
-      <c r="D35" s="284"/>
-      <c r="E35" s="284"/>
-      <c r="F35" s="284"/>
-      <c r="G35" s="284"/>
-      <c r="H35" s="284"/>
-      <c r="I35" s="284"/>
-      <c r="J35" s="284"/>
-      <c r="K35" s="284"/>
-      <c r="L35" s="284"/>
-      <c r="M35" s="284"/>
-      <c r="N35" s="284"/>
+      <c r="C35" s="285"/>
+      <c r="D35" s="285"/>
+      <c r="E35" s="285"/>
+      <c r="F35" s="285"/>
+      <c r="G35" s="285"/>
+      <c r="H35" s="285"/>
+      <c r="I35" s="285"/>
+      <c r="J35" s="285"/>
+      <c r="K35" s="285"/>
+      <c r="L35" s="285"/>
+      <c r="M35" s="285"/>
+      <c r="N35" s="285"/>
       <c r="O35" s="191"/>
       <c r="P35" s="65"/>
       <c r="Q35" s="43"/>
@@ -12581,18 +12584,18 @@
     <row r="36" spans="1:17" ht="32.4">
       <c r="A36" s="44"/>
       <c r="B36" s="66"/>
-      <c r="C36" s="284"/>
-      <c r="D36" s="284"/>
-      <c r="E36" s="284"/>
-      <c r="F36" s="284"/>
-      <c r="G36" s="284"/>
-      <c r="H36" s="284"/>
-      <c r="I36" s="284"/>
-      <c r="J36" s="284"/>
-      <c r="K36" s="284"/>
-      <c r="L36" s="284"/>
-      <c r="M36" s="284"/>
-      <c r="N36" s="284"/>
+      <c r="C36" s="285"/>
+      <c r="D36" s="285"/>
+      <c r="E36" s="285"/>
+      <c r="F36" s="285"/>
+      <c r="G36" s="285"/>
+      <c r="H36" s="285"/>
+      <c r="I36" s="285"/>
+      <c r="J36" s="285"/>
+      <c r="K36" s="285"/>
+      <c r="L36" s="285"/>
+      <c r="M36" s="285"/>
+      <c r="N36" s="285"/>
       <c r="O36" s="191"/>
       <c r="P36" s="65"/>
       <c r="Q36" s="43"/>
@@ -12600,18 +12603,18 @@
     <row r="37" spans="1:17" ht="32.4">
       <c r="A37" s="44"/>
       <c r="B37" s="66"/>
-      <c r="C37" s="284"/>
-      <c r="D37" s="284"/>
-      <c r="E37" s="284"/>
-      <c r="F37" s="284"/>
-      <c r="G37" s="284"/>
-      <c r="H37" s="284"/>
-      <c r="I37" s="284"/>
-      <c r="J37" s="284"/>
-      <c r="K37" s="284"/>
-      <c r="L37" s="284"/>
-      <c r="M37" s="284"/>
-      <c r="N37" s="284"/>
+      <c r="C37" s="285"/>
+      <c r="D37" s="285"/>
+      <c r="E37" s="285"/>
+      <c r="F37" s="285"/>
+      <c r="G37" s="285"/>
+      <c r="H37" s="285"/>
+      <c r="I37" s="285"/>
+      <c r="J37" s="285"/>
+      <c r="K37" s="285"/>
+      <c r="L37" s="285"/>
+      <c r="M37" s="285"/>
+      <c r="N37" s="285"/>
       <c r="O37" s="191"/>
       <c r="P37" s="65"/>
       <c r="Q37" s="43"/>
@@ -12619,18 +12622,18 @@
     <row r="38" spans="1:17" ht="32.4">
       <c r="A38" s="44"/>
       <c r="B38" s="66"/>
-      <c r="C38" s="284"/>
-      <c r="D38" s="284"/>
-      <c r="E38" s="284"/>
-      <c r="F38" s="284"/>
-      <c r="G38" s="284"/>
-      <c r="H38" s="284"/>
-      <c r="I38" s="284"/>
-      <c r="J38" s="284"/>
-      <c r="K38" s="284"/>
-      <c r="L38" s="284"/>
-      <c r="M38" s="284"/>
-      <c r="N38" s="284"/>
+      <c r="C38" s="285"/>
+      <c r="D38" s="285"/>
+      <c r="E38" s="285"/>
+      <c r="F38" s="285"/>
+      <c r="G38" s="285"/>
+      <c r="H38" s="285"/>
+      <c r="I38" s="285"/>
+      <c r="J38" s="285"/>
+      <c r="K38" s="285"/>
+      <c r="L38" s="285"/>
+      <c r="M38" s="285"/>
+      <c r="N38" s="285"/>
       <c r="O38" s="191"/>
       <c r="P38" s="65"/>
       <c r="Q38" s="43"/>
@@ -12638,18 +12641,18 @@
     <row r="39" spans="1:17" ht="32.4">
       <c r="A39" s="44"/>
       <c r="B39" s="66"/>
-      <c r="C39" s="284"/>
-      <c r="D39" s="284"/>
-      <c r="E39" s="284"/>
-      <c r="F39" s="284"/>
-      <c r="G39" s="284"/>
-      <c r="H39" s="284"/>
-      <c r="I39" s="284"/>
-      <c r="J39" s="284"/>
-      <c r="K39" s="284"/>
-      <c r="L39" s="284"/>
-      <c r="M39" s="284"/>
-      <c r="N39" s="284"/>
+      <c r="C39" s="285"/>
+      <c r="D39" s="285"/>
+      <c r="E39" s="285"/>
+      <c r="F39" s="285"/>
+      <c r="G39" s="285"/>
+      <c r="H39" s="285"/>
+      <c r="I39" s="285"/>
+      <c r="J39" s="285"/>
+      <c r="K39" s="285"/>
+      <c r="L39" s="285"/>
+      <c r="M39" s="285"/>
+      <c r="N39" s="285"/>
       <c r="O39" s="191"/>
       <c r="P39" s="65"/>
       <c r="Q39" s="43"/>
@@ -12657,18 +12660,18 @@
     <row r="40" spans="1:17" ht="32.4">
       <c r="A40" s="44"/>
       <c r="B40" s="66"/>
-      <c r="C40" s="284"/>
-      <c r="D40" s="284"/>
-      <c r="E40" s="284"/>
-      <c r="F40" s="284"/>
-      <c r="G40" s="284"/>
-      <c r="H40" s="284"/>
-      <c r="I40" s="284"/>
-      <c r="J40" s="284"/>
-      <c r="K40" s="284"/>
-      <c r="L40" s="284"/>
-      <c r="M40" s="284"/>
-      <c r="N40" s="284"/>
+      <c r="C40" s="285"/>
+      <c r="D40" s="285"/>
+      <c r="E40" s="285"/>
+      <c r="F40" s="285"/>
+      <c r="G40" s="285"/>
+      <c r="H40" s="285"/>
+      <c r="I40" s="285"/>
+      <c r="J40" s="285"/>
+      <c r="K40" s="285"/>
+      <c r="L40" s="285"/>
+      <c r="M40" s="285"/>
+      <c r="N40" s="285"/>
       <c r="O40" s="191"/>
       <c r="P40" s="65"/>
       <c r="Q40" s="43"/>
@@ -12676,18 +12679,18 @@
     <row r="41" spans="1:17" ht="33" thickBot="1">
       <c r="A41" s="44"/>
       <c r="B41" s="67"/>
-      <c r="C41" s="276"/>
-      <c r="D41" s="276"/>
-      <c r="E41" s="276"/>
-      <c r="F41" s="276"/>
-      <c r="G41" s="276"/>
-      <c r="H41" s="276"/>
-      <c r="I41" s="276"/>
-      <c r="J41" s="276"/>
-      <c r="K41" s="276"/>
-      <c r="L41" s="276"/>
-      <c r="M41" s="276"/>
-      <c r="N41" s="276"/>
+      <c r="C41" s="290"/>
+      <c r="D41" s="290"/>
+      <c r="E41" s="290"/>
+      <c r="F41" s="290"/>
+      <c r="G41" s="290"/>
+      <c r="H41" s="290"/>
+      <c r="I41" s="290"/>
+      <c r="J41" s="290"/>
+      <c r="K41" s="290"/>
+      <c r="L41" s="290"/>
+      <c r="M41" s="290"/>
+      <c r="N41" s="290"/>
       <c r="O41" s="192"/>
       <c r="P41" s="69"/>
       <c r="Q41" s="43"/>
@@ -12717,38 +12720,40 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:N2"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:N6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:N7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:N8"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:N24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:N20"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:N23"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:N39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:N40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:N41"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:N29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:N30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:N28"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:N17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:N18"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:N16"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:N15"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="G37:N37"/>
     <mergeCell ref="C38:F38"/>
@@ -12763,40 +12768,38 @@
     <mergeCell ref="G35:N35"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="G36:N36"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:N16"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:N17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:N18"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:N26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:N28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:N30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:N39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:N40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:N41"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:N24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:N23"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:N6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:N7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:N8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:N2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:N4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12838,10 +12841,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="34.049999999999997" customHeight="1">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="208" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="215"/>
+      <c r="B1" s="209"/>
       <c r="C1" s="307" t="str">
         <f>表紙!C7</f>
         <v>プロジェクト名</v>
@@ -12864,12 +12867,12 @@
       <c r="S1" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="224"/>
-      <c r="U1" s="225"/>
+      <c r="T1" s="218"/>
+      <c r="U1" s="219"/>
     </row>
     <row r="2" spans="1:23" ht="34.049999999999997" customHeight="1" thickBot="1">
-      <c r="A2" s="216"/>
-      <c r="B2" s="217"/>
+      <c r="A2" s="210"/>
+      <c r="B2" s="211"/>
       <c r="C2" s="309"/>
       <c r="D2" s="310"/>
       <c r="E2" s="310"/>
@@ -12889,11 +12892,11 @@
       <c r="S2" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="226">
+      <c r="T2" s="220">
         <f ca="1">NOW()</f>
-        <v>44836.832805208331</v>
-      </c>
-      <c r="U2" s="227"/>
+        <v>44836.836932523147</v>
+      </c>
+      <c r="U2" s="221"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="159"/>
@@ -13435,10 +13438,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="34.049999999999997" customHeight="1">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="208" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="215"/>
+      <c r="B1" s="209"/>
       <c r="C1" s="307" t="str">
         <f>表紙!C7</f>
         <v>プロジェクト名</v>
@@ -13461,12 +13464,12 @@
       <c r="S1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="224"/>
-      <c r="U1" s="225"/>
+      <c r="T1" s="218"/>
+      <c r="U1" s="219"/>
     </row>
     <row r="2" spans="1:22" ht="34.049999999999997" customHeight="1" thickBot="1">
-      <c r="A2" s="216"/>
-      <c r="B2" s="217"/>
+      <c r="A2" s="210"/>
+      <c r="B2" s="211"/>
       <c r="C2" s="309"/>
       <c r="D2" s="310"/>
       <c r="E2" s="310"/>
@@ -13486,11 +13489,11 @@
       <c r="S2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="226">
+      <c r="T2" s="220">
         <f ca="1">NOW()</f>
-        <v>44836.832805208331</v>
-      </c>
-      <c r="U2" s="227"/>
+        <v>44836.836932523147</v>
+      </c>
+      <c r="U2" s="221"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="8"/>
